--- a/Реестр символов (кам.).xlsx
+++ b/Реестр символов (кам.).xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53BC0DCC-345C-467E-B84C-043D2717588F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE640747-B145-4DC3-9A40-1425E8A333A2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5544,8 +5544,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F52" sqref="F52"/>
+    <sheetView tabSelected="1" topLeftCell="A47" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B56" sqref="B56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Реестр символов (кам.).xlsx
+++ b/Реестр символов (кам.).xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE640747-B145-4DC3-9A40-1425E8A333A2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23669632-7AC9-4417-90B7-0E2462CEBE65}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="185">
   <si>
     <t>Области</t>
   </si>
@@ -5268,6 +5268,50 @@
         <a:xfrm>
           <a:off x="7610475" y="15325725"/>
           <a:ext cx="866667" cy="533334"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>6516</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>3246</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="97" name="Рисунок 96">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{70A0D070-4723-49E4-9077-7763ABAA7D53}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId96"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7610475" y="27060525"/>
+          <a:ext cx="873291" cy="536646"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5544,8 +5588,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A47" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B56" sqref="B56"/>
+    <sheetView tabSelected="1" topLeftCell="A38" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E46" sqref="E46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6457,9 +6501,7 @@
       <c r="E52" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="F52" s="45" t="s">
-        <v>182</v>
-      </c>
+      <c r="F52" s="45"/>
       <c r="G52" s="35"/>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">

--- a/Реестр символов (кам.).xlsx
+++ b/Реестр символов (кам.).xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23669632-7AC9-4417-90B7-0E2462CEBE65}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE73B081-D5D9-4951-A9FF-D38775DFC503}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="185">
   <si>
     <t>Области</t>
   </si>
@@ -568,14 +568,14 @@
     <t>НЕ ОТОБРАЖАЕТСЯ</t>
   </si>
   <si>
-    <t>НЕ ГОТОВО
-(есть у М.)</t>
-  </si>
-  <si>
     <t>Есть у Маркшейдера и нет у нас:</t>
   </si>
   <si>
     <t>Карст (полости), кристаллы, красный ромб, звёздочка, выпирающий монолит, коричневая змейка.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">НЕ ГОТОВО
+</t>
   </si>
 </sst>
 </file>
@@ -5588,8 +5588,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E46" sqref="E46"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5880,9 +5880,7 @@
       <c r="E16" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="F16" s="32" t="s">
-        <v>156</v>
-      </c>
+      <c r="F16" s="32"/>
       <c r="G16" s="30"/>
     </row>
     <row r="17" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
@@ -6238,7 +6236,7 @@
         <v>73</v>
       </c>
       <c r="F37" s="43" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="G37" s="30"/>
     </row>
@@ -6308,7 +6306,7 @@
         <v>88</v>
       </c>
       <c r="F41" s="43" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="G41" s="30"/>
     </row>
@@ -6394,9 +6392,7 @@
       <c r="E46" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="F46" s="43" t="s">
-        <v>182</v>
-      </c>
+      <c r="F46" s="43"/>
       <c r="G46" s="30"/>
     </row>
     <row r="47" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
@@ -6506,7 +6502,7 @@
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B54" s="8" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G54" s="8" t="s">
         <v>180</v>
@@ -6514,7 +6510,7 @@
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B55" s="8" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
   </sheetData>

--- a/Реестр символов (кам.).xlsx
+++ b/Реестр символов (кам.).xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23929"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE73B081-D5D9-4951-A9FF-D38775DFC503}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C8ADE13-7C9D-4B46-BC3F-CB71FA670C1F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4356,50 +4356,6 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>4654</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>1055</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="76" name="Рисунок 75">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AF49E2DA-2383-4A16-96C6-C0BEC52CE360}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId75"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7610475" y="6257925"/>
-          <a:ext cx="871429" cy="533334"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
       <xdr:row>35</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
@@ -4423,7 +4379,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId76"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId75"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -4431,50 +4387,6 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="7610475" y="18526125"/>
-          <a:ext cx="871429" cy="533334"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>4654</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>1055</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="78" name="Рисунок 77">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4DD2FC99-4AD9-4A33-A887-DB3B37FE32F1}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId77"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7610475" y="13725525"/>
           <a:ext cx="871429" cy="533334"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4511,7 +4423,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId78"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId76"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -4555,7 +4467,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId79"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId77"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -4599,7 +4511,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId80"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId78"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -4643,7 +4555,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId81"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId79"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -4687,7 +4599,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId82"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId80"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -4731,7 +4643,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId83"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId81"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -4775,7 +4687,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId84"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId82"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -4819,7 +4731,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId85"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId83"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -4863,7 +4775,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId86"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId84"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -4907,7 +4819,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId87"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId85"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -4951,7 +4863,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId88"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId86"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -4995,7 +4907,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId89"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId87"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -5039,7 +4951,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId90"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId88"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -5083,7 +4995,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId91"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId89"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -5127,7 +5039,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId92"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId90"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -5171,7 +5083,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId93"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId91"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -5215,7 +5127,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId94"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId92"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -5259,7 +5171,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId95"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId93"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -5303,7 +5215,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId96"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId94"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -5312,6 +5224,182 @@
         <a:xfrm>
           <a:off x="7610475" y="27060525"/>
           <a:ext cx="873291" cy="536646"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>533399</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>3225</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>2409</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="99" name="Рисунок 98">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C2785DAA-BB1B-4D3E-AB3D-9D94AB743B88}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId95"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7610475" y="7858124"/>
+          <a:ext cx="870000" cy="535810"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1797</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>3744</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="100" name="Рисунок 99">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{69DC6F9D-913D-4BA9-891C-FEBB5853C9D3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId96"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7610476" y="6257926"/>
+          <a:ext cx="868571" cy="537143"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>2750</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>3744</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="101" name="Рисунок 100">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A812F178-9AFF-4255-8B38-0FECE073DA66}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId97"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7620000" y="23860126"/>
+          <a:ext cx="860000" cy="537143"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>19052</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>9527</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>863433</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>529146</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="76" name="Рисунок 75">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D12C2495-6828-4879-BEBD-4371E4675120}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId98"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7629527" y="13735052"/>
+          <a:ext cx="844381" cy="519619"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5588,8 +5676,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J27" sqref="J27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Реестр символов (кам.).xlsx
+++ b/Реестр символов (кам.).xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23929"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C8ADE13-7C9D-4B46-BC3F-CB71FA670C1F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F75B3DAF-65FE-47EE-8F58-10992B84F646}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5676,8 +5676,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H55"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J27" sqref="J27"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G1" sqref="A1:G52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6608,7 +6608,7 @@
     <mergeCell ref="A26:A52"/>
     <mergeCell ref="A9:A20"/>
   </mergeCells>
-  <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.59055118110236227" bottom="0.59055118110236227" header="0" footer="0"/>
+  <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.78740157480314965" bottom="0.78740157480314965" header="0" footer="0"/>
   <pageSetup paperSize="9" scale="69" fitToHeight="0" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>

--- a/Реестр символов (кам.).xlsx
+++ b/Реестр символов (кам.).xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F75B3DAF-65FE-47EE-8F58-10992B84F646}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56E3F8F1-965F-4510-B5D2-F798C3B131E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-19320" yWindow="-1590" windowWidth="19440" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="182">
   <si>
     <t>Области</t>
   </si>
@@ -235,18 +235,6 @@
     <t>Лагерь</t>
   </si>
   <si>
-    <t>Локальное резкое понижение пола</t>
-  </si>
-  <si>
-    <t>u:minus</t>
-  </si>
-  <si>
-    <t>minus</t>
-  </si>
-  <si>
-    <t>минус</t>
-  </si>
-  <si>
     <t>u:inscription</t>
   </si>
   <si>
@@ -277,18 +265,6 @@
     <t>Опасность</t>
   </si>
   <si>
-    <t>Локальное резкое повышение потолка</t>
-  </si>
-  <si>
-    <t>плюс</t>
-  </si>
-  <si>
-    <t>u:plus</t>
-  </si>
-  <si>
-    <t>plus</t>
-  </si>
-  <si>
     <t>continuation</t>
   </si>
   <si>
@@ -571,11 +547,25 @@
     <t>Есть у Маркшейдера и нет у нас:</t>
   </si>
   <si>
-    <t>Карст (полости), кристаллы, красный ромб, звёздочка, выпирающий монолит, коричневая змейка.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">НЕ ГОТОВО
-</t>
+    <t xml:space="preserve">                  кристаллы кварца</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                   кристаллы гипса</t>
+  </si>
+  <si>
+    <t>Карст</t>
+  </si>
+  <si>
+    <t>Зоны развития выщелачивания вмещающей породы</t>
+  </si>
+  <si>
+    <t>выпирающий монолит.</t>
+  </si>
+  <si>
+    <t>u:karst</t>
+  </si>
+  <si>
+    <t>u=karst</t>
   </si>
 </sst>
 </file>
@@ -620,7 +610,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="23">
+  <borders count="27">
     <border>
       <left/>
       <right/>
@@ -924,11 +914,61 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -954,12 +994,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -967,9 +1001,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -985,12 +1016,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1014,16 +1039,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1039,9 +1058,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1065,17 +1081,35 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2200,6 +2234,1106 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>150018</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>750018</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>504765</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="28" name="Рисунок 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8190987F-8368-4385-98C4-854FC462E5E7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId26"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8712993" y="23888700"/>
+          <a:ext cx="600000" cy="476190"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>150018</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>750018</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>504765</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="29" name="Рисунок 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FF1E54D8-6282-4FCC-9B4F-9F1432FCEA20}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId27"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8712993" y="24422100"/>
+          <a:ext cx="600000" cy="476190"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>150018</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>29243</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>750018</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>504765</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="30" name="Рисунок 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{41D9C97F-4882-40FA-AFFB-CB04726DF930}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId28"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8712993" y="13754768"/>
+          <a:ext cx="600000" cy="475522"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>150018</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>750018</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>504765</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="31" name="Рисунок 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B37582BC-B9B0-4081-8FC2-1F45AB5A3679}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId29"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8712993" y="14287500"/>
+          <a:ext cx="600000" cy="476190"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>150018</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>750018</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>504765</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="32" name="Рисунок 31">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2597A3A6-AFAF-45D8-BF2E-A424DD82A2F1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId30"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8712993" y="14820900"/>
+          <a:ext cx="600000" cy="476190"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>150018</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>750018</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>504765</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="33" name="Рисунок 32">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FF110602-2537-4C3C-B179-E5E2F0CC73E2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId31"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8712993" y="16421100"/>
+          <a:ext cx="600000" cy="476190"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>150018</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>750018</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>504765</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="34" name="Рисунок 33">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{84DCC6AB-1F4D-4574-8592-8637B0E6F667}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId32"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8712993" y="16954500"/>
+          <a:ext cx="600000" cy="476190"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>150018</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>750018</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>504765</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="35" name="Рисунок 34">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4190BA72-5CD6-4B26-9C05-309AAD524439}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId33"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8712993" y="18021300"/>
+          <a:ext cx="600000" cy="476190"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>150018</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>750018</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>504765</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="36" name="Рисунок 35">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9DD4CAE8-E48A-4144-A8BD-A5F6FE86754A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId34"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8712993" y="17487900"/>
+          <a:ext cx="600000" cy="476190"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>150018</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>750018</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>504765</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="37" name="Рисунок 36">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6374271F-1383-44F4-970B-28F292778401}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId35"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8712993" y="18554700"/>
+          <a:ext cx="600000" cy="476190"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>150018</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>750018</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>476190</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="38" name="Рисунок 37">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{55C9C2E9-A73F-4079-9048-867362652C67}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId36"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8712993" y="19088100"/>
+          <a:ext cx="600000" cy="476190"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>150018</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>750018</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>504765</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="39" name="Рисунок 38">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C125E474-AE08-44FC-BFEF-35A93639BA6C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId37"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8712993" y="19621500"/>
+          <a:ext cx="600000" cy="476190"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>150018</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>750018</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>504765</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="40" name="Рисунок 39">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B80A0BB9-4016-45EB-B274-EFD58D6789FC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId38"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8712993" y="20154900"/>
+          <a:ext cx="600000" cy="476190"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>150018</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>750018</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>504765</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="41" name="Рисунок 40">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1C8C01D7-97BD-4C98-8363-B2476537CDEF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId39"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8712993" y="20688300"/>
+          <a:ext cx="600000" cy="476190"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>150018</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>750018</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>476190</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="42" name="Рисунок 41">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5D052D59-33DA-433A-A736-D757EFDB376A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId40"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8712993" y="21221700"/>
+          <a:ext cx="600000" cy="476190"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>150018</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>750018</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>504765</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="43" name="Рисунок 42">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{36A16E81-ED23-4771-8616-EC2465394BD7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId41"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8712993" y="22288500"/>
+          <a:ext cx="600000" cy="476190"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>150018</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>750018</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>504765</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="44" name="Рисунок 43">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6D1C6A1D-4FC8-4068-A597-9B0F34CB8A8B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId42"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8712993" y="21755100"/>
+          <a:ext cx="600000" cy="476190"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>150018</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>750018</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>504765</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="45" name="Рисунок 44">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F3B4F071-0563-4DB6-BEAE-76DA0047C6DB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId43"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8712993" y="23355300"/>
+          <a:ext cx="600000" cy="476190"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>150018</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>750018</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>504765</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="46" name="Рисунок 45">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{07F58801-4CE5-4477-AFD7-1A1396C34C6B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId44"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8712993" y="22821900"/>
+          <a:ext cx="600000" cy="476190"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>150018</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>750018</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>504765</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="47" name="Рисунок 46">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BC63890C-31A6-416E-9FF9-53144A79AE40}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId45"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8712993" y="15354300"/>
+          <a:ext cx="600000" cy="476190"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>150018</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>750018</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>504765</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="48" name="Рисунок 47">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7E1A7F58-AD78-41C0-A82A-C9525141E374}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId46"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8712993" y="15887700"/>
+          <a:ext cx="600000" cy="476190"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>150018</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>750018</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>504765</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="49" name="Рисунок 48">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DD3F4614-389C-4129-9565-42BB71A15685}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId47"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8712993" y="26555700"/>
+          <a:ext cx="600000" cy="476190"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>150018</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>750018</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>504765</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="50" name="Рисунок 49">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{29259297-00CD-4F8C-A0E1-588E7203AE30}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId48"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8712993" y="27089100"/>
+          <a:ext cx="600000" cy="476190"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>150018</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>750018</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>504765</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="51" name="Рисунок 50">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{29540A5F-F630-4883-BE31-C9B4790ABDBC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId49"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8712993" y="26022300"/>
+          <a:ext cx="600000" cy="476190"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>150018</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>750018</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>504765</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="52" name="Рисунок 51">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E869119E-ECFC-48BA-B2C2-C4BA050C274F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId50"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8712993" y="25488900"/>
+          <a:ext cx="600000" cy="476190"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>150018</xdr:colOff>
       <xdr:row>45</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
@@ -2211,1106 +3345,6 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="28" name="Рисунок 27">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8190987F-8368-4385-98C4-854FC462E5E7}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId26"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8712993" y="23888700"/>
-          <a:ext cx="600000" cy="476190"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>150018</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>750018</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>504765</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="29" name="Рисунок 28">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FF1E54D8-6282-4FCC-9B4F-9F1432FCEA20}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId27"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8712993" y="24422100"/>
-          <a:ext cx="600000" cy="476190"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>150018</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>29243</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>750018</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>504765</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="30" name="Рисунок 29">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{41D9C97F-4882-40FA-AFFB-CB04726DF930}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId28"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8712993" y="13754768"/>
-          <a:ext cx="600000" cy="475522"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>150018</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>750018</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>504765</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="31" name="Рисунок 30">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B37582BC-B9B0-4081-8FC2-1F45AB5A3679}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId29"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8712993" y="14287500"/>
-          <a:ext cx="600000" cy="476190"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>150018</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>750018</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>504765</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="32" name="Рисунок 31">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2597A3A6-AFAF-45D8-BF2E-A424DD82A2F1}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId30"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8712993" y="14820900"/>
-          <a:ext cx="600000" cy="476190"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>150018</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>750018</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>504765</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="33" name="Рисунок 32">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FF110602-2537-4C3C-B179-E5E2F0CC73E2}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId31"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8712993" y="16421100"/>
-          <a:ext cx="600000" cy="476190"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>150018</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>750018</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>504765</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="34" name="Рисунок 33">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{84DCC6AB-1F4D-4574-8592-8637B0E6F667}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId32"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8712993" y="16954500"/>
-          <a:ext cx="600000" cy="476190"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>150018</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>750018</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>504765</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="35" name="Рисунок 34">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4190BA72-5CD6-4B26-9C05-309AAD524439}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId33"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8712993" y="18021300"/>
-          <a:ext cx="600000" cy="476190"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>150018</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>750018</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>504765</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="36" name="Рисунок 35">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9DD4CAE8-E48A-4144-A8BD-A5F6FE86754A}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId34"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8712993" y="17487900"/>
-          <a:ext cx="600000" cy="476190"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>150018</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>750018</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>504765</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="37" name="Рисунок 36">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6374271F-1383-44F4-970B-28F292778401}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId35"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8712993" y="18554700"/>
-          <a:ext cx="600000" cy="476190"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>150018</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>750018</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>504765</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="38" name="Рисунок 37">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{55C9C2E9-A73F-4079-9048-867362652C67}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId36"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8712993" y="19088100"/>
-          <a:ext cx="600000" cy="476190"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>150018</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>750018</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>504765</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="39" name="Рисунок 38">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C125E474-AE08-44FC-BFEF-35A93639BA6C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId37"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8712993" y="19621500"/>
-          <a:ext cx="600000" cy="476190"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>150018</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>750018</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>504765</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="40" name="Рисунок 39">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B80A0BB9-4016-45EB-B274-EFD58D6789FC}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId38"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8712993" y="20154900"/>
-          <a:ext cx="600000" cy="476190"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>150018</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>750018</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>504765</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="41" name="Рисунок 40">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1C8C01D7-97BD-4C98-8363-B2476537CDEF}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId39"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8712993" y="20688300"/>
-          <a:ext cx="600000" cy="476190"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>150018</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>750018</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>504765</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="42" name="Рисунок 41">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5D052D59-33DA-433A-A736-D757EFDB376A}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId40"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8712993" y="21221700"/>
-          <a:ext cx="600000" cy="476190"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>150018</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>750018</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>504765</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="43" name="Рисунок 42">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{36A16E81-ED23-4771-8616-EC2465394BD7}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId41"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8712993" y="22288500"/>
-          <a:ext cx="600000" cy="476190"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>150018</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>750018</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>504765</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="44" name="Рисунок 43">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6D1C6A1D-4FC8-4068-A597-9B0F34CB8A8B}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId42"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8712993" y="21755100"/>
-          <a:ext cx="600000" cy="476190"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>150018</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>750018</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>504765</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="45" name="Рисунок 44">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F3B4F071-0563-4DB6-BEAE-76DA0047C6DB}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId43"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8712993" y="23355300"/>
-          <a:ext cx="600000" cy="476190"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>150018</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>750018</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>504765</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="46" name="Рисунок 45">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{07F58801-4CE5-4477-AFD7-1A1396C34C6B}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId44"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8712993" y="22821900"/>
-          <a:ext cx="600000" cy="476190"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>150018</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>750018</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>504765</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="47" name="Рисунок 46">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BC63890C-31A6-416E-9FF9-53144A79AE40}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId45"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8712993" y="15354300"/>
-          <a:ext cx="600000" cy="476190"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>150018</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>750018</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>504765</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="48" name="Рисунок 47">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7E1A7F58-AD78-41C0-A82A-C9525141E374}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId46"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8712993" y="15887700"/>
-          <a:ext cx="600000" cy="476190"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>150018</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>750018</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>504765</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="49" name="Рисунок 48">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DD3F4614-389C-4129-9565-42BB71A15685}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId47"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8712993" y="26555700"/>
-          <a:ext cx="600000" cy="476190"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>150018</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>750018</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>504765</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="50" name="Рисунок 49">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{29259297-00CD-4F8C-A0E1-588E7203AE30}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId48"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8712993" y="27089100"/>
-          <a:ext cx="600000" cy="476190"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>150018</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>750018</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>504765</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="51" name="Рисунок 50">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{29540A5F-F630-4883-BE31-C9B4790ABDBC}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId49"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8712993" y="26022300"/>
-          <a:ext cx="600000" cy="476190"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>150018</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>750018</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>504765</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="52" name="Рисунок 51">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E869119E-ECFC-48BA-B2C2-C4BA050C274F}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId50"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8712993" y="25488900"/>
-          <a:ext cx="600000" cy="476190"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>150018</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>750018</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>504765</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
         <xdr:cNvPr id="53" name="Рисунок 52">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
@@ -3564,37 +3598,1401 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>43</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>1012</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>1055</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="58" name="Рисунок 57">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CBDD8F61-8C93-46D8-A17D-73A9B7797A37}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId57"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7610475" y="22793325"/>
+          <a:ext cx="866667" cy="533334"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1012</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>1054</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="59" name="Рисунок 58">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E36A36D9-141A-434C-A1D1-821F34A1F614}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId58"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7610475" y="22259925"/>
+          <a:ext cx="866667" cy="533334"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1012</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>1054</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="60" name="Рисунок 59">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{744D33C5-9C8E-4274-97A4-53AF65436497}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId59"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7610475" y="15859125"/>
+          <a:ext cx="866667" cy="533334"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1012</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>1055</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="61" name="Рисунок 60">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E589FF-AAD5-4B7C-ACAA-14DD338762D9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId60"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7610475" y="16392525"/>
+          <a:ext cx="866667" cy="533334"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1012</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>1055</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="62" name="Рисунок 61">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{366CDAA3-51E7-401D-9022-10CCA2FD2C0C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId61"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7610475" y="8391525"/>
+          <a:ext cx="866667" cy="533334"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1012</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>1055</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="63" name="Рисунок 62">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{567492E8-710C-4037-B75E-E9A3EFE58880}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId62"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7610475" y="9991725"/>
+          <a:ext cx="866667" cy="533334"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1012</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>1054</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="64" name="Рисунок 63">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C6AE6A8E-E8C7-47CD-9385-E8F42730F24D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId63"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7610475" y="5191125"/>
+          <a:ext cx="866667" cy="533334"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1012</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>1055</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="65" name="Рисунок 64">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BEBA3959-25A9-4EE9-89B8-D51A969D6563}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId64"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7610475" y="5724525"/>
+          <a:ext cx="866667" cy="533334"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>44</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1012</xdr:colOff>
+      <xdr:row>45</xdr:row>
       <xdr:rowOff>1055</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="58" name="Рисунок 57">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CBDD8F61-8C93-46D8-A17D-73A9B7797A37}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId57"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7610475" y="22793325"/>
+        <xdr:cNvPr id="66" name="Рисунок 65">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{17DCEE7A-9A75-4CEE-BD2B-6A79CF4C918C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId65"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7610475" y="24393525"/>
+          <a:ext cx="866667" cy="533334"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1012</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>1055</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="67" name="Рисунок 66">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DC2EC41-A4FA-4DEB-B0A3-F74A1FA5D616}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId66"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7610475" y="21726525"/>
+          <a:ext cx="866667" cy="533334"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1012</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>1054</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="68" name="Рисунок 67">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BEA9B29B-D621-4885-BF54-ED9525217A04}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId67"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7610475" y="24926925"/>
+          <a:ext cx="866667" cy="533334"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1012</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>1055</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="69" name="Рисунок 68">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A7760FBE-4F84-48EC-9FFB-6D2718251796}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId68"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7610475" y="12658725"/>
+          <a:ext cx="866667" cy="533334"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1012</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>1054</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="70" name="Рисунок 69">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{49A60E25-53E2-4B2A-B2D1-A862502C545E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId69"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7610475" y="12125325"/>
+          <a:ext cx="866667" cy="533334"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1012</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>1055</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="71" name="Рисунок 70">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D0D6C87E-E378-4054-9FF4-916464707F27}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId70"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7610475" y="11591925"/>
+          <a:ext cx="866667" cy="533334"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1012</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>1054</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="72" name="Рисунок 71">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9E5F2176-4D85-4FE4-B675-C4DC6FB3CDF2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId71"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7610475" y="10525125"/>
+          <a:ext cx="866667" cy="533334"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1012</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>1055</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="73" name="Рисунок 72">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7ABCF559-C940-49C4-8054-8CCF5319B138}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId72"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7610475" y="11058525"/>
+          <a:ext cx="866667" cy="533334"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1012</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>1055</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="74" name="Рисунок 73">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AB762A54-54BA-47C4-914B-88B9E671D78D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId73"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7610475" y="4657725"/>
+          <a:ext cx="866667" cy="533334"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1012</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>1055</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="75" name="Рисунок 74">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7D032C07-48FD-43FA-A3DE-707DC05F4882}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId74"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7610475" y="20126325"/>
+          <a:ext cx="866667" cy="533334"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>4654</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>1054</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="77" name="Рисунок 76">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{45CE99BA-7F86-40C4-83AC-BB579E2AE568}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId75"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7610475" y="18526125"/>
+          <a:ext cx="871429" cy="533334"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>4654</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>1055</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="79" name="Рисунок 78">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E67635B6-B17A-4737-B718-8A0B2CB46E58}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId76"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7610475" y="20659725"/>
+          <a:ext cx="871429" cy="533334"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>4654</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>1054</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="80" name="Рисунок 79">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8B75CD18-77C3-4286-975D-2F64BDBC86FA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId77"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7610475" y="16925925"/>
+          <a:ext cx="871429" cy="533334"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>4654</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>1054</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="81" name="Рисунок 80">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D87D5154-9CA5-42B0-9D3A-7AC760EC3BCF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId78"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7610475" y="25993725"/>
+          <a:ext cx="871429" cy="533334"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>4654</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>1055</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="82" name="Рисунок 81">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B3BF5118-EB53-4CB8-9345-CB9195E0B895}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId79"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7610475" y="26527125"/>
+          <a:ext cx="871429" cy="533334"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>4654</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>1054</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="83" name="Рисунок 82">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CA286329-C253-4F55-8734-A31F09DC6DF9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId80"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7610475" y="13192125"/>
+          <a:ext cx="871429" cy="533334"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1012</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>1055</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="84" name="Рисунок 83">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6A287B0D-82B4-4DA1-9772-5B8A3EE16F15}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId81"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7610475" y="17459325"/>
+          <a:ext cx="866667" cy="533334"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1012</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>1055</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="85" name="Рисунок 84">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9F5D8727-26F4-4116-A811-074113C1A44F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId82"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7610475" y="17992725"/>
+          <a:ext cx="866667" cy="533334"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1012</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>1054</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="86" name="Рисунок 85">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0E2DCB06-3646-40E1-8E63-A4907EEF891C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId83"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7610475" y="4124325"/>
+          <a:ext cx="866667" cy="533334"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1012</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>1055</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="87" name="Рисунок 86">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{28F93629-2B47-4CB7-B0B7-D652F50DCF63}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId84"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7610475" y="2524125"/>
+          <a:ext cx="866667" cy="533334"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1012</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>1055</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="88" name="Рисунок 87">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EDBDD714-52B1-4902-8E9E-667439A19CF8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId85"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7610475" y="1990725"/>
+          <a:ext cx="866667" cy="533334"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1012</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>1055</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="89" name="Рисунок 88">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1F6C8C7F-E473-4C4D-B6A3-D757A7949B1E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId86"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7610475" y="923925"/>
+          <a:ext cx="866667" cy="533334"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1012</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>1055</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="90" name="Рисунок 89">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CEE57CD3-742E-4CB8-9F6A-CD86C3E3B93B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId87"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7610475" y="7324725"/>
+          <a:ext cx="866667" cy="533334"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1012</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>1055</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="91" name="Рисунок 90">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B8C9C55E-66B6-473F-B4EC-16805F2F684D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId88"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7610475" y="8924925"/>
           <a:ext cx="866667" cy="533334"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3619,26 +5017,26 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="59" name="Рисунок 58">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E36A36D9-141A-434C-A1D1-821F34A1F614}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId58"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7610475" y="22259925"/>
+        <xdr:cNvPr id="92" name="Рисунок 91">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0F3EFFAD-EDE8-43DB-A2F5-1F2BF606380B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId89"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7610475" y="23326725"/>
           <a:ext cx="866667" cy="533334"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3652,257 +5050,81 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>1012</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>1055</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="93" name="Рисунок 92">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C26FAC73-3E8F-4FE5-A3B3-E9D86C2850DF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId90"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7610475" y="14792325"/>
+          <a:ext cx="866667" cy="533334"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1012</xdr:colOff>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>1054</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="60" name="Рисунок 59">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{744D33C5-9C8E-4274-97A4-53AF65436497}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId59"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7610475" y="15859125"/>
-          <a:ext cx="866667" cy="533334"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>1012</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>1055</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="61" name="Рисунок 60">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E589FF-AAD5-4B7C-ACAA-14DD338762D9}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId60"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7610475" y="16392525"/>
-          <a:ext cx="866667" cy="533334"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>1012</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>1055</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="62" name="Рисунок 61">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{366CDAA3-51E7-401D-9022-10CCA2FD2C0C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId61"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7610475" y="8391525"/>
-          <a:ext cx="866667" cy="533334"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>1012</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>1055</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="63" name="Рисунок 62">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{567492E8-710C-4037-B75E-E9A3EFE58880}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId62"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7610475" y="9991725"/>
-          <a:ext cx="866667" cy="533334"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>1012</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>1054</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="64" name="Рисунок 63">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C6AE6A8E-E8C7-47CD-9385-E8F42730F24D}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId63"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7610475" y="5191125"/>
-          <a:ext cx="866667" cy="533334"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>1012</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>1055</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="65" name="Рисунок 64">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BEBA3959-25A9-4EE9-89B8-D51A969D6563}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId64"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7610475" y="5724525"/>
+        <xdr:cNvPr id="94" name="Рисунок 93">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BFB17113-BF63-45EE-8FFD-5B8E99DC3A01}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId91"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7610475" y="19592925"/>
           <a:ext cx="866667" cy="533334"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3927,1194 +5149,6 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="66" name="Рисунок 65">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{17DCEE7A-9A75-4CEE-BD2B-6A79CF4C918C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId65"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7610475" y="24393525"/>
-          <a:ext cx="866667" cy="533334"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>1012</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>1055</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="67" name="Рисунок 66">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DC2EC41-A4FA-4DEB-B0A3-F74A1FA5D616}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId66"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7610475" y="21726525"/>
-          <a:ext cx="866667" cy="533334"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>1012</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>1054</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="68" name="Рисунок 67">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BEA9B29B-D621-4885-BF54-ED9525217A04}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId67"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7610475" y="24926925"/>
-          <a:ext cx="866667" cy="533334"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>1012</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>1055</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="69" name="Рисунок 68">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A7760FBE-4F84-48EC-9FFB-6D2718251796}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId68"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7610475" y="12658725"/>
-          <a:ext cx="866667" cy="533334"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>1012</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>1054</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="70" name="Рисунок 69">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{49A60E25-53E2-4B2A-B2D1-A862502C545E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId69"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7610475" y="12125325"/>
-          <a:ext cx="866667" cy="533334"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>1012</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>1055</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="71" name="Рисунок 70">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D0D6C87E-E378-4054-9FF4-916464707F27}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId70"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7610475" y="11591925"/>
-          <a:ext cx="866667" cy="533334"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>1012</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>1054</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="72" name="Рисунок 71">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9E5F2176-4D85-4FE4-B675-C4DC6FB3CDF2}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId71"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7610475" y="10525125"/>
-          <a:ext cx="866667" cy="533334"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>1012</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>1055</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="73" name="Рисунок 72">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7ABCF559-C940-49C4-8054-8CCF5319B138}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId72"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7610475" y="11058525"/>
-          <a:ext cx="866667" cy="533334"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>1012</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>1055</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="74" name="Рисунок 73">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AB762A54-54BA-47C4-914B-88B9E671D78D}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId73"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7610475" y="4657725"/>
-          <a:ext cx="866667" cy="533334"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>1012</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>1055</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="75" name="Рисунок 74">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7D032C07-48FD-43FA-A3DE-707DC05F4882}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId74"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7610475" y="20126325"/>
-          <a:ext cx="866667" cy="533334"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>4654</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>1054</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="77" name="Рисунок 76">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{45CE99BA-7F86-40C4-83AC-BB579E2AE568}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId75"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7610475" y="18526125"/>
-          <a:ext cx="871429" cy="533334"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>4654</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>1055</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="79" name="Рисунок 78">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E67635B6-B17A-4737-B718-8A0B2CB46E58}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId76"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7610475" y="20659725"/>
-          <a:ext cx="871429" cy="533334"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>4654</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>1054</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="80" name="Рисунок 79">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8B75CD18-77C3-4286-975D-2F64BDBC86FA}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId77"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7610475" y="16925925"/>
-          <a:ext cx="871429" cy="533334"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>4654</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>1054</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="81" name="Рисунок 80">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D87D5154-9CA5-42B0-9D3A-7AC760EC3BCF}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId78"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7610475" y="25993725"/>
-          <a:ext cx="871429" cy="533334"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>4654</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>1055</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="82" name="Рисунок 81">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B3BF5118-EB53-4CB8-9345-CB9195E0B895}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId79"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7610475" y="26527125"/>
-          <a:ext cx="871429" cy="533334"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>4654</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>1054</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="83" name="Рисунок 82">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CA286329-C253-4F55-8734-A31F09DC6DF9}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId80"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7610475" y="13192125"/>
-          <a:ext cx="871429" cy="533334"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>1012</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>1055</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="84" name="Рисунок 83">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6A287B0D-82B4-4DA1-9772-5B8A3EE16F15}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId81"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7610475" y="17459325"/>
-          <a:ext cx="866667" cy="533334"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>1012</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>1055</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="85" name="Рисунок 84">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9F5D8727-26F4-4116-A811-074113C1A44F}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId82"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7610475" y="17992725"/>
-          <a:ext cx="866667" cy="533334"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>1012</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>1054</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="86" name="Рисунок 85">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0E2DCB06-3646-40E1-8E63-A4907EEF891C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId83"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7610475" y="4124325"/>
-          <a:ext cx="866667" cy="533334"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>1012</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>1055</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="87" name="Рисунок 86">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{28F93629-2B47-4CB7-B0B7-D652F50DCF63}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId84"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7610475" y="2524125"/>
-          <a:ext cx="866667" cy="533334"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>1012</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>1055</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="88" name="Рисунок 87">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EDBDD714-52B1-4902-8E9E-667439A19CF8}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId85"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7610475" y="1990725"/>
-          <a:ext cx="866667" cy="533334"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>1012</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>1055</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="89" name="Рисунок 88">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1F6C8C7F-E473-4C4D-B6A3-D757A7949B1E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId86"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7610475" y="923925"/>
-          <a:ext cx="866667" cy="533334"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>1012</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>1055</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="90" name="Рисунок 89">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CEE57CD3-742E-4CB8-9F6A-CD86C3E3B93B}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId87"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7610475" y="7324725"/>
-          <a:ext cx="866667" cy="533334"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>1012</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>1055</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="91" name="Рисунок 90">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B8C9C55E-66B6-473F-B4EC-16805F2F684D}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId88"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7610475" y="8924925"/>
-          <a:ext cx="866667" cy="533334"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>1012</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>1054</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="92" name="Рисунок 91">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0F3EFFAD-EDE8-43DB-A2F5-1F2BF606380B}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId89"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7610475" y="23326725"/>
-          <a:ext cx="866667" cy="533334"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>1012</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>1055</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="93" name="Рисунок 92">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C26FAC73-3E8F-4FE5-A3B3-E9D86C2850DF}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId90"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7610475" y="14792325"/>
-          <a:ext cx="866667" cy="533334"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>1012</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>1054</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="94" name="Рисунок 93">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BFB17113-BF63-45EE-8FFD-5B8E99DC3A01}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId91"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7610475" y="19592925"/>
-          <a:ext cx="866667" cy="533334"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>1012</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>1055</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
         <xdr:cNvPr id="95" name="Рисунок 94">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
@@ -5192,13 +5226,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>6516</xdr:colOff>
       <xdr:row>51</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>6516</xdr:colOff>
-      <xdr:row>52</xdr:row>
       <xdr:rowOff>3246</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -5324,13 +5358,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>45</xdr:row>
+      <xdr:row>43</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>2750</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:row>44</xdr:row>
       <xdr:rowOff>3744</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -5404,6 +5438,407 @@
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1025" name="AutoShape 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D5115587-0A23-8B35-94C1-F2FA8EF11AA9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="247650" y="28355925"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1026" name="AutoShape 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4198FDFB-05EB-9766-4A92-DCB0CE7DEABF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="247650" y="28355925"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="78" name="Рисунок 77">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{69E44CE4-74A4-7DE5-4004-B4C239A4E2D0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId99">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="247650" y="28355925"/>
+          <a:ext cx="533400" cy="428625"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="98" name="Рисунок 97">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{086F12CA-413F-9349-5A26-FB2339AC35BC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId100">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="247650" y="29117925"/>
+          <a:ext cx="523875" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>438150</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="102" name="Рисунок 101">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{73C97EB7-4944-7095-3920-037ADD425F1A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId101">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="9582150" y="25050750"/>
+          <a:ext cx="323850" cy="314325"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>857250</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="103" name="Рисунок 102">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1E3D49E1-2CCB-5390-E558-527E2E996EE0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId102">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="7620000" y="25993725"/>
+          <a:ext cx="847725" cy="533400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>19051</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>783045</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>521908</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="104" name="Рисунок 103">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E3B25A3E-B11C-D210-F77D-11730EBEEDD2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId103">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8620125" y="26012776"/>
+          <a:ext cx="640170" cy="502857"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -5674,10 +6109,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H55"/>
+  <dimension ref="A1:H63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G1" sqref="A1:G52"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5691,29 +6126,29 @@
     <col min="7" max="7" width="13.42578125" style="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="26" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="22"/>
-      <c r="B1" s="23" t="s">
+    <row r="1" spans="1:7" s="21" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="17"/>
+      <c r="B1" s="18" t="s">
         <v>4</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="F1" s="24" t="s">
-        <v>149</v>
-      </c>
-      <c r="G1" s="25" t="s">
-        <v>150</v>
+        <v>128</v>
+      </c>
+      <c r="F1" s="19" t="s">
+        <v>141</v>
+      </c>
+      <c r="G1" s="20" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="46" t="s">
+      <c r="A2" s="38" t="s">
         <v>13</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -5722,117 +6157,117 @@
       <c r="C2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="D2" s="1" t="s">
         <v>15</v>
       </c>
       <c r="E2" s="3"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="28"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="23"/>
     </row>
     <row r="3" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="47"/>
+      <c r="A3" s="39"/>
       <c r="B3" s="4" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="D3" s="15" t="s">
-        <v>127</v>
-      </c>
-      <c r="E3" s="20" t="s">
-        <v>147</v>
-      </c>
-      <c r="F3" s="29"/>
-      <c r="G3" s="42"/>
+      <c r="D3" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="F3" s="24"/>
+      <c r="G3" s="34"/>
     </row>
     <row r="4" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="47"/>
+      <c r="A4" s="39"/>
       <c r="B4" s="4" t="s">
         <v>31</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="D4" s="9" t="s">
-        <v>128</v>
-      </c>
-      <c r="E4" s="20" t="s">
+      <c r="D4" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="E4" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="F4" s="29"/>
-      <c r="G4" s="30"/>
+      <c r="F4" s="24"/>
+      <c r="G4" s="25"/>
     </row>
     <row r="5" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="47"/>
+      <c r="A5" s="39"/>
       <c r="B5" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="D5" s="15" t="s">
-        <v>141</v>
-      </c>
-      <c r="E5" s="20" t="s">
-        <v>146</v>
-      </c>
-      <c r="F5" s="29"/>
-      <c r="G5" s="30"/>
+      <c r="D5" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="F5" s="24"/>
+      <c r="G5" s="25"/>
     </row>
     <row r="6" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="47"/>
+      <c r="A6" s="39"/>
       <c r="B6" s="4" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>152</v>
-      </c>
-      <c r="D6" s="15" t="s">
-        <v>153</v>
-      </c>
-      <c r="E6" s="20" t="s">
-        <v>154</v>
-      </c>
-      <c r="F6" s="29"/>
-      <c r="G6" s="30"/>
+        <v>144</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="F6" s="24"/>
+      <c r="G6" s="25"/>
     </row>
     <row r="7" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="47"/>
+      <c r="A7" s="39"/>
       <c r="B7" s="4" t="s">
         <v>8</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="D7" s="9" t="s">
-        <v>129</v>
-      </c>
-      <c r="E7" s="20" t="s">
+      <c r="D7" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="E7" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="F7" s="29"/>
-      <c r="G7" s="30"/>
+      <c r="F7" s="24"/>
+      <c r="G7" s="25"/>
     </row>
     <row r="8" spans="1:7" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="47"/>
+      <c r="A8" s="39"/>
       <c r="B8" s="4" t="s">
         <v>29</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="D8" s="9" t="s">
-        <v>130</v>
-      </c>
-      <c r="E8" s="20" t="s">
+      <c r="D8" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="E8" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="F8" s="29"/>
-      <c r="G8" s="30"/>
+      <c r="F8" s="24"/>
+      <c r="G8" s="25"/>
     </row>
     <row r="9" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="46" t="s">
+      <c r="A9" s="38" t="s">
         <v>14</v>
       </c>
       <c r="B9" s="2" t="s">
@@ -5841,274 +6276,274 @@
       <c r="C9" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D9" s="19" t="s">
-        <v>155</v>
-      </c>
-      <c r="E9" s="21" t="s">
-        <v>145</v>
-      </c>
-      <c r="F9" s="31"/>
-      <c r="G9" s="41"/>
+      <c r="D9" s="16" t="s">
+        <v>147</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="F9" s="22"/>
+      <c r="G9" s="33"/>
     </row>
     <row r="10" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="47"/>
+      <c r="A10" s="39"/>
       <c r="B10" s="4" t="s">
         <v>18</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D10" s="9" t="s">
-        <v>131</v>
+      <c r="D10" s="5" t="s">
+        <v>123</v>
       </c>
       <c r="E10" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="F10" s="32"/>
-      <c r="G10" s="30"/>
+      <c r="F10" s="24"/>
+      <c r="G10" s="25"/>
     </row>
     <row r="11" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="47"/>
+      <c r="A11" s="39"/>
       <c r="B11" s="4" t="s">
         <v>19</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D11" s="9" t="s">
+      <c r="D11" s="5" t="s">
         <v>20</v>
       </c>
       <c r="E11" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="F11" s="32"/>
-      <c r="G11" s="30"/>
+      <c r="F11" s="24"/>
+      <c r="G11" s="25"/>
     </row>
     <row r="12" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="47"/>
+      <c r="A12" s="39"/>
       <c r="B12" s="4" t="s">
         <v>22</v>
       </c>
       <c r="C12" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="9" t="s">
+      <c r="D12" s="5" t="s">
         <v>24</v>
       </c>
       <c r="E12" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="F12" s="32"/>
-      <c r="G12" s="30"/>
+      <c r="F12" s="24"/>
+      <c r="G12" s="25"/>
     </row>
     <row r="13" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="47"/>
+      <c r="A13" s="39"/>
       <c r="B13" s="4" t="s">
         <v>26</v>
       </c>
       <c r="C13" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D13" s="9" t="s">
+      <c r="D13" s="5" t="s">
         <v>43</v>
       </c>
       <c r="E13" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="F13" s="32"/>
-      <c r="G13" s="30"/>
+      <c r="F13" s="24"/>
+      <c r="G13" s="25"/>
     </row>
     <row r="14" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="47"/>
+      <c r="A14" s="39"/>
       <c r="B14" s="4" t="s">
         <v>34</v>
       </c>
       <c r="C14" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="D14" s="15" t="s">
-        <v>132</v>
+      <c r="D14" s="12" t="s">
+        <v>124</v>
       </c>
       <c r="E14" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="F14" s="32" t="s">
-        <v>156</v>
-      </c>
-      <c r="G14" s="30"/>
+      <c r="F14" s="24" t="s">
+        <v>148</v>
+      </c>
+      <c r="G14" s="25"/>
     </row>
     <row r="15" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="47"/>
+      <c r="A15" s="39"/>
       <c r="B15" s="4" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>158</v>
-      </c>
-      <c r="D15" s="15" t="s">
-        <v>159</v>
+        <v>150</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>151</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>160</v>
-      </c>
-      <c r="F15" s="32"/>
-      <c r="G15" s="30"/>
+        <v>152</v>
+      </c>
+      <c r="F15" s="24"/>
+      <c r="G15" s="25"/>
     </row>
     <row r="16" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="47"/>
+      <c r="A16" s="39"/>
       <c r="B16" s="4" t="s">
         <v>40</v>
       </c>
       <c r="C16" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="D16" s="15" t="s">
-        <v>133</v>
+      <c r="D16" s="12" t="s">
+        <v>125</v>
       </c>
       <c r="E16" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="F16" s="32"/>
-      <c r="G16" s="30"/>
+      <c r="F16" s="24"/>
+      <c r="G16" s="25"/>
     </row>
     <row r="17" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="47"/>
+      <c r="A17" s="39"/>
       <c r="B17" s="4" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="D17" s="9" t="s">
-        <v>100</v>
+        <v>90</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>92</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="F17" s="32"/>
-      <c r="G17" s="30"/>
+        <v>92</v>
+      </c>
+      <c r="F17" s="24"/>
+      <c r="G17" s="25"/>
     </row>
     <row r="18" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="47"/>
+      <c r="A18" s="39"/>
       <c r="B18" s="4" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="D18" s="15" t="s">
-        <v>162</v>
+        <v>155</v>
+      </c>
+      <c r="D18" s="12" t="s">
+        <v>154</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>161</v>
-      </c>
-      <c r="F18" s="32"/>
-      <c r="G18" s="30"/>
+        <v>153</v>
+      </c>
+      <c r="F18" s="24"/>
+      <c r="G18" s="25"/>
     </row>
     <row r="19" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="47"/>
+      <c r="A19" s="39"/>
       <c r="B19" s="4"/>
       <c r="C19" s="5" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="F19" s="44" t="s">
-        <v>181</v>
-      </c>
-      <c r="G19" s="30"/>
+        <v>131</v>
+      </c>
+      <c r="F19" s="36" t="s">
+        <v>173</v>
+      </c>
+      <c r="G19" s="25"/>
     </row>
     <row r="20" spans="1:7" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="49"/>
-      <c r="B20" s="12"/>
-      <c r="C20" s="13" t="s">
-        <v>138</v>
+      <c r="A20" s="41"/>
+      <c r="B20" s="10"/>
+      <c r="C20" s="11" t="s">
+        <v>130</v>
       </c>
       <c r="D20" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="E20" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="E20" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="F20" s="34"/>
-      <c r="G20" s="35"/>
+      <c r="F20" s="27"/>
+      <c r="G20" s="28"/>
     </row>
     <row r="21" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="48" t="s">
+      <c r="A21" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="B21" s="36" t="s">
+      <c r="B21" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="C21" s="37" t="s">
+      <c r="C21" s="30" t="s">
         <v>46</v>
       </c>
-      <c r="D21" s="38" t="s">
+      <c r="D21" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="E21" s="39" t="s">
+      <c r="E21" s="31" t="s">
         <v>47</v>
       </c>
-      <c r="F21" s="40"/>
-      <c r="G21" s="41"/>
+      <c r="F21" s="32"/>
+      <c r="G21" s="33"/>
     </row>
     <row r="22" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="47"/>
+      <c r="A22" s="39"/>
       <c r="B22" s="4" t="s">
         <v>11</v>
       </c>
       <c r="C22" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="D22" s="9" t="s">
+      <c r="D22" s="5" t="s">
         <v>48</v>
       </c>
       <c r="E22" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="F22" s="32"/>
-      <c r="G22" s="30"/>
+      <c r="F22" s="24"/>
+      <c r="G22" s="25"/>
     </row>
     <row r="23" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="47"/>
+      <c r="A23" s="39"/>
       <c r="B23" s="4" t="s">
         <v>12</v>
       </c>
       <c r="C23" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="D23" s="9" t="s">
+      <c r="D23" s="5" t="s">
         <v>50</v>
       </c>
       <c r="E23" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="F23" s="32"/>
-      <c r="G23" s="30"/>
+      <c r="F23" s="24"/>
+      <c r="G23" s="25"/>
     </row>
     <row r="24" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="47"/>
+      <c r="A24" s="39"/>
       <c r="B24" s="4" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="D24" s="9" t="s">
-        <v>144</v>
+        <v>134</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>136</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="F24" s="32"/>
-      <c r="G24" s="30"/>
+        <v>136</v>
+      </c>
+      <c r="F24" s="24"/>
+      <c r="G24" s="25"/>
     </row>
     <row r="25" spans="1:7" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="47"/>
+      <c r="A25" s="39"/>
       <c r="B25" s="4" t="s">
         <v>44</v>
       </c>
@@ -6117,11 +6552,11 @@
       </c>
       <c r="D25" s="5"/>
       <c r="E25" s="6"/>
-      <c r="F25" s="32"/>
-      <c r="G25" s="30"/>
+      <c r="F25" s="24"/>
+      <c r="G25" s="25"/>
     </row>
     <row r="26" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="46" t="s">
+      <c r="A26" s="38" t="s">
         <v>1</v>
       </c>
       <c r="B26" s="2" t="s">
@@ -6136,11 +6571,11 @@
       <c r="E26" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="F26" s="27"/>
-      <c r="G26" s="28"/>
+      <c r="F26" s="22"/>
+      <c r="G26" s="23"/>
     </row>
     <row r="27" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="47"/>
+      <c r="A27" s="39"/>
       <c r="B27" s="4" t="s">
         <v>58</v>
       </c>
@@ -6153,47 +6588,47 @@
       <c r="E27" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="F27" s="32"/>
-      <c r="G27" s="30"/>
+      <c r="F27" s="24"/>
+      <c r="G27" s="25"/>
     </row>
     <row r="28" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="47"/>
+      <c r="A28" s="39"/>
       <c r="B28" s="4" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>171</v>
-      </c>
-      <c r="F28" s="32"/>
-      <c r="G28" s="30"/>
+        <v>163</v>
+      </c>
+      <c r="F28" s="24"/>
+      <c r="G28" s="25"/>
     </row>
     <row r="29" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="47"/>
+      <c r="A29" s="39"/>
       <c r="B29" s="4" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>169</v>
-      </c>
-      <c r="D29" s="15" t="s">
-        <v>167</v>
+        <v>161</v>
+      </c>
+      <c r="D29" s="12" t="s">
+        <v>159</v>
       </c>
       <c r="E29" s="6" t="s">
-        <v>168</v>
-      </c>
-      <c r="F29" s="32"/>
-      <c r="G29" s="30"/>
+        <v>160</v>
+      </c>
+      <c r="F29" s="24"/>
+      <c r="G29" s="25"/>
     </row>
     <row r="30" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="47"/>
+      <c r="A30" s="39"/>
       <c r="B30" s="4" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C30" s="5" t="s">
         <v>59</v>
@@ -6204,11 +6639,11 @@
       <c r="E30" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="F30" s="32"/>
-      <c r="G30" s="30"/>
+      <c r="F30" s="24"/>
+      <c r="G30" s="25"/>
     </row>
     <row r="31" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="47"/>
+      <c r="A31" s="39"/>
       <c r="B31" s="4" t="s">
         <v>63</v>
       </c>
@@ -6221,11 +6656,11 @@
       <c r="E31" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="F31" s="32"/>
-      <c r="G31" s="30"/>
+      <c r="F31" s="24"/>
+      <c r="G31" s="25"/>
     </row>
     <row r="32" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="47"/>
+      <c r="A32" s="39"/>
       <c r="B32" s="4" t="s">
         <v>64</v>
       </c>
@@ -6238,11 +6673,11 @@
       <c r="E32" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="F32" s="32"/>
-      <c r="G32" s="30"/>
+      <c r="F32" s="24"/>
+      <c r="G32" s="25"/>
     </row>
-    <row r="33" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="47"/>
+    <row r="33" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="39"/>
       <c r="B33" s="4" t="s">
         <v>67</v>
       </c>
@@ -6255,45 +6690,45 @@
       <c r="E33" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="F33" s="32"/>
-      <c r="G33" s="30"/>
+      <c r="F33" s="24"/>
+      <c r="G33" s="25"/>
     </row>
-    <row r="34" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="47"/>
+    <row r="34" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="39"/>
       <c r="B34" s="4" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>173</v>
-      </c>
-      <c r="D34" s="15" t="s">
-        <v>174</v>
+        <v>165</v>
+      </c>
+      <c r="D34" s="12" t="s">
+        <v>166</v>
       </c>
       <c r="E34" s="6" t="s">
-        <v>175</v>
-      </c>
-      <c r="F34" s="32"/>
-      <c r="G34" s="30"/>
+        <v>167</v>
+      </c>
+      <c r="F34" s="24"/>
+      <c r="G34" s="25"/>
     </row>
-    <row r="35" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="47"/>
+    <row r="35" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="39"/>
       <c r="B35" s="4" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="D35" s="15" t="s">
-        <v>162</v>
+        <v>155</v>
+      </c>
+      <c r="D35" s="12" t="s">
+        <v>154</v>
       </c>
       <c r="E35" s="6" t="s">
-        <v>176</v>
-      </c>
-      <c r="F35" s="32"/>
-      <c r="G35" s="30"/>
+        <v>168</v>
+      </c>
+      <c r="F35" s="24"/>
+      <c r="G35" s="25"/>
     </row>
-    <row r="36" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="47"/>
+    <row r="36" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="39"/>
       <c r="B36" s="4" t="s">
         <v>70</v>
       </c>
@@ -6306,306 +6741,302 @@
       <c r="E36" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="F36" s="32"/>
-      <c r="G36" s="30"/>
+      <c r="F36" s="24"/>
+      <c r="G36" s="25"/>
     </row>
-    <row r="37" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="47"/>
+    <row r="37" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="39"/>
       <c r="B37" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="D37" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="C37" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="D37" s="16" t="s">
+      <c r="E37" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="E37" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="F37" s="43" t="s">
-        <v>184</v>
-      </c>
-      <c r="G37" s="30"/>
+      <c r="F37" s="24"/>
+      <c r="G37" s="25"/>
     </row>
-    <row r="38" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="47"/>
+    <row r="38" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="39"/>
       <c r="B38" s="4" t="s">
-        <v>9</v>
+        <v>75</v>
       </c>
       <c r="C38" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="D38" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="D38" s="16" t="s">
-        <v>75</v>
-      </c>
       <c r="E38" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="F38" s="32"/>
-      <c r="G38" s="30"/>
+        <v>77</v>
+      </c>
+      <c r="F38" s="24"/>
+      <c r="G38" s="25"/>
     </row>
-    <row r="39" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="47"/>
+    <row r="39" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="39"/>
       <c r="B39" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C39" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="C39" s="5" t="s">
-        <v>80</v>
-      </c>
       <c r="D39" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="E39" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="F39" s="24"/>
+      <c r="G39" s="25"/>
+    </row>
+    <row r="40" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="39"/>
+      <c r="B40" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="D40" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="E39" s="6" t="s">
+      <c r="E40" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="F39" s="32"/>
-      <c r="G39" s="30"/>
+      <c r="F40" s="24"/>
+      <c r="G40" s="25"/>
     </row>
-    <row r="40" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="47"/>
-      <c r="B40" s="4" t="s">
+    <row r="41" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="39"/>
+      <c r="B41" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="C40" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="D40" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="E40" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="F40" s="32"/>
-      <c r="G40" s="30"/>
+      <c r="C41" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D41" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="E41" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="F41" s="24"/>
+      <c r="G41" s="25"/>
     </row>
-    <row r="41" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="47"/>
-      <c r="B41" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="C41" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="D41" s="16" t="s">
+    <row r="42" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="39"/>
+      <c r="B42" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="D42" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="E41" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="F41" s="43" t="s">
-        <v>184</v>
-      </c>
-      <c r="G41" s="30"/>
+      <c r="E42" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="F42" s="24"/>
+      <c r="G42" s="25"/>
     </row>
-    <row r="42" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="47"/>
-      <c r="B42" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="C42" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="D42" s="6" t="s">
+    <row r="43" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="39"/>
+      <c r="B43" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="D43" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="E43" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="F43" s="26"/>
+      <c r="G43" s="25"/>
+    </row>
+    <row r="44" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="39"/>
+      <c r="B44" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="D44" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="E44" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="F44" s="35"/>
+      <c r="G44" s="25"/>
+    </row>
+    <row r="45" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="39"/>
+      <c r="B45" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="E42" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="F42" s="32"/>
-      <c r="G42" s="30"/>
+      <c r="C45" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="D45" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="E45" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="F45" s="24"/>
+      <c r="G45" s="25"/>
     </row>
-    <row r="43" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="47"/>
-      <c r="B43" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="C43" s="5" t="s">
+    <row r="46" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="39"/>
+      <c r="B46" s="4" t="s">
         <v>93</v>
-      </c>
-      <c r="D43" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="E43" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="F43" s="32"/>
-      <c r="G43" s="30"/>
-    </row>
-    <row r="44" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="47"/>
-      <c r="B44" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="C44" s="5" t="s">
-        <v>177</v>
-      </c>
-      <c r="D44" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="E44" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="F44" s="32"/>
-      <c r="G44" s="30"/>
-    </row>
-    <row r="45" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="47"/>
-      <c r="B45" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="C45" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="D45" s="17" t="s">
-        <v>114</v>
-      </c>
-      <c r="E45" s="11" t="s">
-        <v>111</v>
-      </c>
-      <c r="F45" s="33"/>
-      <c r="G45" s="30"/>
-    </row>
-    <row r="46" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="47"/>
-      <c r="B46" s="4" t="s">
-        <v>118</v>
       </c>
       <c r="C46" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="D46" s="15" t="s">
-        <v>119</v>
+      <c r="D46" s="5" t="s">
+        <v>115</v>
       </c>
       <c r="E46" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="F46" s="43"/>
-      <c r="G46" s="30"/>
+        <v>115</v>
+      </c>
+      <c r="F46" s="24"/>
+      <c r="G46" s="25"/>
     </row>
-    <row r="47" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="47"/>
+    <row r="47" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="39"/>
       <c r="B47" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="C47" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D47" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="E47" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="C47" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="D47" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="E47" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="F47" s="32"/>
-      <c r="G47" s="30"/>
+      <c r="F47" s="24"/>
+      <c r="G47" s="25"/>
+      <c r="H47" s="8"/>
     </row>
-    <row r="48" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="47"/>
+    <row r="48" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="39"/>
       <c r="B48" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>124</v>
+        <v>99</v>
       </c>
       <c r="D48" s="5" t="s">
-        <v>123</v>
+        <v>98</v>
       </c>
       <c r="E48" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="F48" s="32"/>
-      <c r="G48" s="30"/>
+        <v>98</v>
+      </c>
+      <c r="F48" s="24"/>
+      <c r="G48" s="25"/>
+      <c r="H48" s="8"/>
     </row>
     <row r="49" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="47"/>
+      <c r="A49" s="39"/>
       <c r="B49" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="C49" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="D49" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="C49" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="D49" s="15" t="s">
-        <v>104</v>
-      </c>
       <c r="E49" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="F49" s="32"/>
-      <c r="G49" s="30"/>
-      <c r="H49" s="10"/>
+        <v>102</v>
+      </c>
+      <c r="F49" s="24"/>
+      <c r="G49" s="25"/>
+      <c r="H49" s="8"/>
     </row>
     <row r="50" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="47"/>
-      <c r="B50" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="C50" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="D50" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="E50" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="F50" s="32"/>
-      <c r="G50" s="30"/>
-      <c r="H50" s="10"/>
+      <c r="A50" s="42"/>
+      <c r="B50" s="43" t="s">
+        <v>178</v>
+      </c>
+      <c r="C50" s="44" t="s">
+        <v>177</v>
+      </c>
+      <c r="D50" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="E50" s="45" t="s">
+        <v>181</v>
+      </c>
+      <c r="F50" s="46"/>
+      <c r="G50" s="47"/>
+      <c r="H50" s="8"/>
     </row>
-    <row r="51" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="47"/>
-      <c r="B51" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="C51" s="5" t="s">
-        <v>178</v>
-      </c>
-      <c r="D51" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="E51" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="F51" s="32"/>
-      <c r="G51" s="30"/>
-      <c r="H51" s="10"/>
+    <row r="51" spans="1:8" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="41"/>
+      <c r="B51" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="C51" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="D51" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="E51" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="F51" s="37"/>
+      <c r="G51" s="28"/>
     </row>
-    <row r="52" spans="1:8" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="49"/>
-      <c r="B52" s="12" t="s">
-        <v>113</v>
-      </c>
-      <c r="C52" s="13" t="s">
-        <v>112</v>
-      </c>
-      <c r="D52" s="18" t="s">
-        <v>126</v>
-      </c>
-      <c r="E52" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="F52" s="45"/>
-      <c r="G52" s="35"/>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B53" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="G53" s="8" t="s">
+        <v>172</v>
+      </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B54" s="8" t="s">
-        <v>182</v>
-      </c>
-      <c r="G54" s="8" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B55" s="8" t="s">
-        <v>183</v>
-      </c>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B56"/>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B57" s="8" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B60" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B63"/>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A2:A8"/>
     <mergeCell ref="A21:A25"/>
-    <mergeCell ref="A26:A52"/>
+    <mergeCell ref="A26:A51"/>
     <mergeCell ref="A9:A20"/>
   </mergeCells>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.78740157480314965" bottom="0.78740157480314965" header="0" footer="0"/>

--- a/Реестр символов (кам.).xlsx
+++ b/Реестр символов (кам.).xlsx
@@ -1,16 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56E3F8F1-965F-4510-B5D2-F798C3B131E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43549CCC-CA2E-4817-B6AF-F8F80B35303D}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-19320" yWindow="-1590" windowWidth="19440" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
+    <sheet name="Поверхность" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="179021"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="223">
   <si>
     <t>Области</t>
   </si>
@@ -566,6 +567,129 @@
   </si>
   <si>
     <t>u=karst</t>
+  </si>
+  <si>
+    <t>Линии</t>
+  </si>
+  <si>
+    <t>воронка и ее глубина, обозначается коричневым цветом</t>
+  </si>
+  <si>
+    <t>искусственный откос, точильный ров, насыпь дороги — чёрным цветом (верхняя граница)</t>
+  </si>
+  <si>
+    <t>Откос и т.д. (нижняя граница)</t>
+  </si>
+  <si>
+    <t>воронка без явно выраженного контура</t>
+  </si>
+  <si>
+    <t>Отвал</t>
+  </si>
+  <si>
+    <t>глубина воронки, её центр</t>
+  </si>
+  <si>
+    <t>Дерево лиственное</t>
+  </si>
+  <si>
+    <t>Дерево хвойное</t>
+  </si>
+  <si>
+    <t>Дорога грунтовая</t>
+  </si>
+  <si>
+    <t>Дорога с твёрдым покрытием</t>
+  </si>
+  <si>
+    <t>Забор</t>
+  </si>
+  <si>
+    <t>Периметр постройки</t>
+  </si>
+  <si>
+    <t>Пешеходная тропа</t>
+  </si>
+  <si>
+    <t>Скальный выход</t>
+  </si>
+  <si>
+    <t>Скальная стенка</t>
+  </si>
+  <si>
+    <t>Опора ЛЭП (столб)</t>
+  </si>
+  <si>
+    <t>Опора ЛЭП (ферма)</t>
+  </si>
+  <si>
+    <t>Водоёмы</t>
+  </si>
+  <si>
+    <t>Периметр ликвидированной постройки (старый фундамент)</t>
+  </si>
+  <si>
+    <t>Кострище (полевой лагерь)</t>
+  </si>
+  <si>
+    <t>u:fence</t>
+  </si>
+  <si>
+    <t>ЛЭП (провода)</t>
+  </si>
+  <si>
+    <t>u:foundation</t>
+  </si>
+  <si>
+    <t>u:building</t>
+  </si>
+  <si>
+    <t>u:dump</t>
+  </si>
+  <si>
+    <t>u:slope-down</t>
+  </si>
+  <si>
+    <t>u:slope-up</t>
+  </si>
+  <si>
+    <t>u:depression-old</t>
+  </si>
+  <si>
+    <t>u:depression</t>
+  </si>
+  <si>
+    <t>u:path</t>
+  </si>
+  <si>
+    <t>u:road-dirt</t>
+  </si>
+  <si>
+    <t>u:road-hard</t>
+  </si>
+  <si>
+    <t>u:rock-wall</t>
+  </si>
+  <si>
+    <t>u:power-line</t>
+  </si>
+  <si>
+    <t>u:depres-depth</t>
+  </si>
+  <si>
+    <t>u:deciduous</t>
+  </si>
+  <si>
+    <t>u:coniferous</t>
+  </si>
+  <si>
+    <t>u:fire-pit</t>
+  </si>
+  <si>
+    <t>u:power-pole</t>
+  </si>
+  <si>
+    <t>u:power-tower</t>
   </si>
 </sst>
 </file>
@@ -610,7 +734,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="27">
+  <borders count="32">
     <border>
       <left/>
       <right/>
@@ -964,11 +1088,82 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1081,21 +1276,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1110,6 +1290,45 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -5843,6 +6062,2243 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="128" name="AutoShape 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6ACD382F-770A-45C4-B26E-3D1CC1780188}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="247650" y="27822525"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="129" name="AutoShape 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FAEF7E7F-A693-4530-BAEC-A8E30E90402F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="247650" y="27822525"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>533128</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="134" name="Рисунок 133">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ABD12907-51A8-4B16-A45A-C087330B30D3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9429750" y="419100"/>
+          <a:ext cx="514350" cy="504553"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>982423</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>438150</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="135" name="Рисунок 134">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D8F12658-99A4-4DF6-B631-6C41F0B0712C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9496425" y="1562100"/>
+          <a:ext cx="858598" cy="866775"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>152401</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>66676</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>495301</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>8698</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="136" name="Рисунок 135">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0CC64292-9547-4F5F-B2C2-4D0242504574}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9525001" y="990601"/>
+          <a:ext cx="342900" cy="475422"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>66676</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>466726</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>517525</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="137" name="Рисунок 136">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4764E8F7-C8EF-400A-A99C-5CE439A9FD89}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9439276" y="2552700"/>
+          <a:ext cx="400050" cy="488950"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>523603</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="138" name="Рисунок 137">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C1A3117E-0C9B-418D-B016-41E5B213CEFF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9525000" y="9477375"/>
+          <a:ext cx="514350" cy="504553"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>494586</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="139" name="Рисунок 138">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2BF1D707-C9A6-4D24-B837-6277280DB026}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9477375" y="10029825"/>
+          <a:ext cx="257175" cy="456486"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>426794</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>485775</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="140" name="Рисунок 139">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{30B6BA64-489C-48E4-8112-653570FB7DE0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9458325" y="10544175"/>
+          <a:ext cx="341069" cy="466725"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>190501</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>800101</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>527357</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="141" name="Рисунок 140">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F2CB9E5D-CFD7-4575-8E04-08AB15736F99}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9563101" y="4133850"/>
+          <a:ext cx="609600" cy="517832"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>771525</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>66176</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1733550</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>485706</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="142" name="Рисунок 141">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4283E4B1-E6E5-4288-BDE9-61E15D678928}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10144125" y="10591301"/>
+          <a:ext cx="962025" cy="419530"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>771525</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>44145</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1638300</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>485710</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="143" name="Рисунок 142">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A055D6D0-0BCF-442B-B03E-8489027535C1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10144125" y="10035870"/>
+          <a:ext cx="866775" cy="441565"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>828675</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>480184</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>523769</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="144" name="Рисунок 143">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{80782009-1886-47C9-8051-15FE270B7426}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10201275" y="9405109"/>
+          <a:ext cx="1238250" cy="576985"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>885825</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>76201</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1714500</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>462337</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="145" name="Рисунок 144">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{892E8C3C-0358-4B5E-B287-3CDC4022B8AF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10258425" y="466726"/>
+          <a:ext cx="828675" cy="386136"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>962026</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>30937</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1718526</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>495301</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="146" name="Рисунок 145">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F77646D4-4113-4166-865A-1E26FBC78DF6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10334626" y="4155262"/>
+          <a:ext cx="756500" cy="464364"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>52351</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1228725</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>479231</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="147" name="Рисунок 146">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A267AA23-F65E-4314-87A2-BDCBA5BA3AA3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9620250" y="3643276"/>
+          <a:ext cx="981075" cy="426880"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>790575</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1514385</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>104707</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="148" name="Рисунок 147">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CBAEE470-7102-4C98-A50C-43F96B21927A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5324475" y="24945975"/>
+          <a:ext cx="723810" cy="542857"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>510478</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="149" name="Рисунок 148">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C83534E4-B0BC-4264-8A09-C44FC762F8D9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9420225" y="3086100"/>
+          <a:ext cx="466725" cy="481903"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>100141</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>24693</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1743074</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>471262</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="150" name="Рисунок 149">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD040003-6991-4949-AD19-49D87E79D8DE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="10070923" y="4084236"/>
+          <a:ext cx="446569" cy="1642933"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>942975</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>93436</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1447800</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>502104</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="151" name="Рисунок 150">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B11234D1-ACFB-4E45-B340-36547747451B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10315575" y="1017361"/>
+          <a:ext cx="504825" cy="408668"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1092139</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>41336</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>407271</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>476247</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="152" name="Рисунок 151">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5EAEA95C-B24A-4D1C-9134-632FCDC61CF9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm rot="16200000">
+          <a:off x="10862112" y="1101288"/>
+          <a:ext cx="968311" cy="1763057"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>619125</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>180727</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>18852</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="153" name="Рисунок 152">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0BA71CC2-0E0D-4F99-A7BC-B9C9AE5AC686}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6677025" y="25307925"/>
+          <a:ext cx="1980952" cy="1580952"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1314286</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>9381</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="154" name="Рисунок 153">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BA88C161-D21A-4360-B6F1-8025877C4D88}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId19"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2847975" y="25727025"/>
+          <a:ext cx="1314286" cy="1152381"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1009650</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2009650</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>152289</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="155" name="Рисунок 154">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D95A80F6-4CD6-4526-B813-9DBA4147219B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1257300" y="25755600"/>
+          <a:ext cx="1000000" cy="885714"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1219200</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>490101</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="156" name="Рисунок 155">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{38B98220-1D92-4F4D-8F86-83FFDF14927D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId21"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9544050" y="4171950"/>
+          <a:ext cx="1047750" cy="442476"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1019175</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>507228</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="158" name="Рисунок 157">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3C1415D9-9E04-472C-842B-E9B4220715C3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId22"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9582150" y="6296025"/>
+          <a:ext cx="809625" cy="469128"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1390650</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2247793</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>38007</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="159" name="Рисунок 158">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9B0BB1A2-743A-4595-8B4D-AF6191F65BDE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId23"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1638300" y="27117675"/>
+          <a:ext cx="857143" cy="742857"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>161926</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>638176</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>476250</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="160" name="Рисунок 159">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{96AB4D96-0682-4682-A724-C388B1E0AF5C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId24"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9534526" y="12677776"/>
+          <a:ext cx="476250" cy="476250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>847640</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>85629</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="161" name="Рисунок 160">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{628140E2-5DE5-469A-BAF0-65EB0289D8AD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId25"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3019425" y="27136725"/>
+          <a:ext cx="676190" cy="771429"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>971452</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>171355</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="162" name="Рисунок 161">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{40F879B4-699D-4052-B011-46EDD42CA67C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId26"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4724400" y="27041475"/>
+          <a:ext cx="780952" cy="761905"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>14340</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>176161</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1452435</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>4637</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="163" name="Рисунок 162">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1681958C-6618-41EB-B6E7-9E4A960FA09E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId27"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="6496050" y="27003376"/>
+          <a:ext cx="590476" cy="1438095"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>47626</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>499148</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="164" name="Рисунок 163">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B03A8F83-C4A4-4046-A55E-786183B398D7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId28"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11296650" y="438151"/>
+          <a:ext cx="1381125" cy="451522"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1352551</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>219076</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>486937</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="165" name="Рисунок 164">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BE5BA5A7-A726-4074-AC82-794FCEC5CFF7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId29"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10725151" y="4162425"/>
+          <a:ext cx="1314450" cy="448837"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>809626</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>28576</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1397952</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>514350</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Рисунок 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E032AFAC-B14D-411A-9770-FD2B8717C48C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId30"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10182226" y="3086101"/>
+          <a:ext cx="588326" cy="485774"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>914400</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1381067</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>161877</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Рисунок 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{551E1F60-415C-4E55-A1A7-C7D9E26D5E72}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId31"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5448300" y="24936450"/>
+          <a:ext cx="466667" cy="380952"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>457211</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>38088</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>366914</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>457199</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Рисунок 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AD5E948C-7CEF-408D-9FB9-14CB054FF5EB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId32"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm rot="16200000">
+          <a:off x="12365932" y="1407217"/>
+          <a:ext cx="952511" cy="1128903"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>933450</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>502429</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="40" name="Рисунок 39">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1747E703-CDB5-4C1E-B7CA-8EEC8064D7E0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId33"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9467850" y="14811375"/>
+          <a:ext cx="838200" cy="483379"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>66075</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>761999</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>515379</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="41" name="Рисунок 40">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DA14007B-B9C2-41BC-B87D-EAD0F8560EFC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId34"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9486900" y="15391800"/>
+          <a:ext cx="647699" cy="449304"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>38101</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>463221</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Рисунок 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{93AAA467-4FC7-405A-9AD4-92F1EC926533}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId35"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10039350" y="2562226"/>
+          <a:ext cx="1971675" cy="425120"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>461181</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Рисунок 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8E47B9AE-0730-4B25-BA6F-201F35D8C5FF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId36"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12458700" y="4181475"/>
+          <a:ext cx="552450" cy="404031"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>28576</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>155971</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>9526</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Рисунок 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{11E5702D-C894-42A9-BB5D-CA92C52AB364}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId37"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11268075" y="5219701"/>
+          <a:ext cx="1318021" cy="514350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>176250</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1247464</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>514350</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Рисунок 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D80F8806-CF01-4E03-A678-A443B3A107F6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId38"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9548850" y="5734050"/>
+          <a:ext cx="1071214" cy="504825"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>352157</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>438100</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="Рисунок 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BC082BE6-B258-4E53-8A72-8146239AA5C0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId39"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11249025" y="4695825"/>
+          <a:ext cx="2142857" cy="400000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>418579</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>522794</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="Рисунок 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6AAB8A22-A260-4F9A-A677-3D169C8DBE4E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId40"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9467850" y="9467850"/>
+          <a:ext cx="2161654" cy="513269"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>831683</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1457206</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>419100</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="Рисунок 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{47C53282-3784-4CCC-BF3A-26272C206FAC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId41"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10204283" y="14344651"/>
+          <a:ext cx="625523" cy="419100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>57151</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>572615</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="Рисунок 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{205BF845-A68E-4B9F-92D9-E9D084E248E2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId42"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11268076" y="12706350"/>
+          <a:ext cx="1125064" cy="1019175"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>85419</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>485719</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="Рисунок 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{60C2C6A6-31E2-4DA1-890C-CF9D7DAF9695}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId43"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13115925" y="4162425"/>
+          <a:ext cx="2447619" cy="447619"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>114301</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="838200" cy="483379"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="51" name="Рисунок 50">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{28A12B4B-EF6C-4A7F-A001-0C01C0F5E3F3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId33"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9486901" y="7896225"/>
+          <a:ext cx="838200" cy="483379"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1104901</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>47025</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="647699" cy="449304"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="52" name="Рисунок 51">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{243164BB-ED5F-4949-AF38-25CA06903C84}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId34"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10477501" y="7905150"/>
+          <a:ext cx="647699" cy="449304"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>161926</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>19051</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="476250" cy="476250"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="53" name="Рисунок 52">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B6CF9485-7AB3-4E8E-9639-C77BCC3B47E9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId24"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9534526" y="13211176"/>
+          <a:ext cx="476250" cy="476250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>831683</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>85726</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="625523" cy="419100"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="54" name="Рисунок 53">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EEC25F01-C781-421F-A521-3FF9F8150640}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId41"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10204283" y="13277851"/>
+          <a:ext cx="625523" cy="419100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -6111,8 +8567,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H63"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I48" sqref="I48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6148,7 +8604,7 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="38" t="s">
+      <c r="A2" s="51" t="s">
         <v>13</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -6165,7 +8621,7 @@
       <c r="G2" s="23"/>
     </row>
     <row r="3" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="39"/>
+      <c r="A3" s="52"/>
       <c r="B3" s="4" t="s">
         <v>5</v>
       </c>
@@ -6182,7 +8638,7 @@
       <c r="G3" s="34"/>
     </row>
     <row r="4" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="39"/>
+      <c r="A4" s="52"/>
       <c r="B4" s="4" t="s">
         <v>31</v>
       </c>
@@ -6199,7 +8655,7 @@
       <c r="G4" s="25"/>
     </row>
     <row r="5" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="39"/>
+      <c r="A5" s="52"/>
       <c r="B5" s="4" t="s">
         <v>7</v>
       </c>
@@ -6216,7 +8672,7 @@
       <c r="G5" s="25"/>
     </row>
     <row r="6" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="39"/>
+      <c r="A6" s="52"/>
       <c r="B6" s="4" t="s">
         <v>143</v>
       </c>
@@ -6233,7 +8689,7 @@
       <c r="G6" s="25"/>
     </row>
     <row r="7" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="39"/>
+      <c r="A7" s="52"/>
       <c r="B7" s="4" t="s">
         <v>8</v>
       </c>
@@ -6250,7 +8706,7 @@
       <c r="G7" s="25"/>
     </row>
     <row r="8" spans="1:7" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="39"/>
+      <c r="A8" s="52"/>
       <c r="B8" s="4" t="s">
         <v>29</v>
       </c>
@@ -6267,7 +8723,7 @@
       <c r="G8" s="25"/>
     </row>
     <row r="9" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="38" t="s">
+      <c r="A9" s="51" t="s">
         <v>14</v>
       </c>
       <c r="B9" s="2" t="s">
@@ -6286,7 +8742,7 @@
       <c r="G9" s="33"/>
     </row>
     <row r="10" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="39"/>
+      <c r="A10" s="52"/>
       <c r="B10" s="4" t="s">
         <v>18</v>
       </c>
@@ -6303,7 +8759,7 @@
       <c r="G10" s="25"/>
     </row>
     <row r="11" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="39"/>
+      <c r="A11" s="52"/>
       <c r="B11" s="4" t="s">
         <v>19</v>
       </c>
@@ -6320,7 +8776,7 @@
       <c r="G11" s="25"/>
     </row>
     <row r="12" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="39"/>
+      <c r="A12" s="52"/>
       <c r="B12" s="4" t="s">
         <v>22</v>
       </c>
@@ -6337,7 +8793,7 @@
       <c r="G12" s="25"/>
     </row>
     <row r="13" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="39"/>
+      <c r="A13" s="52"/>
       <c r="B13" s="4" t="s">
         <v>26</v>
       </c>
@@ -6354,7 +8810,7 @@
       <c r="G13" s="25"/>
     </row>
     <row r="14" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="39"/>
+      <c r="A14" s="52"/>
       <c r="B14" s="4" t="s">
         <v>34</v>
       </c>
@@ -6373,7 +8829,7 @@
       <c r="G14" s="25"/>
     </row>
     <row r="15" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="39"/>
+      <c r="A15" s="52"/>
       <c r="B15" s="4" t="s">
         <v>149</v>
       </c>
@@ -6390,7 +8846,7 @@
       <c r="G15" s="25"/>
     </row>
     <row r="16" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="39"/>
+      <c r="A16" s="52"/>
       <c r="B16" s="4" t="s">
         <v>40</v>
       </c>
@@ -6407,7 +8863,7 @@
       <c r="G16" s="25"/>
     </row>
     <row r="17" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="39"/>
+      <c r="A17" s="52"/>
       <c r="B17" s="4" t="s">
         <v>91</v>
       </c>
@@ -6424,7 +8880,7 @@
       <c r="G17" s="25"/>
     </row>
     <row r="18" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="39"/>
+      <c r="A18" s="52"/>
       <c r="B18" s="4" t="s">
         <v>156</v>
       </c>
@@ -6441,7 +8897,7 @@
       <c r="G18" s="25"/>
     </row>
     <row r="19" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="39"/>
+      <c r="A19" s="52"/>
       <c r="B19" s="4"/>
       <c r="C19" s="5" t="s">
         <v>129</v>
@@ -6458,7 +8914,7 @@
       <c r="G19" s="25"/>
     </row>
     <row r="20" spans="1:7" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="41"/>
+      <c r="A20" s="55"/>
       <c r="B20" s="10"/>
       <c r="C20" s="11" t="s">
         <v>130</v>
@@ -6473,7 +8929,7 @@
       <c r="G20" s="28"/>
     </row>
     <row r="21" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="40" t="s">
+      <c r="A21" s="53" t="s">
         <v>0</v>
       </c>
       <c r="B21" s="29" t="s">
@@ -6492,7 +8948,7 @@
       <c r="G21" s="33"/>
     </row>
     <row r="22" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="39"/>
+      <c r="A22" s="52"/>
       <c r="B22" s="4" t="s">
         <v>11</v>
       </c>
@@ -6509,7 +8965,7 @@
       <c r="G22" s="25"/>
     </row>
     <row r="23" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="39"/>
+      <c r="A23" s="52"/>
       <c r="B23" s="4" t="s">
         <v>12</v>
       </c>
@@ -6526,7 +8982,7 @@
       <c r="G23" s="25"/>
     </row>
     <row r="24" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="39"/>
+      <c r="A24" s="52"/>
       <c r="B24" s="4" t="s">
         <v>135</v>
       </c>
@@ -6543,7 +8999,7 @@
       <c r="G24" s="25"/>
     </row>
     <row r="25" spans="1:7" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="39"/>
+      <c r="A25" s="52"/>
       <c r="B25" s="4" t="s">
         <v>44</v>
       </c>
@@ -6556,7 +9012,7 @@
       <c r="G25" s="25"/>
     </row>
     <row r="26" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="38" t="s">
+      <c r="A26" s="51" t="s">
         <v>1</v>
       </c>
       <c r="B26" s="2" t="s">
@@ -6575,7 +9031,7 @@
       <c r="G26" s="23"/>
     </row>
     <row r="27" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="39"/>
+      <c r="A27" s="52"/>
       <c r="B27" s="4" t="s">
         <v>58</v>
       </c>
@@ -6592,7 +9048,7 @@
       <c r="G27" s="25"/>
     </row>
     <row r="28" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="39"/>
+      <c r="A28" s="52"/>
       <c r="B28" s="4" t="s">
         <v>157</v>
       </c>
@@ -6609,7 +9065,7 @@
       <c r="G28" s="25"/>
     </row>
     <row r="29" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="39"/>
+      <c r="A29" s="52"/>
       <c r="B29" s="4" t="s">
         <v>171</v>
       </c>
@@ -6626,7 +9082,7 @@
       <c r="G29" s="25"/>
     </row>
     <row r="30" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="39"/>
+      <c r="A30" s="52"/>
       <c r="B30" s="4" t="s">
         <v>74</v>
       </c>
@@ -6643,7 +9099,7 @@
       <c r="G30" s="25"/>
     </row>
     <row r="31" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="39"/>
+      <c r="A31" s="52"/>
       <c r="B31" s="4" t="s">
         <v>63</v>
       </c>
@@ -6660,7 +9116,7 @@
       <c r="G31" s="25"/>
     </row>
     <row r="32" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="39"/>
+      <c r="A32" s="52"/>
       <c r="B32" s="4" t="s">
         <v>64</v>
       </c>
@@ -6677,7 +9133,7 @@
       <c r="G32" s="25"/>
     </row>
     <row r="33" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="39"/>
+      <c r="A33" s="52"/>
       <c r="B33" s="4" t="s">
         <v>67</v>
       </c>
@@ -6694,7 +9150,7 @@
       <c r="G33" s="25"/>
     </row>
     <row r="34" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="39"/>
+      <c r="A34" s="52"/>
       <c r="B34" s="4" t="s">
         <v>164</v>
       </c>
@@ -6711,7 +9167,7 @@
       <c r="G34" s="25"/>
     </row>
     <row r="35" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="39"/>
+      <c r="A35" s="52"/>
       <c r="B35" s="4" t="s">
         <v>158</v>
       </c>
@@ -6728,7 +9184,7 @@
       <c r="G35" s="25"/>
     </row>
     <row r="36" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="39"/>
+      <c r="A36" s="52"/>
       <c r="B36" s="4" t="s">
         <v>70</v>
       </c>
@@ -6745,7 +9201,7 @@
       <c r="G36" s="25"/>
     </row>
     <row r="37" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="39"/>
+      <c r="A37" s="52"/>
       <c r="B37" s="4" t="s">
         <v>9</v>
       </c>
@@ -6762,7 +9218,7 @@
       <c r="G37" s="25"/>
     </row>
     <row r="38" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="39"/>
+      <c r="A38" s="52"/>
       <c r="B38" s="4" t="s">
         <v>75</v>
       </c>
@@ -6779,7 +9235,7 @@
       <c r="G38" s="25"/>
     </row>
     <row r="39" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="39"/>
+      <c r="A39" s="52"/>
       <c r="B39" s="4" t="s">
         <v>80</v>
       </c>
@@ -6796,7 +9252,7 @@
       <c r="G39" s="25"/>
     </row>
     <row r="40" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="39"/>
+      <c r="A40" s="52"/>
       <c r="B40" s="4" t="s">
         <v>83</v>
       </c>
@@ -6813,7 +9269,7 @@
       <c r="G40" s="25"/>
     </row>
     <row r="41" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="39"/>
+      <c r="A41" s="52"/>
       <c r="B41" s="4" t="s">
         <v>84</v>
       </c>
@@ -6830,7 +9286,7 @@
       <c r="G41" s="25"/>
     </row>
     <row r="42" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="39"/>
+      <c r="A42" s="52"/>
       <c r="B42" s="4" t="s">
         <v>88</v>
       </c>
@@ -6847,7 +9303,7 @@
       <c r="G42" s="25"/>
     </row>
     <row r="43" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="39"/>
+      <c r="A43" s="52"/>
       <c r="B43" s="4" t="s">
         <v>109</v>
       </c>
@@ -6864,7 +9320,7 @@
       <c r="G43" s="25"/>
     </row>
     <row r="44" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="39"/>
+      <c r="A44" s="52"/>
       <c r="B44" s="4" t="s">
         <v>110</v>
       </c>
@@ -6881,7 +9337,7 @@
       <c r="G44" s="25"/>
     </row>
     <row r="45" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="39"/>
+      <c r="A45" s="52"/>
       <c r="B45" s="4" t="s">
         <v>89</v>
       </c>
@@ -6898,7 +9354,7 @@
       <c r="G45" s="25"/>
     </row>
     <row r="46" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="39"/>
+      <c r="A46" s="52"/>
       <c r="B46" s="4" t="s">
         <v>93</v>
       </c>
@@ -6915,7 +9371,7 @@
       <c r="G46" s="25"/>
     </row>
     <row r="47" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="39"/>
+      <c r="A47" s="52"/>
       <c r="B47" s="4" t="s">
         <v>94</v>
       </c>
@@ -6933,7 +9389,7 @@
       <c r="H47" s="8"/>
     </row>
     <row r="48" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="39"/>
+      <c r="A48" s="52"/>
       <c r="B48" s="4" t="s">
         <v>100</v>
       </c>
@@ -6951,7 +9407,7 @@
       <c r="H48" s="8"/>
     </row>
     <row r="49" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="39"/>
+      <c r="A49" s="52"/>
       <c r="B49" s="4" t="s">
         <v>101</v>
       </c>
@@ -6969,25 +9425,25 @@
       <c r="H49" s="8"/>
     </row>
     <row r="50" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="42"/>
-      <c r="B50" s="43" t="s">
+      <c r="A50" s="54"/>
+      <c r="B50" s="38" t="s">
         <v>178</v>
       </c>
-      <c r="C50" s="44" t="s">
+      <c r="C50" s="39" t="s">
         <v>177</v>
       </c>
       <c r="D50" s="12" t="s">
         <v>180</v>
       </c>
-      <c r="E50" s="45" t="s">
+      <c r="E50" s="40" t="s">
         <v>181</v>
       </c>
-      <c r="F50" s="46"/>
-      <c r="G50" s="47"/>
+      <c r="F50" s="41"/>
+      <c r="G50" s="42"/>
       <c r="H50" s="8"/>
     </row>
     <row r="51" spans="1:8" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="41"/>
+      <c r="A51" s="55"/>
       <c r="B51" s="10" t="s">
         <v>105</v>
       </c>
@@ -7043,4 +9499,424 @@
   <pageSetup paperSize="9" scale="69" fitToHeight="0" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BFBF2D6-00F9-4871-A88D-DC325BFFC0B5}">
+  <dimension ref="A1:G34"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="3.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="39" style="8" customWidth="1"/>
+    <col min="3" max="3" width="25.28515625" style="8" customWidth="1"/>
+    <col min="4" max="4" width="22.85546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.28515625" style="8" customWidth="1"/>
+    <col min="6" max="6" width="13" style="8" customWidth="1"/>
+    <col min="7" max="7" width="13.42578125" style="8" customWidth="1"/>
+    <col min="8" max="8" width="27.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="43"/>
+      <c r="B1" s="44" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="45" t="s">
+        <v>127</v>
+      </c>
+      <c r="D1" s="45" t="s">
+        <v>126</v>
+      </c>
+      <c r="E1" s="45" t="s">
+        <v>128</v>
+      </c>
+      <c r="F1" s="46" t="s">
+        <v>141</v>
+      </c>
+      <c r="G1" s="47" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="53" t="s">
+        <v>182</v>
+      </c>
+      <c r="B2" s="29" t="s">
+        <v>183</v>
+      </c>
+      <c r="C2" s="30"/>
+      <c r="D2" s="48" t="s">
+        <v>211</v>
+      </c>
+      <c r="E2" s="31"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="33"/>
+    </row>
+    <row r="3" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="53"/>
+      <c r="B3" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="C3" s="5"/>
+      <c r="D3" s="48" t="s">
+        <v>210</v>
+      </c>
+      <c r="E3" s="31"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="33"/>
+    </row>
+    <row r="4" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="52"/>
+      <c r="B4" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="49" t="s">
+        <v>209</v>
+      </c>
+      <c r="E4" s="6"/>
+      <c r="F4" s="24"/>
+      <c r="G4" s="25"/>
+    </row>
+    <row r="5" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="52"/>
+      <c r="B5" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="C5" s="5"/>
+      <c r="D5" s="49" t="s">
+        <v>208</v>
+      </c>
+      <c r="E5" s="5"/>
+      <c r="F5" s="24"/>
+      <c r="G5" s="25"/>
+    </row>
+    <row r="6" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="52"/>
+      <c r="B6" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="C6" s="5"/>
+      <c r="D6" s="49" t="s">
+        <v>207</v>
+      </c>
+      <c r="E6" s="6"/>
+      <c r="F6" s="24"/>
+      <c r="G6" s="25"/>
+    </row>
+    <row r="7" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="52"/>
+      <c r="B7" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="C7" s="5"/>
+      <c r="D7" s="49" t="s">
+        <v>206</v>
+      </c>
+      <c r="E7" s="6"/>
+      <c r="F7" s="24"/>
+      <c r="G7" s="25"/>
+    </row>
+    <row r="8" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="52"/>
+      <c r="B8" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="C8" s="5"/>
+      <c r="D8" s="49" t="s">
+        <v>205</v>
+      </c>
+      <c r="E8" s="6"/>
+      <c r="F8" s="24"/>
+      <c r="G8" s="25"/>
+    </row>
+    <row r="9" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="52"/>
+      <c r="B9" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="C9" s="5"/>
+      <c r="D9" s="49" t="s">
+        <v>203</v>
+      </c>
+      <c r="E9" s="6"/>
+      <c r="F9" s="24"/>
+      <c r="G9" s="25"/>
+    </row>
+    <row r="10" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="52"/>
+      <c r="B10" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="C10" s="5"/>
+      <c r="D10" s="49" t="s">
+        <v>212</v>
+      </c>
+      <c r="E10" s="6"/>
+      <c r="F10" s="24"/>
+      <c r="G10" s="25"/>
+    </row>
+    <row r="11" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="52"/>
+      <c r="B11" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="C11" s="5"/>
+      <c r="D11" s="49" t="s">
+        <v>213</v>
+      </c>
+      <c r="E11" s="6"/>
+      <c r="F11" s="24"/>
+      <c r="G11" s="25"/>
+    </row>
+    <row r="12" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="52"/>
+      <c r="B12" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="C12" s="5"/>
+      <c r="D12" s="49" t="s">
+        <v>214</v>
+      </c>
+      <c r="E12" s="6"/>
+      <c r="F12" s="24"/>
+      <c r="G12" s="25"/>
+    </row>
+    <row r="13" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="52"/>
+      <c r="B13" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="C13" s="5"/>
+      <c r="D13" s="49" t="s">
+        <v>215</v>
+      </c>
+      <c r="E13" s="6"/>
+      <c r="F13" s="24"/>
+      <c r="G13" s="25"/>
+    </row>
+    <row r="14" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="52"/>
+      <c r="B14" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="C14" s="5"/>
+      <c r="D14" s="49" t="s">
+        <v>216</v>
+      </c>
+      <c r="E14" s="6"/>
+      <c r="F14" s="24"/>
+      <c r="G14" s="25"/>
+    </row>
+    <row r="15" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="52"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="49"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="24"/>
+      <c r="G15" s="25"/>
+    </row>
+    <row r="16" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="52"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="49"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="24"/>
+      <c r="G16" s="25"/>
+    </row>
+    <row r="17" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="52"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="36"/>
+      <c r="G17" s="25"/>
+    </row>
+    <row r="18" spans="1:7" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="55"/>
+      <c r="B18" s="10"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="27"/>
+      <c r="G18" s="28"/>
+    </row>
+    <row r="19" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="53" t="s">
+        <v>0</v>
+      </c>
+      <c r="B19" s="29" t="s">
+        <v>200</v>
+      </c>
+      <c r="C19" s="30"/>
+      <c r="D19" s="30"/>
+      <c r="E19" s="31"/>
+      <c r="F19" s="32"/>
+      <c r="G19" s="33"/>
+    </row>
+    <row r="20" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="52"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="24"/>
+      <c r="G20" s="25"/>
+    </row>
+    <row r="21" spans="1:7" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="52"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="24"/>
+      <c r="G21" s="25"/>
+    </row>
+    <row r="22" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="51" t="s">
+        <v>1</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="E22" s="3"/>
+      <c r="F22" s="22"/>
+      <c r="G22" s="23"/>
+    </row>
+    <row r="23" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="52"/>
+      <c r="B23" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="E23" s="6"/>
+      <c r="F23" s="24"/>
+      <c r="G23" s="25"/>
+    </row>
+    <row r="24" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="52"/>
+      <c r="B24" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="E24" s="6"/>
+      <c r="F24" s="24"/>
+      <c r="G24" s="25"/>
+    </row>
+    <row r="25" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="52"/>
+      <c r="B25" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="C25" s="5"/>
+      <c r="D25" s="49" t="s">
+        <v>220</v>
+      </c>
+      <c r="E25" s="6"/>
+      <c r="F25" s="24"/>
+      <c r="G25" s="25"/>
+    </row>
+    <row r="26" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="52"/>
+      <c r="B26" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="C26" s="5"/>
+      <c r="D26" s="49" t="s">
+        <v>221</v>
+      </c>
+      <c r="E26" s="6"/>
+      <c r="F26" s="24"/>
+      <c r="G26" s="25"/>
+    </row>
+    <row r="27" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="52"/>
+      <c r="B27" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="C27" s="5"/>
+      <c r="D27" s="49" t="s">
+        <v>222</v>
+      </c>
+      <c r="E27" s="6"/>
+      <c r="F27" s="24"/>
+      <c r="G27" s="25"/>
+    </row>
+    <row r="28" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="52"/>
+      <c r="B28" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="C28" s="5"/>
+      <c r="D28" s="49"/>
+      <c r="E28" s="6"/>
+      <c r="F28" s="24"/>
+      <c r="G28" s="25"/>
+    </row>
+    <row r="29" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="52"/>
+      <c r="B29" s="4"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="49"/>
+      <c r="E29" s="6"/>
+      <c r="F29" s="24"/>
+      <c r="G29" s="25"/>
+    </row>
+    <row r="30" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="52"/>
+      <c r="B30" s="4"/>
+      <c r="C30" s="5"/>
+      <c r="D30" s="49"/>
+      <c r="E30" s="6"/>
+      <c r="F30" s="24"/>
+      <c r="G30" s="25"/>
+    </row>
+    <row r="31" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="54"/>
+      <c r="B31" s="38"/>
+      <c r="C31" s="39"/>
+      <c r="D31" s="49"/>
+      <c r="E31" s="40"/>
+      <c r="F31" s="41"/>
+      <c r="G31" s="42"/>
+    </row>
+    <row r="32" spans="1:7" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="55"/>
+      <c r="B32" s="10"/>
+      <c r="C32" s="11"/>
+      <c r="D32" s="50"/>
+      <c r="E32" s="7"/>
+      <c r="F32" s="37"/>
+      <c r="G32" s="28"/>
+    </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B34"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A2:A18"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A22:A32"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/Реестр символов (кам.).xlsx
+++ b/Реестр символов (кам.).xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43549CCC-CA2E-4817-B6AF-F8F80B35303D}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39212005-4DA7-46D6-9A6E-E6BD2EE3D815}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-19320" yWindow="-1590" windowWidth="19440" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="230">
   <si>
     <t>Области</t>
   </si>
@@ -290,9 +290,6 @@
     <t>Тяга воздуха</t>
   </si>
   <si>
-    <t>Блокировано обвалом</t>
-  </si>
-  <si>
     <t>Уклон</t>
   </si>
   <si>
@@ -362,12 +359,6 @@
     <t>block</t>
   </si>
   <si>
-    <t>breakdown-choke</t>
-  </si>
-  <si>
-    <t>блокировано обвалом</t>
-  </si>
-  <si>
     <t>guano</t>
   </si>
   <si>
@@ -690,6 +681,36 @@
   </si>
   <si>
     <t>u:power-tower</t>
+  </si>
+  <si>
+    <t>u:goodroad</t>
+  </si>
+  <si>
+    <t>u=goodroad</t>
+  </si>
+  <si>
+    <t>Наилучшие пути перемещения по полости, наиболее используемые для перемещения в дальние части</t>
+  </si>
+  <si>
+    <t>оптимальный путь</t>
+  </si>
+  <si>
+    <t>Песчаная стена</t>
+  </si>
+  <si>
+    <t>Стена в песке</t>
+  </si>
+  <si>
+    <t>u:belltower</t>
+  </si>
+  <si>
+    <t>u=belltower</t>
+  </si>
+  <si>
+    <t>Колокольня</t>
+  </si>
+  <si>
+    <t>Высокий куполообразный вывал породы вышерасположенных пластов в следствие локального разрушения кровли</t>
   </si>
 </sst>
 </file>
@@ -1163,7 +1184,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1330,6 +1351,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1397,6 +1421,402 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>885714</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>3246</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Рисунок 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{65307A3D-6CF8-4A63-AE8D-51B6B7CD5826}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8564217" y="4629978"/>
+          <a:ext cx="885714" cy="533333"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>885714</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>3246</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Рисунок 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B100CE4-2CCB-4468-ADAD-9658FFC26AB9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8564217" y="2509630"/>
+          <a:ext cx="885714" cy="533333"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>885714</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>3246</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Рисунок 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B6EA0A2B-A816-44A8-8F4A-D04C2DB5D61B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8564217" y="9400761"/>
+          <a:ext cx="885714" cy="533333"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>885714</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>3246</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Рисунок 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD0DA5E1-5DAB-4769-ADEC-9832DF8863D4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8564217" y="919370"/>
+          <a:ext cx="885714" cy="533333"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>885714</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>3246</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Рисунок 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CE2480CE-E8F7-425D-8706-BE0305A51540}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8564217" y="5160065"/>
+          <a:ext cx="885714" cy="533333"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>885714</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>3246</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Рисунок 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B09B375C-DA80-4055-81F5-D499032E90D4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8564217" y="7810500"/>
+          <a:ext cx="885714" cy="533333"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>885714</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>3246</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Рисунок 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{835A6666-D7D5-4609-9B04-E5237149F9A8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8564217" y="5690152"/>
+          <a:ext cx="885714" cy="533333"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>885714</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>3246</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Рисунок 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5ED41446-0D5F-4BB3-9F51-28973B52F2C3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8564217" y="9930848"/>
+          <a:ext cx="885714" cy="533333"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>885714</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>3246</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="Рисунок 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DECDCE4-C460-405D-8902-2A648D6D6F60}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8564217" y="8870674"/>
+          <a:ext cx="885714" cy="533333"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
@@ -1408,26 +1828,26 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Рисунок 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{65307A3D-6CF8-4A63-AE8D-51B6B7CD5826}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8564217" y="4629978"/>
+        <xdr:cNvPr id="12" name="Рисунок 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7406C71B-D7EF-4E00-B587-78584F67699A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8564217" y="4099891"/>
           <a:ext cx="885714" cy="533333"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1441,37 +1861,125 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>530086</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>885714</xdr:colOff>
       <xdr:row>5</xdr:row>
+      <xdr:rowOff>3246</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="Рисунок 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5E80D4D8-CF77-4381-897C-9FCF80A07C83}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8564217" y="1979543"/>
+          <a:ext cx="885714" cy="533333"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>885714</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>3246</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="Рисунок 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{323CB539-BA4D-4D62-95FE-653AE5589A80}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8564217" y="6220239"/>
+          <a:ext cx="885714" cy="533333"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>885714</xdr:colOff>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>3246</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Рисунок 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B100CE4-2CCB-4468-ADAD-9658FFC26AB9}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8564217" y="2509630"/>
+        <xdr:cNvPr id="15" name="Рисунок 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D25E9D0F-1FC3-4D94-9E3F-B9167D5F44DF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8564217" y="3039717"/>
           <a:ext cx="885714" cy="533333"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1485,37 +1993,213 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>885714</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>3246</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="Рисунок 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C26562E4-9D5F-40C1-B1F1-3260B0960F09}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8564217" y="3569804"/>
+          <a:ext cx="885714" cy="533333"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>885714</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>3247</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="Рисунок 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{65A641F3-1A8D-4EB5-BAEC-25AFD8C22A55}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8564217" y="1449457"/>
+          <a:ext cx="885714" cy="533333"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>885714</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>3246</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="18" name="Рисунок 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9D03B59F-0F31-4A9E-9372-B8627F52C1B3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8564217" y="6750326"/>
+          <a:ext cx="885714" cy="533333"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>885714</xdr:colOff>
       <xdr:row>18</xdr:row>
+      <xdr:rowOff>3246</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="19" name="Рисунок 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EDA39146-3BB4-47ED-BF3D-A095FFE98489}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8564217" y="8340587"/>
+          <a:ext cx="885714" cy="533333"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>885714</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>3246</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Рисунок 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B6EA0A2B-A816-44A8-8F4A-D04C2DB5D61B}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8564217" y="9400761"/>
+        <xdr:cNvPr id="20" name="Рисунок 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{639B74AF-22DC-49E7-83E2-73FAFC555510}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId19"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8564217" y="7280413"/>
           <a:ext cx="885714" cy="533333"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1529,2062 +2213,2546 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>0</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>885714</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>1053</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="21" name="Рисунок 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CE17E0E0-77C7-47D2-B35B-8BB022C8DB55}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8561294" y="10611971"/>
+          <a:ext cx="885714" cy="533333"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>885714</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>1053</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="22" name="Рисунок 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9D7945A7-2B8B-45B7-8423-D83704A0BFEC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId21"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8561294" y="12225618"/>
+          <a:ext cx="885714" cy="533333"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>885714</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>1054</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="23" name="Рисунок 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B4C255F1-FB48-492F-83D2-6E955ACAC375}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId22"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8561294" y="12763500"/>
+          <a:ext cx="885714" cy="533333"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>885714</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>1054</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="24" name="Рисунок 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4E07CEC9-5BE9-41F1-A5B0-73D150CDFDF2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId23"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8561294" y="11687735"/>
+          <a:ext cx="885714" cy="533333"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>885714</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>1054</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="26" name="Рисунок 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{67BE7B5D-E913-4FA3-99FE-29461B3F1F6D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId24"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8561294" y="11149853"/>
+          <a:ext cx="885714" cy="533333"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>150018</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>750018</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>504765</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="27" name="Рисунок 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EB920142-FD73-4702-A086-03FC7B093F7C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId25"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8712993" y="13220700"/>
+          <a:ext cx="600000" cy="476190"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>150018</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>750018</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>504765</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="28" name="Рисунок 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8190987F-8368-4385-98C4-854FC462E5E7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId26"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8712993" y="23888700"/>
+          <a:ext cx="600000" cy="476190"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>150018</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>29243</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>750018</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>504765</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="30" name="Рисунок 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{41D9C97F-4882-40FA-AFFB-CB04726DF930}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId27"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8712993" y="13754768"/>
+          <a:ext cx="600000" cy="475522"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>150018</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>750018</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>504765</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="31" name="Рисунок 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B37582BC-B9B0-4081-8FC2-1F45AB5A3679}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId28"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8712993" y="14287500"/>
+          <a:ext cx="600000" cy="476190"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>150018</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>750018</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>504765</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="32" name="Рисунок 31">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2597A3A6-AFAF-45D8-BF2E-A424DD82A2F1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId29"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8712993" y="14820900"/>
+          <a:ext cx="600000" cy="476190"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>150018</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>750018</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>504765</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="33" name="Рисунок 32">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FF110602-2537-4C3C-B179-E5E2F0CC73E2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId30"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8712993" y="16421100"/>
+          <a:ext cx="600000" cy="476190"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>150018</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>750018</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>504765</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="34" name="Рисунок 33">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{84DCC6AB-1F4D-4574-8592-8637B0E6F667}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId31"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8712993" y="16954500"/>
+          <a:ext cx="600000" cy="476190"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>150018</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>750018</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>504765</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="35" name="Рисунок 34">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4190BA72-5CD6-4B26-9C05-309AAD524439}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId32"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8712993" y="18021300"/>
+          <a:ext cx="600000" cy="476190"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>150018</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>750018</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>504765</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="36" name="Рисунок 35">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9DD4CAE8-E48A-4144-A8BD-A5F6FE86754A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId33"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8712993" y="17487900"/>
+          <a:ext cx="600000" cy="476190"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>150018</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>750018</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>504765</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="37" name="Рисунок 36">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6374271F-1383-44F4-970B-28F292778401}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId34"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8712993" y="18554700"/>
+          <a:ext cx="600000" cy="476190"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>150018</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>750018</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>476190</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="38" name="Рисунок 37">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{55C9C2E9-A73F-4079-9048-867362652C67}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId35"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8712993" y="19088100"/>
+          <a:ext cx="600000" cy="476190"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>150018</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>750018</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>504765</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="39" name="Рисунок 38">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C125E474-AE08-44FC-BFEF-35A93639BA6C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId36"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8712993" y="19621500"/>
+          <a:ext cx="600000" cy="476190"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>150018</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>750018</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>504765</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="40" name="Рисунок 39">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B80A0BB9-4016-45EB-B274-EFD58D6789FC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId37"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8712993" y="20154900"/>
+          <a:ext cx="600000" cy="476190"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>150018</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>750018</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>504765</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="41" name="Рисунок 40">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1C8C01D7-97BD-4C98-8363-B2476537CDEF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId38"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8712993" y="20688300"/>
+          <a:ext cx="600000" cy="476190"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>150018</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>750018</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>476190</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="42" name="Рисунок 41">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5D052D59-33DA-433A-A736-D757EFDB376A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId39"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8712993" y="21221700"/>
+          <a:ext cx="600000" cy="476190"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>150018</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>750018</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>504765</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="43" name="Рисунок 42">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{36A16E81-ED23-4771-8616-EC2465394BD7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId40"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8712993" y="22288500"/>
+          <a:ext cx="600000" cy="476190"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>150018</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>750018</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>504765</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="44" name="Рисунок 43">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6D1C6A1D-4FC8-4068-A597-9B0F34CB8A8B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId41"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8712993" y="21755100"/>
+          <a:ext cx="600000" cy="476190"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>150018</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>750018</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>504765</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="45" name="Рисунок 44">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F3B4F071-0563-4DB6-BEAE-76DA0047C6DB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId42"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8712993" y="23355300"/>
+          <a:ext cx="600000" cy="476190"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>150018</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>750018</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>504765</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="46" name="Рисунок 45">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{07F58801-4CE5-4477-AFD7-1A1396C34C6B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId43"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8712993" y="22821900"/>
+          <a:ext cx="600000" cy="476190"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>150018</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>750018</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>504765</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="47" name="Рисунок 46">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BC63890C-31A6-416E-9FF9-53144A79AE40}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId44"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8712993" y="15354300"/>
+          <a:ext cx="600000" cy="476190"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>150018</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>750018</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>504765</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="48" name="Рисунок 47">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7E1A7F58-AD78-41C0-A82A-C9525141E374}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId45"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8712993" y="15887700"/>
+          <a:ext cx="600000" cy="476190"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>150018</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>750018</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>504765</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="49" name="Рисунок 48">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DD3F4614-389C-4129-9565-42BB71A15685}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId46"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8712993" y="26555700"/>
+          <a:ext cx="600000" cy="476190"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>150018</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>750018</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>504765</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="50" name="Рисунок 49">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{29259297-00CD-4F8C-A0E1-588E7203AE30}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId47"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8712993" y="27089100"/>
+          <a:ext cx="600000" cy="476190"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>150018</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>750018</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>504765</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="51" name="Рисунок 50">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{29540A5F-F630-4883-BE31-C9B4790ABDBC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId48"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8712993" y="26022300"/>
+          <a:ext cx="600000" cy="476190"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>150018</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>750018</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>504765</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="52" name="Рисунок 51">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E869119E-ECFC-48BA-B2C2-C4BA050C274F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId49"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8712993" y="25488900"/>
+          <a:ext cx="600000" cy="476190"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>150018</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>750018</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>504765</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="53" name="Рисунок 52">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BBE4D968-77EF-4183-85CA-DBD5365FBB1B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId50"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8712993" y="24955500"/>
+          <a:ext cx="600000" cy="476190"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1012</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>1054</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="25" name="Рисунок 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F5B44197-A693-42EE-A83E-A852A79F104C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId51"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7610475" y="14258925"/>
+          <a:ext cx="866667" cy="533334"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1012</xdr:colOff>
       <xdr:row>2</xdr:row>
+      <xdr:rowOff>1054</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="54" name="Рисунок 53">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5A767BB2-5DF0-44E5-922F-F161B39D1C8F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId52"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7610475" y="390525"/>
+          <a:ext cx="866667" cy="533334"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>885714</xdr:colOff>
+      <xdr:colOff>1012</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>1055</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="55" name="Рисунок 54">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1DA085DA-335C-4E0A-B5ED-72DD131A900A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId53"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7610475" y="3590925"/>
+          <a:ext cx="866667" cy="533334"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>3246</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="Рисунок 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD0DA5E1-5DAB-4769-ADEC-9832DF8863D4}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8564217" y="919370"/>
-          <a:ext cx="885714" cy="533333"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1012</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>1054</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="56" name="Рисунок 55">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EDA50DE0-95D3-41CF-B54F-CDAE254CF91E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId54"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7610475" y="1457325"/>
+          <a:ext cx="866667" cy="533334"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1012</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>1054</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="57" name="Рисунок 56">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{50055E77-5A80-4CD3-9D80-AE9B2566F3CB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId55"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7610475" y="3057525"/>
+          <a:ext cx="866667" cy="533334"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1012</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>1055</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="58" name="Рисунок 57">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CBDD8F61-8C93-46D8-A17D-73A9B7797A37}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId56"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7610475" y="22793325"/>
+          <a:ext cx="866667" cy="533334"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1012</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>1054</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="59" name="Рисунок 58">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E36A36D9-141A-434C-A1D1-821F34A1F614}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId57"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7610475" y="22259925"/>
+          <a:ext cx="866667" cy="533334"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1012</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>1054</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="60" name="Рисунок 59">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{744D33C5-9C8E-4274-97A4-53AF65436497}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId58"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7610475" y="15859125"/>
+          <a:ext cx="866667" cy="533334"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1012</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>1055</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="61" name="Рисунок 60">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E589FF-AAD5-4B7C-ACAA-14DD338762D9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId59"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7610475" y="16392525"/>
+          <a:ext cx="866667" cy="533334"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1012</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>1055</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="62" name="Рисунок 61">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{366CDAA3-51E7-401D-9022-10CCA2FD2C0C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId60"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7610475" y="8391525"/>
+          <a:ext cx="866667" cy="533334"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1012</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>1055</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="63" name="Рисунок 62">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{567492E8-710C-4037-B75E-E9A3EFE58880}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId61"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7610475" y="9991725"/>
+          <a:ext cx="866667" cy="533334"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1012</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>1054</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="64" name="Рисунок 63">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C6AE6A8E-E8C7-47CD-9385-E8F42730F24D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId62"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7610475" y="5191125"/>
+          <a:ext cx="866667" cy="533334"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1012</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>1055</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="65" name="Рисунок 64">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BEBA3959-25A9-4EE9-89B8-D51A969D6563}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId63"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7610475" y="5724525"/>
+          <a:ext cx="866667" cy="533334"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1012</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>1055</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="67" name="Рисунок 66">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DC2EC41-A4FA-4DEB-B0A3-F74A1FA5D616}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId64"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7610475" y="21726525"/>
+          <a:ext cx="866667" cy="533334"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1012</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>1054</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="68" name="Рисунок 67">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BEA9B29B-D621-4885-BF54-ED9525217A04}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId65"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7610475" y="24926925"/>
+          <a:ext cx="866667" cy="533334"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1012</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>1055</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="69" name="Рисунок 68">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A7760FBE-4F84-48EC-9FFB-6D2718251796}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId66"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7610475" y="12658725"/>
+          <a:ext cx="866667" cy="533334"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1012</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>1054</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="70" name="Рисунок 69">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{49A60E25-53E2-4B2A-B2D1-A862502C545E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId67"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7610475" y="12125325"/>
+          <a:ext cx="866667" cy="533334"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1012</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>1055</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="71" name="Рисунок 70">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D0D6C87E-E378-4054-9FF4-916464707F27}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId68"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7610475" y="11591925"/>
+          <a:ext cx="866667" cy="533334"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1012</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>1054</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="72" name="Рисунок 71">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9E5F2176-4D85-4FE4-B675-C4DC6FB3CDF2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId69"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7610475" y="10525125"/>
+          <a:ext cx="866667" cy="533334"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1012</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>1055</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="73" name="Рисунок 72">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7ABCF559-C940-49C4-8054-8CCF5319B138}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId70"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7610475" y="11058525"/>
+          <a:ext cx="866667" cy="533334"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>885714</xdr:colOff>
+      <xdr:colOff>1012</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>3246</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="Рисунок 6">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CE2480CE-E8F7-425D-8706-BE0305A51540}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8564217" y="5160065"/>
-          <a:ext cx="885714" cy="533333"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:rowOff>1055</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="74" name="Рисунок 73">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AB762A54-54BA-47C4-914B-88B9E671D78D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId71"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7610475" y="4657725"/>
+          <a:ext cx="866667" cy="533334"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>885714</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>3246</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="Рисунок 7">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B09B375C-DA80-4055-81F5-D499032E90D4}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8564217" y="7810500"/>
-          <a:ext cx="885714" cy="533333"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>885714</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>3246</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="9" name="Рисунок 8">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{835A6666-D7D5-4609-9B04-E5237149F9A8}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8564217" y="5690152"/>
-          <a:ext cx="885714" cy="533333"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>885714</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>3246</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="10" name="Рисунок 9">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5ED41446-0D5F-4BB3-9F51-28973B52F2C3}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8564217" y="9930848"/>
-          <a:ext cx="885714" cy="533333"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>885714</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>3246</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="11" name="Рисунок 10">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DECDCE4-C460-405D-8902-2A648D6D6F60}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8564217" y="8870674"/>
-          <a:ext cx="885714" cy="533333"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>885714</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>3246</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="12" name="Рисунок 11">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7406C71B-D7EF-4E00-B587-78584F67699A}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8564217" y="4099891"/>
-          <a:ext cx="885714" cy="533333"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>530086</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>885714</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>3246</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="13" name="Рисунок 12">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5E80D4D8-CF77-4381-897C-9FCF80A07C83}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8564217" y="1979543"/>
-          <a:ext cx="885714" cy="533333"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>885714</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>3246</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="14" name="Рисунок 13">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{323CB539-BA4D-4D62-95FE-653AE5589A80}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8564217" y="6220239"/>
-          <a:ext cx="885714" cy="533333"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>885714</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>3246</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="15" name="Рисунок 14">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D25E9D0F-1FC3-4D94-9E3F-B9167D5F44DF}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8564217" y="3039717"/>
-          <a:ext cx="885714" cy="533333"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>885714</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>3246</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="16" name="Рисунок 15">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C26562E4-9D5F-40C1-B1F1-3260B0960F09}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8564217" y="3569804"/>
-          <a:ext cx="885714" cy="533333"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>885714</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>3247</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="17" name="Рисунок 16">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{65A641F3-1A8D-4EB5-BAEC-25AFD8C22A55}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8564217" y="1449457"/>
-          <a:ext cx="885714" cy="533333"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>885714</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>3246</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="18" name="Рисунок 17">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9D03B59F-0F31-4A9E-9372-B8627F52C1B3}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8564217" y="6750326"/>
-          <a:ext cx="885714" cy="533333"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>885714</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>3246</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="19" name="Рисунок 18">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EDA39146-3BB4-47ED-BF3D-A095FFE98489}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8564217" y="8340587"/>
-          <a:ext cx="885714" cy="533333"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>885714</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>3246</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="20" name="Рисунок 19">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{639B74AF-22DC-49E7-83E2-73FAFC555510}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId19"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8564217" y="7280413"/>
-          <a:ext cx="885714" cy="533333"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>885714</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>1053</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="21" name="Рисунок 20">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CE17E0E0-77C7-47D2-B35B-8BB022C8DB55}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8561294" y="10611971"/>
-          <a:ext cx="885714" cy="533333"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>885714</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>1053</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="22" name="Рисунок 21">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9D7945A7-2B8B-45B7-8423-D83704A0BFEC}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId21"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8561294" y="12225618"/>
-          <a:ext cx="885714" cy="533333"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>885714</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>1054</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="23" name="Рисунок 22">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B4C255F1-FB48-492F-83D2-6E955ACAC375}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId22"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8561294" y="12763500"/>
-          <a:ext cx="885714" cy="533333"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>885714</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>1054</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="24" name="Рисунок 23">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4E07CEC9-5BE9-41F1-A5B0-73D150CDFDF2}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId23"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8561294" y="11687735"/>
-          <a:ext cx="885714" cy="533333"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>885714</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>1054</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="26" name="Рисунок 25">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{67BE7B5D-E913-4FA3-99FE-29461B3F1F6D}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId24"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8561294" y="11149853"/>
-          <a:ext cx="885714" cy="533333"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>150018</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>750018</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>504765</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="27" name="Рисунок 26">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EB920142-FD73-4702-A086-03FC7B093F7C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId25"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8712993" y="13220700"/>
-          <a:ext cx="600000" cy="476190"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>150018</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>750018</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>504765</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="28" name="Рисунок 27">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8190987F-8368-4385-98C4-854FC462E5E7}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId26"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8712993" y="23888700"/>
-          <a:ext cx="600000" cy="476190"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>150018</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>750018</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>504765</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="29" name="Рисунок 28">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FF1E54D8-6282-4FCC-9B4F-9F1432FCEA20}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId27"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8712993" y="24422100"/>
-          <a:ext cx="600000" cy="476190"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>150018</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>29243</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>750018</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>504765</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="30" name="Рисунок 29">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{41D9C97F-4882-40FA-AFFB-CB04726DF930}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId28"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8712993" y="13754768"/>
-          <a:ext cx="600000" cy="475522"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>150018</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>750018</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>504765</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="31" name="Рисунок 30">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B37582BC-B9B0-4081-8FC2-1F45AB5A3679}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId29"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8712993" y="14287500"/>
-          <a:ext cx="600000" cy="476190"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>150018</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>750018</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>504765</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="32" name="Рисунок 31">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2597A3A6-AFAF-45D8-BF2E-A424DD82A2F1}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId30"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8712993" y="14820900"/>
-          <a:ext cx="600000" cy="476190"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>150018</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>750018</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>504765</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="33" name="Рисунок 32">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FF110602-2537-4C3C-B179-E5E2F0CC73E2}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId31"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8712993" y="16421100"/>
-          <a:ext cx="600000" cy="476190"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>150018</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>750018</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>504765</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="34" name="Рисунок 33">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{84DCC6AB-1F4D-4574-8592-8637B0E6F667}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId32"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8712993" y="16954500"/>
-          <a:ext cx="600000" cy="476190"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>150018</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>750018</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>504765</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="35" name="Рисунок 34">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4190BA72-5CD6-4B26-9C05-309AAD524439}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId33"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8712993" y="18021300"/>
-          <a:ext cx="600000" cy="476190"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>150018</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>750018</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>504765</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="36" name="Рисунок 35">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9DD4CAE8-E48A-4144-A8BD-A5F6FE86754A}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId34"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8712993" y="17487900"/>
-          <a:ext cx="600000" cy="476190"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>150018</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>750018</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>504765</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="37" name="Рисунок 36">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6374271F-1383-44F4-970B-28F292778401}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId35"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8712993" y="18554700"/>
-          <a:ext cx="600000" cy="476190"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>150018</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>750018</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>476190</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="38" name="Рисунок 37">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{55C9C2E9-A73F-4079-9048-867362652C67}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId36"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8712993" y="19088100"/>
-          <a:ext cx="600000" cy="476190"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>150018</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>750018</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>504765</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="39" name="Рисунок 38">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C125E474-AE08-44FC-BFEF-35A93639BA6C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId37"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8712993" y="19621500"/>
-          <a:ext cx="600000" cy="476190"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>150018</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>750018</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>504765</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="40" name="Рисунок 39">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B80A0BB9-4016-45EB-B274-EFD58D6789FC}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId38"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8712993" y="20154900"/>
-          <a:ext cx="600000" cy="476190"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>150018</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>750018</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>504765</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="41" name="Рисунок 40">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1C8C01D7-97BD-4C98-8363-B2476537CDEF}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId39"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8712993" y="20688300"/>
-          <a:ext cx="600000" cy="476190"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>150018</xdr:colOff>
       <xdr:row>39</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>750018</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>476190</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="42" name="Рисунок 41">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5D052D59-33DA-433A-A736-D757EFDB376A}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId40"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8712993" y="21221700"/>
-          <a:ext cx="600000" cy="476190"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>150018</xdr:colOff>
+      <xdr:colOff>1012</xdr:colOff>
       <xdr:row>40</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>750018</xdr:colOff>
+      <xdr:rowOff>1055</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="75" name="Рисунок 74">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7D032C07-48FD-43FA-A3DE-707DC05F4882}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId72"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7610475" y="20126325"/>
+          <a:ext cx="866667" cy="533334"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>4654</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>1054</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="77" name="Рисунок 76">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{45CE99BA-7F86-40C4-83AC-BB579E2AE568}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId73"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7610475" y="18526125"/>
+          <a:ext cx="871429" cy="533334"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>40</xdr:row>
-      <xdr:rowOff>504765</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="43" name="Рисунок 42">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{36A16E81-ED23-4771-8616-EC2465394BD7}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId41"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8712993" y="22288500"/>
-          <a:ext cx="600000" cy="476190"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>150018</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>750018</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>504765</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="44" name="Рисунок 43">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6D1C6A1D-4FC8-4068-A597-9B0F34CB8A8B}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId42"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8712993" y="21755100"/>
-          <a:ext cx="600000" cy="476190"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>150018</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>750018</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>504765</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="45" name="Рисунок 44">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F3B4F071-0563-4DB6-BEAE-76DA0047C6DB}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId43"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8712993" y="23355300"/>
-          <a:ext cx="600000" cy="476190"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>150018</xdr:colOff>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>4654</xdr:colOff>
       <xdr:row>41</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>750018</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>504765</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="46" name="Рисунок 45">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{07F58801-4CE5-4477-AFD7-1A1396C34C6B}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId44"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8712993" y="22821900"/>
-          <a:ext cx="600000" cy="476190"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>150018</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>750018</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>504765</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="47" name="Рисунок 46">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BC63890C-31A6-416E-9FF9-53144A79AE40}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId45"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8712993" y="15354300"/>
-          <a:ext cx="600000" cy="476190"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>150018</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>750018</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>504765</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="48" name="Рисунок 47">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7E1A7F58-AD78-41C0-A82A-C9525141E374}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId46"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8712993" y="15887700"/>
-          <a:ext cx="600000" cy="476190"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>150018</xdr:colOff>
+      <xdr:rowOff>1055</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="79" name="Рисунок 78">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E67635B6-B17A-4737-B718-8A0B2CB46E58}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId74"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7610475" y="20659725"/>
+          <a:ext cx="871429" cy="533334"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>4654</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>1054</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="80" name="Рисунок 79">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8B75CD18-77C3-4286-975D-2F64BDBC86FA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId75"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7610475" y="16925925"/>
+          <a:ext cx="871429" cy="533334"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>48</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>750018</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>504765</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="49" name="Рисунок 48">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DD3F4614-389C-4129-9565-42BB71A15685}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId47"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8712993" y="26555700"/>
-          <a:ext cx="600000" cy="476190"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>150018</xdr:colOff>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>4654</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>1054</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="81" name="Рисунок 80">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D87D5154-9CA5-42B0-9D3A-7AC760EC3BCF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId76"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7610475" y="25993725"/>
+          <a:ext cx="871429" cy="533334"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>4654</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>750018</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>504765</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="50" name="Рисунок 49">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{29259297-00CD-4F8C-A0E1-588E7203AE30}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId48"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8712993" y="27089100"/>
-          <a:ext cx="600000" cy="476190"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>150018</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>750018</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>504765</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="51" name="Рисунок 50">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{29540A5F-F630-4883-BE31-C9B4790ABDBC}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId49"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8712993" y="26022300"/>
-          <a:ext cx="600000" cy="476190"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>150018</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>750018</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>504765</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="52" name="Рисунок 51">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E869119E-ECFC-48BA-B2C2-C4BA050C274F}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId50"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8712993" y="25488900"/>
-          <a:ext cx="600000" cy="476190"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>150018</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>750018</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>504765</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="53" name="Рисунок 52">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BBE4D968-77EF-4183-85CA-DBD5365FBB1B}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId51"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8712993" y="24955500"/>
-          <a:ext cx="600000" cy="476190"/>
+      <xdr:rowOff>1055</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="82" name="Рисунок 81">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B3BF5118-EB53-4CB8-9345-CB9195E0B895}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId77"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7610475" y="26527125"/>
+          <a:ext cx="871429" cy="533334"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3602,33 +4770,33 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>1012</xdr:colOff>
+      <xdr:colOff>4654</xdr:colOff>
       <xdr:row>28</xdr:row>
       <xdr:rowOff>1054</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="25" name="Рисунок 24">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F5B44197-A693-42EE-A83E-A852A79F104C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId52"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7610475" y="14258925"/>
-          <a:ext cx="866667" cy="533334"/>
+        <xdr:cNvPr id="83" name="Рисунок 82">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CA286329-C253-4F55-8734-A31F09DC6DF9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId78"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7610475" y="13192125"/>
+          <a:ext cx="871429" cy="533334"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3641,37 +4809,37 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>1012</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>1054</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="54" name="Рисунок 53">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5A767BB2-5DF0-44E5-922F-F161B39D1C8F}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId53"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7610475" y="390525"/>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>1055</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="84" name="Рисунок 83">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6A287B0D-82B4-4DA1-9772-5B8A3EE16F15}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId79"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7610475" y="17459325"/>
           <a:ext cx="866667" cy="533334"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3685,37 +4853,37 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>1012</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>1055</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="55" name="Рисунок 54">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1DA085DA-335C-4E0A-B5ED-72DD131A900A}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId54"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7610475" y="3590925"/>
+        <xdr:cNvPr id="85" name="Рисунок 84">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9F5D8727-26F4-4116-A811-074113C1A44F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId80"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7610475" y="17992725"/>
           <a:ext cx="866667" cy="533334"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3729,37 +4897,37 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>1012</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>1054</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="56" name="Рисунок 55">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EDA50DE0-95D3-41CF-B54F-CDAE254CF91E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId55"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7610475" y="1457325"/>
+        <xdr:cNvPr id="86" name="Рисунок 85">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0E2DCB06-3646-40E1-8E63-A4907EEF891C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId81"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7610475" y="4124325"/>
           <a:ext cx="866667" cy="533334"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3773,37 +4941,37 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1012</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>1012</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>1054</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="57" name="Рисунок 56">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{50055E77-5A80-4CD3-9D80-AE9B2566F3CB}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId56"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7610475" y="3057525"/>
+      <xdr:rowOff>1055</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="87" name="Рисунок 86">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{28F93629-2B47-4CB7-B0B7-D652F50DCF63}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId82"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7610475" y="2524125"/>
           <a:ext cx="866667" cy="533334"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3817,37 +4985,37 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:row>4</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>1012</xdr:colOff>
-      <xdr:row>42</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>1055</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="58" name="Рисунок 57">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CBDD8F61-8C93-46D8-A17D-73A9B7797A37}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId57"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7610475" y="22793325"/>
+        <xdr:cNvPr id="88" name="Рисунок 87">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EDBDD714-52B1-4902-8E9E-667439A19CF8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId83"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7610475" y="1990725"/>
           <a:ext cx="866667" cy="533334"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3861,37 +5029,169 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:row>2</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>1012</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>1055</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="89" name="Рисунок 88">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1F6C8C7F-E473-4C4D-B6A3-D757A7949B1E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId84"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7610475" y="923925"/>
+          <a:ext cx="866667" cy="533334"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1012</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>1055</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="90" name="Рисунок 89">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CEE57CD3-742E-4CB8-9F6A-CD86C3E3B93B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId85"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7610475" y="7324725"/>
+          <a:ext cx="866667" cy="533334"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1012</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>1055</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="91" name="Рисунок 90">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B8C9C55E-66B6-473F-B4EC-16805F2F684D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId86"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7610475" y="8924925"/>
+          <a:ext cx="866667" cy="533334"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1012</xdr:colOff>
+      <xdr:row>45</xdr:row>
       <xdr:rowOff>1054</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="59" name="Рисунок 58">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E36A36D9-141A-434C-A1D1-821F34A1F614}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId58"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7610475" y="22259925"/>
+        <xdr:cNvPr id="92" name="Рисунок 91">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0F3EFFAD-EDE8-43DB-A2F5-1F2BF606380B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId87"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7610475" y="23326725"/>
           <a:ext cx="866667" cy="533334"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3912,30 +5212,118 @@
       <xdr:col>6</xdr:col>
       <xdr:colOff>1012</xdr:colOff>
       <xdr:row>31</xdr:row>
+      <xdr:rowOff>1055</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="93" name="Рисунок 92">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C26FAC73-3E8F-4FE5-A3B3-E9D86C2850DF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId88"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7610475" y="14792325"/>
+          <a:ext cx="866667" cy="533334"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1012</xdr:colOff>
+      <xdr:row>39</xdr:row>
       <xdr:rowOff>1054</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="60" name="Рисунок 59">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{744D33C5-9C8E-4274-97A4-53AF65436497}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId59"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7610475" y="15859125"/>
+        <xdr:cNvPr id="94" name="Рисунок 93">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BFB17113-BF63-45EE-8FFD-5B8E99DC3A01}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId89"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7610475" y="19592925"/>
+          <a:ext cx="866667" cy="533334"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1012</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>1055</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="95" name="Рисунок 94">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{23E93F4A-41C7-427C-9A41-CD241B8B20B1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId90"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7610475" y="25460325"/>
           <a:ext cx="866667" cy="533334"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3960,26 +5348,26 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="61" name="Рисунок 60">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E589FF-AAD5-4B7C-ACAA-14DD338762D9}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId60"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7610475" y="16392525"/>
+        <xdr:cNvPr id="96" name="Рисунок 95">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B26DA5C9-D930-4655-A64B-539EF0837BCC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId91"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7610475" y="15325725"/>
           <a:ext cx="866667" cy="533334"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3993,38 +5381,38 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>1012</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>1055</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="62" name="Рисунок 61">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{366CDAA3-51E7-401D-9022-10CCA2FD2C0C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId61"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7610475" y="8391525"/>
-          <a:ext cx="866667" cy="533334"/>
+      <xdr:colOff>6516</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>3246</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="97" name="Рисунок 96">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{70A0D070-4723-49E4-9077-7763ABAA7D53}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId92"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7610475" y="27060525"/>
+          <a:ext cx="873291" cy="536646"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4037,1385 +5425,21 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>1012</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>1055</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="63" name="Рисунок 62">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{567492E8-710C-4037-B75E-E9A3EFE58880}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId62"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7610475" y="9991725"/>
-          <a:ext cx="866667" cy="533334"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>1012</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>1054</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="64" name="Рисунок 63">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C6AE6A8E-E8C7-47CD-9385-E8F42730F24D}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId63"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7610475" y="5191125"/>
-          <a:ext cx="866667" cy="533334"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>1012</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>1055</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="65" name="Рисунок 64">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BEBA3959-25A9-4EE9-89B8-D51A969D6563}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId64"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7610475" y="5724525"/>
-          <a:ext cx="866667" cy="533334"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>1012</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>1055</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="66" name="Рисунок 65">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{17DCEE7A-9A75-4CEE-BD2B-6A79CF4C918C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId65"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7610475" y="24393525"/>
-          <a:ext cx="866667" cy="533334"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>1012</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>1055</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="67" name="Рисунок 66">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DC2EC41-A4FA-4DEB-B0A3-F74A1FA5D616}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId66"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7610475" y="21726525"/>
-          <a:ext cx="866667" cy="533334"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>1012</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>1054</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="68" name="Рисунок 67">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BEA9B29B-D621-4885-BF54-ED9525217A04}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId67"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7610475" y="24926925"/>
-          <a:ext cx="866667" cy="533334"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>1012</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>1055</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="69" name="Рисунок 68">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A7760FBE-4F84-48EC-9FFB-6D2718251796}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId68"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7610475" y="12658725"/>
-          <a:ext cx="866667" cy="533334"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>1012</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>1054</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="70" name="Рисунок 69">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{49A60E25-53E2-4B2A-B2D1-A862502C545E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId69"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7610475" y="12125325"/>
-          <a:ext cx="866667" cy="533334"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>1012</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>1055</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="71" name="Рисунок 70">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D0D6C87E-E378-4054-9FF4-916464707F27}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId70"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7610475" y="11591925"/>
-          <a:ext cx="866667" cy="533334"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>1012</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>1054</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="72" name="Рисунок 71">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9E5F2176-4D85-4FE4-B675-C4DC6FB3CDF2}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId71"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7610475" y="10525125"/>
-          <a:ext cx="866667" cy="533334"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>1012</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>1055</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="73" name="Рисунок 72">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7ABCF559-C940-49C4-8054-8CCF5319B138}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId72"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7610475" y="11058525"/>
-          <a:ext cx="866667" cy="533334"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>1012</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>1055</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="74" name="Рисунок 73">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AB762A54-54BA-47C4-914B-88B9E671D78D}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId73"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7610475" y="4657725"/>
-          <a:ext cx="866667" cy="533334"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>1012</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>1055</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="75" name="Рисунок 74">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7D032C07-48FD-43FA-A3DE-707DC05F4882}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId74"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7610475" y="20126325"/>
-          <a:ext cx="866667" cy="533334"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>4654</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>1054</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="77" name="Рисунок 76">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{45CE99BA-7F86-40C4-83AC-BB579E2AE568}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId75"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7610475" y="18526125"/>
-          <a:ext cx="871429" cy="533334"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>4654</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>1055</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="79" name="Рисунок 78">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E67635B6-B17A-4737-B718-8A0B2CB46E58}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId76"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7610475" y="20659725"/>
-          <a:ext cx="871429" cy="533334"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>4654</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>1054</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="80" name="Рисунок 79">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8B75CD18-77C3-4286-975D-2F64BDBC86FA}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId77"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7610475" y="16925925"/>
-          <a:ext cx="871429" cy="533334"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>4654</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>1054</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="81" name="Рисунок 80">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D87D5154-9CA5-42B0-9D3A-7AC760EC3BCF}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId78"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7610475" y="25993725"/>
-          <a:ext cx="871429" cy="533334"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>4654</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>1055</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="82" name="Рисунок 81">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B3BF5118-EB53-4CB8-9345-CB9195E0B895}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId79"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7610475" y="26527125"/>
-          <a:ext cx="871429" cy="533334"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>4654</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>1054</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="83" name="Рисунок 82">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CA286329-C253-4F55-8734-A31F09DC6DF9}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId80"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7610475" y="13192125"/>
-          <a:ext cx="871429" cy="533334"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>1012</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>1055</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="84" name="Рисунок 83">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6A287B0D-82B4-4DA1-9772-5B8A3EE16F15}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId81"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7610475" y="17459325"/>
-          <a:ext cx="866667" cy="533334"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>1012</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>1055</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="85" name="Рисунок 84">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9F5D8727-26F4-4116-A811-074113C1A44F}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId82"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7610475" y="17992725"/>
-          <a:ext cx="866667" cy="533334"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>1012</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>1054</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="86" name="Рисунок 85">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0E2DCB06-3646-40E1-8E63-A4907EEF891C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId83"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7610475" y="4124325"/>
-          <a:ext cx="866667" cy="533334"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>1012</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>1055</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="87" name="Рисунок 86">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{28F93629-2B47-4CB7-B0B7-D652F50DCF63}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId84"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7610475" y="2524125"/>
-          <a:ext cx="866667" cy="533334"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>1012</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>1055</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="88" name="Рисунок 87">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EDBDD714-52B1-4902-8E9E-667439A19CF8}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId85"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7610475" y="1990725"/>
-          <a:ext cx="866667" cy="533334"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>1012</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>1055</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="89" name="Рисунок 88">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1F6C8C7F-E473-4C4D-B6A3-D757A7949B1E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId86"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7610475" y="923925"/>
-          <a:ext cx="866667" cy="533334"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>1012</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>1055</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="90" name="Рисунок 89">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CEE57CD3-742E-4CB8-9F6A-CD86C3E3B93B}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId87"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7610475" y="7324725"/>
-          <a:ext cx="866667" cy="533334"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:rowOff>533399</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>3225</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>1012</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>1055</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="91" name="Рисунок 90">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B8C9C55E-66B6-473F-B4EC-16805F2F684D}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId88"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7610475" y="8924925"/>
-          <a:ext cx="866667" cy="533334"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>1012</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>1054</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="92" name="Рисунок 91">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0F3EFFAD-EDE8-43DB-A2F5-1F2BF606380B}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId89"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7610475" y="23326725"/>
-          <a:ext cx="866667" cy="533334"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>1012</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>1055</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="93" name="Рисунок 92">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C26FAC73-3E8F-4FE5-A3B3-E9D86C2850DF}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId90"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7610475" y="14792325"/>
-          <a:ext cx="866667" cy="533334"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>1012</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>1054</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="94" name="Рисунок 93">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BFB17113-BF63-45EE-8FFD-5B8E99DC3A01}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId91"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7610475" y="19592925"/>
-          <a:ext cx="866667" cy="533334"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>1012</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>1055</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="95" name="Рисунок 94">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{23E93F4A-41C7-427C-9A41-CD241B8B20B1}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId92"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7610475" y="25460325"/>
-          <a:ext cx="866667" cy="533334"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>1012</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>1055</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="96" name="Рисунок 95">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B26DA5C9-D930-4655-A64B-539EF0837BCC}"/>
+      <xdr:rowOff>2409</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="99" name="Рисунок 98">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C2785DAA-BB1B-4D3E-AB3D-9D94AB743B88}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5425,94 +5449,6 @@
       </xdr:nvPicPr>
       <xdr:blipFill>
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId93"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7610475" y="15325725"/>
-          <a:ext cx="866667" cy="533334"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>6516</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>3246</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="97" name="Рисунок 96">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{70A0D070-4723-49E4-9077-7763ABAA7D53}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId94"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7610475" y="27060525"/>
-          <a:ext cx="873291" cy="536646"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>533399</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>3225</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>2409</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="99" name="Рисунок 98">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C2785DAA-BB1B-4D3E-AB3D-9D94AB743B88}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId95"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -5533,13 +5469,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>1797</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>3744</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -5556,7 +5492,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId96"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId94"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -5577,13 +5513,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>43</xdr:row>
+      <xdr:row>45</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>2750</xdr:colOff>
-      <xdr:row>44</xdr:row>
+      <xdr:row>46</xdr:row>
       <xdr:rowOff>3744</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -5600,7 +5536,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId97"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId95"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -5621,13 +5557,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>19052</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>9527</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>863433</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>529146</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -5644,7 +5580,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId98"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId96"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -5665,13 +5601,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>55</xdr:row>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>56</xdr:row>
+      <xdr:row>58</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5713,13 +5649,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>55</xdr:row>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>56</xdr:row>
+      <xdr:row>58</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5761,13 +5697,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>55</xdr:row>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>57</xdr:row>
+      <xdr:row>59</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -5784,7 +5720,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId99">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId97">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -5822,13 +5758,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>59</xdr:row>
+      <xdr:row>61</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>523875</xdr:colOff>
-      <xdr:row>60</xdr:row>
+      <xdr:row>62</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -5845,7 +5781,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId100">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId98">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -5883,13 +5819,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:row>48</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:row>48</xdr:row>
       <xdr:rowOff>438150</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -5906,7 +5842,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId101">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId99">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -5944,13 +5880,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>49</xdr:row>
+      <xdr:row>50</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>857250</xdr:colOff>
-      <xdr:row>50</xdr:row>
+      <xdr:row>51</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -5967,7 +5903,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId102">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId100">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -6005,13 +5941,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>49</xdr:row>
+      <xdr:row>50</xdr:row>
       <xdr:rowOff>19051</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>783045</xdr:colOff>
-      <xdr:row>49</xdr:row>
+      <xdr:row>50</xdr:row>
       <xdr:rowOff>521908</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -6028,7 +5964,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId103">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId101">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -6062,6 +5998,45 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="930484" cy="537143"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="109" name="Рисунок 108">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4B6833C0-C4EA-487F-9761-561EEF1B2C34}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId94"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8153401" y="6234114"/>
+          <a:ext cx="930484" cy="537143"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -8565,45 +8540,45 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H63"/>
+  <dimension ref="A1:H65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I48" sqref="I48"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C51" sqref="C51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="3.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.73046875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="39" style="8" customWidth="1"/>
-    <col min="3" max="3" width="25.28515625" style="8" customWidth="1"/>
-    <col min="4" max="4" width="22.85546875" style="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.28515625" style="8" customWidth="1"/>
+    <col min="3" max="3" width="25.265625" style="8" customWidth="1"/>
+    <col min="4" max="4" width="22.86328125" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.265625" style="8" customWidth="1"/>
     <col min="6" max="6" width="13" style="8" customWidth="1"/>
-    <col min="7" max="7" width="13.42578125" style="8" customWidth="1"/>
+    <col min="7" max="7" width="13.3984375" style="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="21" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" s="21" customFormat="1" ht="28.9" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A1" s="17"/>
       <c r="B1" s="18" t="s">
         <v>4</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="F1" s="19" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="G1" s="20" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="51" t="s">
         <v>13</v>
       </c>
@@ -8620,7 +8595,7 @@
       <c r="F2" s="22"/>
       <c r="G2" s="23"/>
     </row>
-    <row r="3" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="52"/>
       <c r="B3" s="4" t="s">
         <v>5</v>
@@ -8629,15 +8604,15 @@
         <v>38</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="F3" s="24"/>
       <c r="G3" s="34"/>
     </row>
-    <row r="4" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" s="52"/>
       <c r="B4" s="4" t="s">
         <v>31</v>
@@ -8646,7 +8621,7 @@
         <v>32</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="E4" s="6" t="s">
         <v>33</v>
@@ -8654,7 +8629,7 @@
       <c r="F4" s="24"/>
       <c r="G4" s="25"/>
     </row>
-    <row r="5" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A5" s="52"/>
       <c r="B5" s="4" t="s">
         <v>7</v>
@@ -8663,32 +8638,32 @@
         <v>37</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="F5" s="24"/>
       <c r="G5" s="25"/>
     </row>
-    <row r="6" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A6" s="52"/>
       <c r="B6" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="E6" s="6" t="s">
         <v>143</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="D6" s="12" t="s">
-        <v>145</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>146</v>
       </c>
       <c r="F6" s="24"/>
       <c r="G6" s="25"/>
     </row>
-    <row r="7" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A7" s="52"/>
       <c r="B7" s="4" t="s">
         <v>8</v>
@@ -8697,7 +8672,7 @@
         <v>27</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="E7" s="6" t="s">
         <v>28</v>
@@ -8705,795 +8680,830 @@
       <c r="F7" s="24"/>
       <c r="G7" s="25"/>
     </row>
-    <row r="8" spans="1:7" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A8" s="52"/>
       <c r="B8" s="4" t="s">
-        <v>29</v>
+        <v>224</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>30</v>
-      </c>
+        <v>225</v>
+      </c>
+      <c r="D8" s="5"/>
+      <c r="E8" s="6"/>
       <c r="F8" s="24"/>
       <c r="G8" s="25"/>
     </row>
-    <row r="9" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="51" t="s">
+    <row r="9" spans="1:7" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A9" s="52"/>
+      <c r="B9" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" s="24"/>
+      <c r="G9" s="25"/>
+    </row>
+    <row r="10" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A10" s="51" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B10" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C10" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D9" s="16" t="s">
-        <v>147</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="F9" s="22"/>
-      <c r="G9" s="33"/>
+      <c r="D10" s="16" t="s">
+        <v>144</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="F10" s="22"/>
+      <c r="G10" s="33"/>
     </row>
-    <row r="10" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="52"/>
-      <c r="B10" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="F10" s="24"/>
-      <c r="G10" s="25"/>
-    </row>
-    <row r="11" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A11" s="52"/>
       <c r="B11" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>20</v>
+        <v>120</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>17</v>
       </c>
       <c r="F11" s="24"/>
       <c r="G11" s="25"/>
     </row>
-    <row r="12" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A12" s="52"/>
       <c r="B12" s="4" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F12" s="24"/>
       <c r="G12" s="25"/>
     </row>
-    <row r="13" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A13" s="52"/>
       <c r="B13" s="4" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>43</v>
+        <v>24</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>24</v>
       </c>
       <c r="F13" s="24"/>
       <c r="G13" s="25"/>
     </row>
-    <row r="14" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A14" s="52"/>
       <c r="B14" s="4" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="D14" s="12" t="s">
-        <v>124</v>
+        <v>25</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>43</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="F14" s="24" t="s">
-        <v>148</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="F14" s="24"/>
       <c r="G14" s="25"/>
     </row>
-    <row r="15" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A15" s="52"/>
       <c r="B15" s="4" t="s">
-        <v>149</v>
+        <v>34</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>150</v>
+        <v>35</v>
       </c>
       <c r="D15" s="12" t="s">
-        <v>151</v>
+        <v>121</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>152</v>
-      </c>
-      <c r="F15" s="24"/>
+        <v>36</v>
+      </c>
+      <c r="F15" s="24" t="s">
+        <v>145</v>
+      </c>
       <c r="G15" s="25"/>
     </row>
-    <row r="16" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A16" s="52"/>
       <c r="B16" s="4" t="s">
-        <v>40</v>
+        <v>146</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>41</v>
+        <v>147</v>
       </c>
       <c r="D16" s="12" t="s">
-        <v>125</v>
+        <v>148</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>42</v>
+        <v>149</v>
       </c>
       <c r="F16" s="24"/>
       <c r="G16" s="25"/>
     </row>
-    <row r="17" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A17" s="52"/>
       <c r="B17" s="4" t="s">
-        <v>91</v>
+        <v>40</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>92</v>
+        <v>41</v>
+      </c>
+      <c r="D17" s="12" t="s">
+        <v>122</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>92</v>
+        <v>42</v>
       </c>
       <c r="F17" s="24"/>
       <c r="G17" s="25"/>
     </row>
-    <row r="18" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A18" s="52"/>
       <c r="B18" s="4" t="s">
-        <v>156</v>
+        <v>90</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>155</v>
-      </c>
-      <c r="D18" s="12" t="s">
-        <v>154</v>
+        <v>89</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>91</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>153</v>
+        <v>91</v>
       </c>
       <c r="F18" s="24"/>
       <c r="G18" s="25"/>
     </row>
-    <row r="19" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A19" s="52"/>
-      <c r="B19" s="4"/>
+      <c r="B19" s="4" t="s">
+        <v>153</v>
+      </c>
       <c r="C19" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>131</v>
+        <v>152</v>
+      </c>
+      <c r="D19" s="12" t="s">
+        <v>151</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="F19" s="36" t="s">
-        <v>173</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="F19" s="24"/>
       <c r="G19" s="25"/>
     </row>
-    <row r="20" spans="1:7" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="55"/>
-      <c r="B20" s="10"/>
-      <c r="C20" s="11" t="s">
-        <v>130</v>
-      </c>
-      <c r="D20" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="F20" s="27"/>
-      <c r="G20" s="28"/>
+    <row r="20" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A20" s="52"/>
+      <c r="B20" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="D20" s="12" t="s">
+        <v>220</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="F20" s="24" t="s">
+        <v>145</v>
+      </c>
+      <c r="G20" s="25" t="s">
+        <v>145</v>
+      </c>
     </row>
-    <row r="21" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="53" t="s">
+    <row r="21" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A21" s="52"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="F21" s="36" t="s">
+        <v>170</v>
+      </c>
+      <c r="G21" s="25"/>
+    </row>
+    <row r="22" spans="1:7" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A22" s="55"/>
+      <c r="B22" s="10"/>
+      <c r="C22" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="F22" s="27"/>
+      <c r="G22" s="28"/>
+    </row>
+    <row r="23" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A23" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="B21" s="29" t="s">
+      <c r="B23" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="C21" s="30" t="s">
+      <c r="C23" s="30" t="s">
         <v>46</v>
       </c>
-      <c r="D21" s="30" t="s">
+      <c r="D23" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="E21" s="31" t="s">
+      <c r="E23" s="31" t="s">
         <v>47</v>
       </c>
-      <c r="F21" s="32"/>
-      <c r="G21" s="33"/>
+      <c r="F23" s="32"/>
+      <c r="G23" s="33"/>
     </row>
-    <row r="22" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="52"/>
-      <c r="B22" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="D22" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="E22" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="F22" s="24"/>
-      <c r="G22" s="25"/>
-    </row>
-    <row r="23" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="52"/>
-      <c r="B23" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="D23" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="E23" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="F23" s="24"/>
-      <c r="G23" s="25"/>
-    </row>
-    <row r="24" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A24" s="52"/>
       <c r="B24" s="4" t="s">
-        <v>135</v>
+        <v>11</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>134</v>
+        <v>49</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="E24" s="5" t="s">
-        <v>136</v>
+        <v>48</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>48</v>
       </c>
       <c r="F24" s="24"/>
       <c r="G24" s="25"/>
     </row>
-    <row r="25" spans="1:7" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A25" s="52"/>
       <c r="B25" s="4" t="s">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="D25" s="5"/>
-      <c r="E25" s="6"/>
+        <v>51</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>50</v>
+      </c>
       <c r="F25" s="24"/>
       <c r="G25" s="25"/>
     </row>
-    <row r="26" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="51" t="s">
-        <v>1</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="F26" s="22"/>
-      <c r="G26" s="23"/>
+    <row r="26" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A26" s="52"/>
+      <c r="B26" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="F26" s="24"/>
+      <c r="G26" s="25"/>
     </row>
-    <row r="27" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A27" s="52"/>
       <c r="B27" s="4" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="D27" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="E27" s="6" t="s">
-        <v>57</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="D27" s="5"/>
+      <c r="E27" s="6"/>
       <c r="F27" s="24"/>
       <c r="G27" s="25"/>
     </row>
-    <row r="28" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="52"/>
-      <c r="B28" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="C28" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="D28" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="E28" s="6" t="s">
-        <v>163</v>
-      </c>
-      <c r="F28" s="24"/>
-      <c r="G28" s="25"/>
+    <row r="28" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A28" s="51" t="s">
+        <v>1</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="F28" s="22"/>
+      <c r="G28" s="23"/>
     </row>
-    <row r="29" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A29" s="52"/>
       <c r="B29" s="4" t="s">
-        <v>171</v>
+        <v>58</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>161</v>
-      </c>
-      <c r="D29" s="12" t="s">
-        <v>159</v>
+        <v>56</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>57</v>
       </c>
       <c r="E29" s="6" t="s">
-        <v>160</v>
+        <v>57</v>
       </c>
       <c r="F29" s="24"/>
       <c r="G29" s="25"/>
     </row>
-    <row r="30" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A30" s="52"/>
       <c r="B30" s="4" t="s">
-        <v>74</v>
+        <v>154</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>59</v>
+        <v>159</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>60</v>
+        <v>160</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>60</v>
+        <v>160</v>
       </c>
       <c r="F30" s="24"/>
       <c r="G30" s="25"/>
     </row>
-    <row r="31" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A31" s="52"/>
       <c r="B31" s="4" t="s">
-        <v>63</v>
+        <v>168</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="D31" s="5" t="s">
-        <v>61</v>
+        <v>158</v>
+      </c>
+      <c r="D31" s="12" t="s">
+        <v>156</v>
       </c>
       <c r="E31" s="6" t="s">
-        <v>61</v>
+        <v>157</v>
       </c>
       <c r="F31" s="24"/>
       <c r="G31" s="25"/>
     </row>
-    <row r="32" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A32" s="52"/>
       <c r="B32" s="4" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="E32" s="6" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="F32" s="24"/>
       <c r="G32" s="25"/>
     </row>
-    <row r="33" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A33" s="52"/>
       <c r="B33" s="4" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="E33" s="6" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="F33" s="24"/>
       <c r="G33" s="25"/>
     </row>
-    <row r="34" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A34" s="52"/>
       <c r="B34" s="4" t="s">
-        <v>164</v>
+        <v>64</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>165</v>
-      </c>
-      <c r="D34" s="12" t="s">
-        <v>166</v>
+        <v>49</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>48</v>
       </c>
       <c r="E34" s="6" t="s">
-        <v>167</v>
+        <v>48</v>
       </c>
       <c r="F34" s="24"/>
       <c r="G34" s="25"/>
     </row>
-    <row r="35" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A35" s="52"/>
       <c r="B35" s="4" t="s">
-        <v>158</v>
+        <v>67</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>155</v>
-      </c>
-      <c r="D35" s="12" t="s">
-        <v>154</v>
+        <v>66</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>65</v>
       </c>
       <c r="E35" s="6" t="s">
-        <v>168</v>
+        <v>65</v>
       </c>
       <c r="F35" s="24"/>
       <c r="G35" s="25"/>
     </row>
-    <row r="36" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A36" s="52"/>
       <c r="B36" s="4" t="s">
-        <v>70</v>
+        <v>161</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="D36" s="6" t="s">
-        <v>68</v>
+        <v>162</v>
+      </c>
+      <c r="D36" s="12" t="s">
+        <v>163</v>
       </c>
       <c r="E36" s="6" t="s">
-        <v>68</v>
+        <v>164</v>
       </c>
       <c r="F36" s="24"/>
       <c r="G36" s="25"/>
     </row>
-    <row r="37" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A37" s="52"/>
       <c r="B37" s="4" t="s">
-        <v>9</v>
+        <v>155</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="D37" s="13" t="s">
-        <v>71</v>
+        <v>152</v>
+      </c>
+      <c r="D37" s="12" t="s">
+        <v>151</v>
       </c>
       <c r="E37" s="6" t="s">
-        <v>72</v>
+        <v>165</v>
       </c>
       <c r="F37" s="24"/>
       <c r="G37" s="25"/>
     </row>
-    <row r="38" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A38" s="52"/>
       <c r="B38" s="4" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="D38" s="6" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="E38" s="6" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="F38" s="24"/>
       <c r="G38" s="25"/>
     </row>
-    <row r="39" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A39" s="52"/>
       <c r="B39" s="4" t="s">
-        <v>80</v>
+        <v>9</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="D39" s="6" t="s">
-        <v>78</v>
+        <v>73</v>
+      </c>
+      <c r="D39" s="13" t="s">
+        <v>71</v>
       </c>
       <c r="E39" s="6" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="F39" s="24"/>
       <c r="G39" s="25"/>
     </row>
-    <row r="40" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A40" s="52"/>
       <c r="B40" s="4" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="D40" s="6" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="E40" s="6" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F40" s="24"/>
       <c r="G40" s="25"/>
     </row>
-    <row r="41" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A41" s="52"/>
       <c r="B41" s="4" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="D41" s="6" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="E41" s="6" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="F41" s="24"/>
       <c r="G41" s="25"/>
     </row>
-    <row r="42" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A42" s="52"/>
       <c r="B42" s="4" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>169</v>
-      </c>
-      <c r="D42" s="5" t="s">
-        <v>87</v>
+        <v>82</v>
+      </c>
+      <c r="D42" s="6" t="s">
+        <v>81</v>
       </c>
       <c r="E42" s="6" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="F42" s="24"/>
       <c r="G42" s="25"/>
     </row>
-    <row r="43" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A43" s="52"/>
       <c r="B43" s="4" t="s">
-        <v>109</v>
+        <v>84</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="D43" s="14" t="s">
-        <v>106</v>
-      </c>
-      <c r="E43" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="F43" s="26"/>
+        <v>85</v>
+      </c>
+      <c r="D43" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="E43" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="F43" s="24"/>
       <c r="G43" s="25"/>
     </row>
-    <row r="44" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A44" s="52"/>
       <c r="B44" s="4" t="s">
-        <v>110</v>
+        <v>88</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="D44" s="12" t="s">
-        <v>111</v>
+        <v>166</v>
+      </c>
+      <c r="D44" s="5" t="s">
+        <v>87</v>
       </c>
       <c r="E44" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="F44" s="35"/>
+        <v>87</v>
+      </c>
+      <c r="F44" s="24"/>
       <c r="G44" s="25"/>
     </row>
-    <row r="45" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A45" s="52"/>
       <c r="B45" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="C45" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="D45" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="E45" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="F45" s="24"/>
+        <v>108</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="D45" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="E45" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="F45" s="26"/>
       <c r="G45" s="25"/>
     </row>
-    <row r="46" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A46" s="52"/>
       <c r="B46" s="4" t="s">
-        <v>93</v>
+        <v>109</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="D46" s="5" t="s">
-        <v>115</v>
+        <v>107</v>
+      </c>
+      <c r="D46" s="12" t="s">
+        <v>110</v>
       </c>
       <c r="E46" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="F46" s="24"/>
+        <v>111</v>
+      </c>
+      <c r="F46" s="35"/>
       <c r="G46" s="25"/>
     </row>
-    <row r="47" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A47" s="52"/>
       <c r="B47" s="4" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="D47" s="12" t="s">
-        <v>96</v>
+        <v>113</v>
+      </c>
+      <c r="D47" s="5" t="s">
+        <v>112</v>
       </c>
       <c r="E47" s="6" t="s">
-        <v>97</v>
+        <v>112</v>
       </c>
       <c r="F47" s="24"/>
       <c r="G47" s="25"/>
-      <c r="H47" s="8"/>
     </row>
-    <row r="48" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A48" s="52"/>
       <c r="B48" s="4" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="D48" s="5" t="s">
-        <v>98</v>
+        <v>94</v>
+      </c>
+      <c r="D48" s="12" t="s">
+        <v>95</v>
       </c>
       <c r="E48" s="6" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F48" s="24"/>
       <c r="G48" s="25"/>
       <c r="H48" s="8"/>
     </row>
-    <row r="49" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A49" s="52"/>
       <c r="B49" s="4" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>170</v>
+        <v>98</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="E49" s="6" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="F49" s="24"/>
       <c r="G49" s="25"/>
       <c r="H49" s="8"/>
     </row>
-    <row r="50" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="54"/>
-      <c r="B50" s="38" t="s">
-        <v>178</v>
-      </c>
-      <c r="C50" s="39" t="s">
-        <v>177</v>
-      </c>
-      <c r="D50" s="12" t="s">
-        <v>180</v>
-      </c>
-      <c r="E50" s="40" t="s">
-        <v>181</v>
-      </c>
-      <c r="F50" s="41"/>
-      <c r="G50" s="42"/>
+    <row r="50" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A50" s="52"/>
+      <c r="B50" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="C50" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="D50" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="E50" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="F50" s="24"/>
+      <c r="G50" s="25"/>
       <c r="H50" s="8"/>
     </row>
-    <row r="51" spans="1:8" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="55"/>
-      <c r="B51" s="10" t="s">
-        <v>105</v>
-      </c>
-      <c r="C51" s="11" t="s">
+    <row r="51" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A51" s="54"/>
+      <c r="B51" s="38" t="s">
+        <v>175</v>
+      </c>
+      <c r="C51" s="39" t="s">
+        <v>174</v>
+      </c>
+      <c r="D51" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="E51" s="40" t="s">
+        <v>178</v>
+      </c>
+      <c r="F51" s="41"/>
+      <c r="G51" s="42"/>
+      <c r="H51" s="8"/>
+    </row>
+    <row r="52" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A52" s="54"/>
+      <c r="B52" s="38" t="s">
+        <v>229</v>
+      </c>
+      <c r="C52" s="39" t="s">
+        <v>228</v>
+      </c>
+      <c r="D52" s="56" t="s">
+        <v>226</v>
+      </c>
+      <c r="E52" s="40" t="s">
+        <v>227</v>
+      </c>
+      <c r="F52" s="41"/>
+      <c r="G52" s="42"/>
+      <c r="H52" s="8"/>
+    </row>
+    <row r="53" spans="1:8" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A53" s="55"/>
+      <c r="B53" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="D51" s="15" t="s">
-        <v>118</v>
-      </c>
-      <c r="E51" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="F51" s="37"/>
-      <c r="G51" s="28"/>
+      <c r="C53" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="D53" s="15" t="s">
+        <v>115</v>
+      </c>
+      <c r="E53" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="F53" s="37"/>
+      <c r="G53" s="28"/>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B53" s="8" t="s">
-        <v>174</v>
-      </c>
-      <c r="G53" s="8" t="s">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="B55" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="G55" s="8" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="B56" s="8" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="B58"/>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="B59" s="8" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B54" s="8" t="s">
-        <v>179</v>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="B62" t="s">
+        <v>173</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B56"/>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B57" s="8" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B60" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B63"/>
+    <row r="65" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B65"/>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="A2:A8"/>
-    <mergeCell ref="A21:A25"/>
-    <mergeCell ref="A26:A51"/>
-    <mergeCell ref="A9:A20"/>
+    <mergeCell ref="A2:A9"/>
+    <mergeCell ref="A23:A27"/>
+    <mergeCell ref="A28:A53"/>
+    <mergeCell ref="A10:A22"/>
   </mergeCells>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.78740157480314965" bottom="0.78740157480314965" header="0" footer="0"/>
   <pageSetup paperSize="9" scale="69" fitToHeight="0" orientation="portrait" r:id="rId1"/>
@@ -9509,211 +9519,211 @@
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="3.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.73046875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="39" style="8" customWidth="1"/>
-    <col min="3" max="3" width="25.28515625" style="8" customWidth="1"/>
-    <col min="4" max="4" width="22.85546875" style="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.28515625" style="8" customWidth="1"/>
+    <col min="3" max="3" width="25.265625" style="8" customWidth="1"/>
+    <col min="4" max="4" width="22.86328125" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.265625" style="8" customWidth="1"/>
     <col min="6" max="6" width="13" style="8" customWidth="1"/>
-    <col min="7" max="7" width="13.42578125" style="8" customWidth="1"/>
-    <col min="8" max="8" width="27.5703125" customWidth="1"/>
+    <col min="7" max="7" width="13.3984375" style="8" customWidth="1"/>
+    <col min="8" max="8" width="27.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="28.9" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A1" s="43"/>
       <c r="B1" s="44" t="s">
         <v>4</v>
       </c>
       <c r="C1" s="45" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="D1" s="45" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="E1" s="45" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="F1" s="46" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="G1" s="47" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="53" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B2" s="29" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C2" s="30"/>
       <c r="D2" s="48" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="E2" s="31"/>
       <c r="F2" s="32"/>
       <c r="G2" s="33"/>
     </row>
-    <row r="3" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="53"/>
       <c r="B3" s="4" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C3" s="5"/>
       <c r="D3" s="48" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="E3" s="31"/>
       <c r="F3" s="32"/>
       <c r="G3" s="33"/>
     </row>
-    <row r="4" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" s="52"/>
       <c r="B4" s="4" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="49" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="E4" s="6"/>
       <c r="F4" s="24"/>
       <c r="G4" s="25"/>
     </row>
-    <row r="5" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A5" s="52"/>
       <c r="B5" s="4" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="C5" s="5"/>
       <c r="D5" s="49" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="E5" s="5"/>
       <c r="F5" s="24"/>
       <c r="G5" s="25"/>
     </row>
-    <row r="6" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A6" s="52"/>
       <c r="B6" s="4" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="49" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="E6" s="6"/>
       <c r="F6" s="24"/>
       <c r="G6" s="25"/>
     </row>
-    <row r="7" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A7" s="52"/>
       <c r="B7" s="4" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="C7" s="5"/>
       <c r="D7" s="49" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="E7" s="6"/>
       <c r="F7" s="24"/>
       <c r="G7" s="25"/>
     </row>
-    <row r="8" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A8" s="52"/>
       <c r="B8" s="4" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="C8" s="5"/>
       <c r="D8" s="49" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="E8" s="6"/>
       <c r="F8" s="24"/>
       <c r="G8" s="25"/>
     </row>
-    <row r="9" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A9" s="52"/>
       <c r="B9" s="4" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C9" s="5"/>
       <c r="D9" s="49" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="E9" s="6"/>
       <c r="F9" s="24"/>
       <c r="G9" s="25"/>
     </row>
-    <row r="10" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A10" s="52"/>
       <c r="B10" s="4" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C10" s="5"/>
       <c r="D10" s="49" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="E10" s="6"/>
       <c r="F10" s="24"/>
       <c r="G10" s="25"/>
     </row>
-    <row r="11" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A11" s="52"/>
       <c r="B11" s="4" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C11" s="5"/>
       <c r="D11" s="49" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="E11" s="6"/>
       <c r="F11" s="24"/>
       <c r="G11" s="25"/>
     </row>
-    <row r="12" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A12" s="52"/>
       <c r="B12" s="4" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="C12" s="5"/>
       <c r="D12" s="49" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="E12" s="6"/>
       <c r="F12" s="24"/>
       <c r="G12" s="25"/>
     </row>
-    <row r="13" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A13" s="52"/>
       <c r="B13" s="4" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="C13" s="5"/>
       <c r="D13" s="49" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="E13" s="6"/>
       <c r="F13" s="24"/>
       <c r="G13" s="25"/>
     </row>
-    <row r="14" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A14" s="52"/>
       <c r="B14" s="4" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="C14" s="5"/>
       <c r="D14" s="49" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="E14" s="6"/>
       <c r="F14" s="24"/>
       <c r="G14" s="25"/>
     </row>
-    <row r="15" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A15" s="52"/>
       <c r="B15" s="4"/>
       <c r="C15" s="5"/>
@@ -9722,7 +9732,7 @@
       <c r="F15" s="24"/>
       <c r="G15" s="25"/>
     </row>
-    <row r="16" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A16" s="52"/>
       <c r="B16" s="4"/>
       <c r="C16" s="5"/>
@@ -9731,7 +9741,7 @@
       <c r="F16" s="24"/>
       <c r="G16" s="25"/>
     </row>
-    <row r="17" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A17" s="52"/>
       <c r="B17" s="4"/>
       <c r="C17" s="5"/>
@@ -9740,7 +9750,7 @@
       <c r="F17" s="36"/>
       <c r="G17" s="25"/>
     </row>
-    <row r="18" spans="1:7" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A18" s="55"/>
       <c r="B18" s="10"/>
       <c r="C18" s="11"/>
@@ -9749,12 +9759,12 @@
       <c r="F18" s="27"/>
       <c r="G18" s="28"/>
     </row>
-    <row r="19" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A19" s="53" t="s">
         <v>0</v>
       </c>
       <c r="B19" s="29" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C19" s="30"/>
       <c r="D19" s="30"/>
@@ -9762,7 +9772,7 @@
       <c r="F19" s="32"/>
       <c r="G19" s="33"/>
     </row>
-    <row r="20" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A20" s="52"/>
       <c r="B20" s="4"/>
       <c r="C20" s="5"/>
@@ -9771,7 +9781,7 @@
       <c r="F20" s="24"/>
       <c r="G20" s="25"/>
     </row>
-    <row r="21" spans="1:7" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A21" s="52"/>
       <c r="B21" s="4"/>
       <c r="C21" s="5"/>
@@ -9780,90 +9790,90 @@
       <c r="F21" s="24"/>
       <c r="G21" s="25"/>
     </row>
-    <row r="22" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A22" s="51" t="s">
         <v>1</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C22" s="1"/>
       <c r="D22" s="1" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="E22" s="3"/>
       <c r="F22" s="22"/>
       <c r="G22" s="23"/>
     </row>
-    <row r="23" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A23" s="52"/>
       <c r="B23" s="4" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="C23" s="5"/>
       <c r="D23" s="5" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="E23" s="6"/>
       <c r="F23" s="24"/>
       <c r="G23" s="25"/>
     </row>
-    <row r="24" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A24" s="52"/>
       <c r="B24" s="4" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C24" s="5"/>
       <c r="D24" s="5" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="E24" s="6"/>
       <c r="F24" s="24"/>
       <c r="G24" s="25"/>
     </row>
-    <row r="25" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A25" s="52"/>
       <c r="B25" s="4" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="C25" s="5"/>
       <c r="D25" s="49" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="E25" s="6"/>
       <c r="F25" s="24"/>
       <c r="G25" s="25"/>
     </row>
-    <row r="26" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A26" s="52"/>
       <c r="B26" s="4" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="C26" s="5"/>
       <c r="D26" s="49" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="E26" s="6"/>
       <c r="F26" s="24"/>
       <c r="G26" s="25"/>
     </row>
-    <row r="27" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A27" s="52"/>
       <c r="B27" s="4" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C27" s="5"/>
       <c r="D27" s="49" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="E27" s="6"/>
       <c r="F27" s="24"/>
       <c r="G27" s="25"/>
     </row>
-    <row r="28" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A28" s="52"/>
       <c r="B28" s="4" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="C28" s="5"/>
       <c r="D28" s="49"/>
@@ -9871,7 +9881,7 @@
       <c r="F28" s="24"/>
       <c r="G28" s="25"/>
     </row>
-    <row r="29" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A29" s="52"/>
       <c r="B29" s="4"/>
       <c r="C29" s="5"/>
@@ -9880,7 +9890,7 @@
       <c r="F29" s="24"/>
       <c r="G29" s="25"/>
     </row>
-    <row r="30" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A30" s="52"/>
       <c r="B30" s="4"/>
       <c r="C30" s="5"/>
@@ -9889,7 +9899,7 @@
       <c r="F30" s="24"/>
       <c r="G30" s="25"/>
     </row>
-    <row r="31" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A31" s="54"/>
       <c r="B31" s="38"/>
       <c r="C31" s="39"/>
@@ -9898,7 +9908,7 @@
       <c r="F31" s="41"/>
       <c r="G31" s="42"/>
     </row>
-    <row r="32" spans="1:7" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A32" s="55"/>
       <c r="B32" s="10"/>
       <c r="C32" s="11"/>
@@ -9907,7 +9917,7 @@
       <c r="F32" s="37"/>
       <c r="G32" s="28"/>
     </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B34"/>
     </row>
   </sheetData>

--- a/Реестр символов (кам.).xlsx
+++ b/Реестр символов (кам.).xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39212005-4DA7-46D6-9A6E-E6BD2EE3D815}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBF4000A-D33E-49E3-A751-D140A25F3EA5}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-19320" yWindow="-1590" windowWidth="19440" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="232">
   <si>
     <t>Области</t>
   </si>
@@ -458,9 +458,6 @@
     <t>u:freestonework</t>
   </si>
   <si>
-    <t>НЕ ГОТОВО</t>
-  </si>
-  <si>
     <t>"Шпала" под волокуши на полу</t>
   </si>
   <si>
@@ -711,6 +708,15 @@
   </si>
   <si>
     <t>Высокий куполообразный вывал породы вышерасположенных пластов в следствие локального разрушения кровли</t>
+  </si>
+  <si>
+    <t>проверить</t>
+  </si>
+  <si>
+    <t>wall:sand</t>
+  </si>
+  <si>
+    <t>wall=sand</t>
   </si>
 </sst>
 </file>
@@ -1336,6 +1342,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
@@ -1350,9 +1359,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1508,13 +1514,13 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>1797</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>885714</xdr:colOff>
+      <xdr:colOff>887511</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>3246</xdr:rowOff>
     </xdr:to>
@@ -1539,8 +1545,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8564217" y="9400761"/>
-          <a:ext cx="885714" cy="533333"/>
+          <a:off x="9082896" y="10508052"/>
+          <a:ext cx="885714" cy="537005"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1772,13 +1778,13 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>885714</xdr:colOff>
+      <xdr:colOff>1797</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>533759</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>887511</xdr:colOff>
       <xdr:row>19</xdr:row>
       <xdr:rowOff>3246</xdr:rowOff>
     </xdr:to>
@@ -1803,8 +1809,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8564217" y="8870674"/>
-          <a:ext cx="885714" cy="533333"/>
+          <a:off x="9082896" y="9440533"/>
+          <a:ext cx="885714" cy="537005"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5998,45 +6004,311 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:oneCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
+      <xdr:colOff>417</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>522091</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>4863</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>1173</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="111" name="Рисунок 110">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{70F9935D-3C08-47C7-9D34-9A64A76A192C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId102">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8155438" y="7284841"/>
+          <a:ext cx="932627" cy="545072"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1660784</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>530321</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>5229</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>684</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="112" name="Рисунок 111">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0950AEA1-33AE-4286-9ABA-940751DE11EC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId103">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8152823" y="3565788"/>
+          <a:ext cx="936248" cy="538166"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>920537</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>4141</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>886421</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>2695</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="114" name="Рисунок 113">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3941A29E-8DE4-406C-A203-166716146F72}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId104">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="9073342" y="3567087"/>
+          <a:ext cx="894572" cy="531358"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1662792</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="930484" cy="537143"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="109" name="Рисунок 108">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4B6833C0-C4EA-487F-9761-561EEF1B2C34}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId94"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8153401" y="6234114"/>
-          <a:ext cx="930484" cy="537143"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
+      <xdr:rowOff>529378</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>753</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>1777</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="110" name="Рисунок 109">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BDE85488-60D2-42E1-808A-B014D05627DA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId105">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8153399" y="9964571"/>
+          <a:ext cx="928761" cy="539199"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>927024</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>529002</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>887455</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>4649</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="113" name="Рисунок 112">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{40B9C7FD-E549-474D-AF4F-AB14A5600BFF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId106">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="9078986" y="9969535"/>
+          <a:ext cx="889568" cy="543166"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -8540,10 +8812,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H65"/>
+  <dimension ref="A1:I65"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C51" sqref="C51"/>
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -8554,10 +8826,10 @@
     <col min="4" max="4" width="22.86328125" style="8" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="23.265625" style="8" customWidth="1"/>
     <col min="6" max="6" width="13" style="8" customWidth="1"/>
-    <col min="7" max="7" width="13.3984375" style="8" customWidth="1"/>
+    <col min="7" max="7" width="12.46484375" style="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="21" customFormat="1" ht="28.9" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:9" s="21" customFormat="1" ht="28.9" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A1" s="17"/>
       <c r="B1" s="18" t="s">
         <v>4</v>
@@ -8578,8 +8850,8 @@
         <v>139</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="51" t="s">
+    <row r="2" spans="1:9" ht="42" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="52" t="s">
         <v>13</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -8595,8 +8867,8 @@
       <c r="F2" s="22"/>
       <c r="G2" s="23"/>
     </row>
-    <row r="3" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="52"/>
+    <row r="3" spans="1:9" ht="42" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A3" s="53"/>
       <c r="B3" s="4" t="s">
         <v>5</v>
       </c>
@@ -8612,8 +8884,8 @@
       <c r="F3" s="24"/>
       <c r="G3" s="34"/>
     </row>
-    <row r="4" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="52"/>
+    <row r="4" spans="1:9" ht="42" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A4" s="53"/>
       <c r="B4" s="4" t="s">
         <v>31</v>
       </c>
@@ -8629,8 +8901,8 @@
       <c r="F4" s="24"/>
       <c r="G4" s="25"/>
     </row>
-    <row r="5" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="52"/>
+    <row r="5" spans="1:9" ht="42" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A5" s="53"/>
       <c r="B5" s="4" t="s">
         <v>7</v>
       </c>
@@ -8646,8 +8918,8 @@
       <c r="F5" s="24"/>
       <c r="G5" s="25"/>
     </row>
-    <row r="6" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="52"/>
+    <row r="6" spans="1:9" ht="42" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A6" s="53"/>
       <c r="B6" s="4" t="s">
         <v>140</v>
       </c>
@@ -8663,8 +8935,8 @@
       <c r="F6" s="24"/>
       <c r="G6" s="25"/>
     </row>
-    <row r="7" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A7" s="52"/>
+    <row r="7" spans="1:9" ht="42" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A7" s="53"/>
       <c r="B7" s="4" t="s">
         <v>8</v>
       </c>
@@ -8680,21 +8952,28 @@
       <c r="F7" s="24"/>
       <c r="G7" s="25"/>
     </row>
-    <row r="8" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A8" s="52"/>
+    <row r="8" spans="1:9" ht="42" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A8" s="53"/>
       <c r="B8" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="C8" s="5" t="s">
         <v>224</v>
       </c>
-      <c r="C8" s="5" t="s">
-        <v>225</v>
-      </c>
-      <c r="D8" s="5"/>
-      <c r="E8" s="6"/>
+      <c r="D8" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>231</v>
+      </c>
       <c r="F8" s="24"/>
       <c r="G8" s="25"/>
+      <c r="I8" t="s">
+        <v>229</v>
+      </c>
     </row>
-    <row r="9" spans="1:7" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A9" s="52"/>
+    <row r="9" spans="1:9" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A9" s="53"/>
       <c r="B9" s="4" t="s">
         <v>29</v>
       </c>
@@ -8710,8 +8989,8 @@
       <c r="F9" s="24"/>
       <c r="G9" s="25"/>
     </row>
-    <row r="10" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A10" s="51" t="s">
+    <row r="10" spans="1:9" ht="42" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A10" s="52" t="s">
         <v>14</v>
       </c>
       <c r="B10" s="2" t="s">
@@ -8729,8 +9008,8 @@
       <c r="F10" s="22"/>
       <c r="G10" s="33"/>
     </row>
-    <row r="11" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A11" s="52"/>
+    <row r="11" spans="1:9" ht="42" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A11" s="53"/>
       <c r="B11" s="4" t="s">
         <v>18</v>
       </c>
@@ -8746,8 +9025,8 @@
       <c r="F11" s="24"/>
       <c r="G11" s="25"/>
     </row>
-    <row r="12" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A12" s="52"/>
+    <row r="12" spans="1:9" ht="42" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A12" s="53"/>
       <c r="B12" s="4" t="s">
         <v>19</v>
       </c>
@@ -8763,8 +9042,8 @@
       <c r="F12" s="24"/>
       <c r="G12" s="25"/>
     </row>
-    <row r="13" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A13" s="52"/>
+    <row r="13" spans="1:9" ht="42" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A13" s="53"/>
       <c r="B13" s="4" t="s">
         <v>22</v>
       </c>
@@ -8780,8 +9059,8 @@
       <c r="F13" s="24"/>
       <c r="G13" s="25"/>
     </row>
-    <row r="14" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A14" s="52"/>
+    <row r="14" spans="1:9" ht="42" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A14" s="53"/>
       <c r="B14" s="4" t="s">
         <v>26</v>
       </c>
@@ -8797,8 +9076,8 @@
       <c r="F14" s="24"/>
       <c r="G14" s="25"/>
     </row>
-    <row r="15" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A15" s="52"/>
+    <row r="15" spans="1:9" ht="42" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A15" s="53"/>
       <c r="B15" s="4" t="s">
         <v>34</v>
       </c>
@@ -8811,30 +9090,31 @@
       <c r="E15" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="F15" s="24" t="s">
+      <c r="F15" s="24"/>
+      <c r="G15" s="25"/>
+      <c r="I15" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="42" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A16" s="53"/>
+      <c r="B16" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="G15" s="25"/>
-    </row>
-    <row r="16" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A16" s="52"/>
-      <c r="B16" s="4" t="s">
+      <c r="C16" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="D16" s="12" t="s">
         <v>147</v>
       </c>
-      <c r="D16" s="12" t="s">
+      <c r="E16" s="6" t="s">
         <v>148</v>
-      </c>
-      <c r="E16" s="6" t="s">
-        <v>149</v>
       </c>
       <c r="F16" s="24"/>
       <c r="G16" s="25"/>
     </row>
     <row r="17" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A17" s="52"/>
+      <c r="A17" s="53"/>
       <c r="B17" s="4" t="s">
         <v>40</v>
       </c>
@@ -8851,7 +9131,7 @@
       <c r="G17" s="25"/>
     </row>
     <row r="18" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A18" s="52"/>
+      <c r="A18" s="53"/>
       <c r="B18" s="4" t="s">
         <v>90</v>
       </c>
@@ -8868,45 +9148,41 @@
       <c r="G18" s="25"/>
     </row>
     <row r="19" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A19" s="52"/>
+      <c r="A19" s="53"/>
       <c r="B19" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D19" s="12" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F19" s="24"/>
       <c r="G19" s="25"/>
     </row>
     <row r="20" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A20" s="52"/>
+      <c r="A20" s="53"/>
       <c r="B20" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="C20" s="5" t="s">
         <v>222</v>
       </c>
-      <c r="C20" s="5" t="s">
-        <v>223</v>
-      </c>
       <c r="D20" s="12" t="s">
+        <v>219</v>
+      </c>
+      <c r="E20" s="6" t="s">
         <v>220</v>
       </c>
-      <c r="E20" s="6" t="s">
-        <v>221</v>
-      </c>
-      <c r="F20" s="24" t="s">
-        <v>145</v>
-      </c>
-      <c r="G20" s="25" t="s">
-        <v>145</v>
-      </c>
+      <c r="F20" s="24"/>
+      <c r="G20" s="25"/>
     </row>
     <row r="21" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A21" s="52"/>
+      <c r="A21" s="53"/>
       <c r="B21" s="4"/>
       <c r="C21" s="5" t="s">
         <v>126</v>
@@ -8918,12 +9194,12 @@
         <v>128</v>
       </c>
       <c r="F21" s="36" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G21" s="25"/>
     </row>
     <row r="22" spans="1:7" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A22" s="55"/>
+      <c r="A22" s="56"/>
       <c r="B22" s="10"/>
       <c r="C22" s="11" t="s">
         <v>127</v>
@@ -8938,7 +9214,7 @@
       <c r="G22" s="28"/>
     </row>
     <row r="23" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A23" s="53" t="s">
+      <c r="A23" s="54" t="s">
         <v>0</v>
       </c>
       <c r="B23" s="29" t="s">
@@ -8957,7 +9233,7 @@
       <c r="G23" s="33"/>
     </row>
     <row r="24" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A24" s="52"/>
+      <c r="A24" s="53"/>
       <c r="B24" s="4" t="s">
         <v>11</v>
       </c>
@@ -8974,7 +9250,7 @@
       <c r="G24" s="25"/>
     </row>
     <row r="25" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A25" s="52"/>
+      <c r="A25" s="53"/>
       <c r="B25" s="4" t="s">
         <v>12</v>
       </c>
@@ -8991,7 +9267,7 @@
       <c r="G25" s="25"/>
     </row>
     <row r="26" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A26" s="52"/>
+      <c r="A26" s="53"/>
       <c r="B26" s="4" t="s">
         <v>132</v>
       </c>
@@ -9008,7 +9284,7 @@
       <c r="G26" s="25"/>
     </row>
     <row r="27" spans="1:7" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A27" s="52"/>
+      <c r="A27" s="53"/>
       <c r="B27" s="4" t="s">
         <v>44</v>
       </c>
@@ -9021,7 +9297,7 @@
       <c r="G27" s="25"/>
     </row>
     <row r="28" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A28" s="51" t="s">
+      <c r="A28" s="52" t="s">
         <v>1</v>
       </c>
       <c r="B28" s="2" t="s">
@@ -9040,7 +9316,7 @@
       <c r="G28" s="23"/>
     </row>
     <row r="29" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A29" s="52"/>
+      <c r="A29" s="53"/>
       <c r="B29" s="4" t="s">
         <v>58</v>
       </c>
@@ -9057,41 +9333,41 @@
       <c r="G29" s="25"/>
     </row>
     <row r="30" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A30" s="52"/>
+      <c r="A30" s="53"/>
       <c r="B30" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C30" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="D30" s="5" t="s">
         <v>159</v>
       </c>
-      <c r="D30" s="5" t="s">
-        <v>160</v>
-      </c>
       <c r="E30" s="6" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F30" s="24"/>
       <c r="G30" s="25"/>
     </row>
     <row r="31" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A31" s="52"/>
+      <c r="A31" s="53"/>
       <c r="B31" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D31" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="E31" s="6" t="s">
         <v>156</v>
-      </c>
-      <c r="E31" s="6" t="s">
-        <v>157</v>
       </c>
       <c r="F31" s="24"/>
       <c r="G31" s="25"/>
     </row>
     <row r="32" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A32" s="52"/>
+      <c r="A32" s="53"/>
       <c r="B32" s="4" t="s">
         <v>74</v>
       </c>
@@ -9108,7 +9384,7 @@
       <c r="G32" s="25"/>
     </row>
     <row r="33" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A33" s="52"/>
+      <c r="A33" s="53"/>
       <c r="B33" s="4" t="s">
         <v>63</v>
       </c>
@@ -9125,7 +9401,7 @@
       <c r="G33" s="25"/>
     </row>
     <row r="34" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A34" s="52"/>
+      <c r="A34" s="53"/>
       <c r="B34" s="4" t="s">
         <v>64</v>
       </c>
@@ -9142,7 +9418,7 @@
       <c r="G34" s="25"/>
     </row>
     <row r="35" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A35" s="52"/>
+      <c r="A35" s="53"/>
       <c r="B35" s="4" t="s">
         <v>67</v>
       </c>
@@ -9159,41 +9435,41 @@
       <c r="G35" s="25"/>
     </row>
     <row r="36" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A36" s="52"/>
+      <c r="A36" s="53"/>
       <c r="B36" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="C36" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="C36" s="5" t="s">
+      <c r="D36" s="12" t="s">
         <v>162</v>
       </c>
-      <c r="D36" s="12" t="s">
+      <c r="E36" s="6" t="s">
         <v>163</v>
-      </c>
-      <c r="E36" s="6" t="s">
-        <v>164</v>
       </c>
       <c r="F36" s="24"/>
       <c r="G36" s="25"/>
     </row>
     <row r="37" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A37" s="52"/>
+      <c r="A37" s="53"/>
       <c r="B37" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D37" s="12" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E37" s="6" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F37" s="24"/>
       <c r="G37" s="25"/>
     </row>
     <row r="38" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A38" s="52"/>
+      <c r="A38" s="53"/>
       <c r="B38" s="4" t="s">
         <v>70</v>
       </c>
@@ -9210,7 +9486,7 @@
       <c r="G38" s="25"/>
     </row>
     <row r="39" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A39" s="52"/>
+      <c r="A39" s="53"/>
       <c r="B39" s="4" t="s">
         <v>9</v>
       </c>
@@ -9227,7 +9503,7 @@
       <c r="G39" s="25"/>
     </row>
     <row r="40" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A40" s="52"/>
+      <c r="A40" s="53"/>
       <c r="B40" s="4" t="s">
         <v>75</v>
       </c>
@@ -9244,7 +9520,7 @@
       <c r="G40" s="25"/>
     </row>
     <row r="41" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A41" s="52"/>
+      <c r="A41" s="53"/>
       <c r="B41" s="4" t="s">
         <v>80</v>
       </c>
@@ -9261,7 +9537,7 @@
       <c r="G41" s="25"/>
     </row>
     <row r="42" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A42" s="52"/>
+      <c r="A42" s="53"/>
       <c r="B42" s="4" t="s">
         <v>83</v>
       </c>
@@ -9278,7 +9554,7 @@
       <c r="G42" s="25"/>
     </row>
     <row r="43" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A43" s="52"/>
+      <c r="A43" s="53"/>
       <c r="B43" s="4" t="s">
         <v>84</v>
       </c>
@@ -9295,12 +9571,12 @@
       <c r="G43" s="25"/>
     </row>
     <row r="44" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A44" s="52"/>
+      <c r="A44" s="53"/>
       <c r="B44" s="4" t="s">
         <v>88</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D44" s="5" t="s">
         <v>87</v>
@@ -9312,7 +9588,7 @@
       <c r="G44" s="25"/>
     </row>
     <row r="45" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A45" s="52"/>
+      <c r="A45" s="53"/>
       <c r="B45" s="4" t="s">
         <v>108</v>
       </c>
@@ -9329,7 +9605,7 @@
       <c r="G45" s="25"/>
     </row>
     <row r="46" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A46" s="52"/>
+      <c r="A46" s="53"/>
       <c r="B46" s="4" t="s">
         <v>109</v>
       </c>
@@ -9346,7 +9622,7 @@
       <c r="G46" s="25"/>
     </row>
     <row r="47" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A47" s="52"/>
+      <c r="A47" s="53"/>
       <c r="B47" s="4" t="s">
         <v>92</v>
       </c>
@@ -9363,7 +9639,7 @@
       <c r="G47" s="25"/>
     </row>
     <row r="48" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A48" s="52"/>
+      <c r="A48" s="53"/>
       <c r="B48" s="4" t="s">
         <v>93</v>
       </c>
@@ -9380,8 +9656,8 @@
       <c r="G48" s="25"/>
       <c r="H48" s="8"/>
     </row>
-    <row r="49" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A49" s="52"/>
+    <row r="49" spans="1:9" ht="42" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A49" s="53"/>
       <c r="B49" s="4" t="s">
         <v>99</v>
       </c>
@@ -9398,13 +9674,13 @@
       <c r="G49" s="25"/>
       <c r="H49" s="8"/>
     </row>
-    <row r="50" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A50" s="52"/>
+    <row r="50" spans="1:9" ht="42" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A50" s="53"/>
       <c r="B50" s="4" t="s">
         <v>100</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D50" s="5" t="s">
         <v>101</v>
@@ -9416,44 +9692,47 @@
       <c r="G50" s="25"/>
       <c r="H50" s="8"/>
     </row>
-    <row r="51" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A51" s="54"/>
+    <row r="51" spans="1:9" ht="42" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A51" s="55"/>
       <c r="B51" s="38" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C51" s="39" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D51" s="12" t="s">
+        <v>176</v>
+      </c>
+      <c r="E51" s="40" t="s">
         <v>177</v>
-      </c>
-      <c r="E51" s="40" t="s">
-        <v>178</v>
       </c>
       <c r="F51" s="41"/>
       <c r="G51" s="42"/>
       <c r="H51" s="8"/>
     </row>
-    <row r="52" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A52" s="54"/>
+    <row r="52" spans="1:9" ht="42" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A52" s="55"/>
       <c r="B52" s="38" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C52" s="39" t="s">
-        <v>228</v>
-      </c>
-      <c r="D52" s="56" t="s">
+        <v>227</v>
+      </c>
+      <c r="D52" s="51" t="s">
+        <v>225</v>
+      </c>
+      <c r="E52" s="40" t="s">
         <v>226</v>
-      </c>
-      <c r="E52" s="40" t="s">
-        <v>227</v>
       </c>
       <c r="F52" s="41"/>
       <c r="G52" s="42"/>
       <c r="H52" s="8"/>
+      <c r="I52" t="s">
+        <v>229</v>
+      </c>
     </row>
-    <row r="53" spans="1:8" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A53" s="55"/>
+    <row r="53" spans="1:9" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A53" s="56"/>
       <c r="B53" s="10" t="s">
         <v>104</v>
       </c>
@@ -9469,30 +9748,30 @@
       <c r="F53" s="37"/>
       <c r="G53" s="28"/>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.45">
       <c r="B55" s="8" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G55" s="8" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.45">
       <c r="B56" s="8" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.45">
       <c r="B58"/>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.45">
       <c r="B59" s="8" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="B62" t="s">
         <v>172</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="B62" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="65" spans="2:2" x14ac:dyDescent="0.45">
@@ -9553,178 +9832,178 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="53" t="s">
+      <c r="A2" s="54" t="s">
+        <v>178</v>
+      </c>
+      <c r="B2" s="29" t="s">
         <v>179</v>
-      </c>
-      <c r="B2" s="29" t="s">
-        <v>180</v>
       </c>
       <c r="C2" s="30"/>
       <c r="D2" s="48" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E2" s="31"/>
       <c r="F2" s="32"/>
       <c r="G2" s="33"/>
     </row>
     <row r="3" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="53"/>
+      <c r="A3" s="54"/>
       <c r="B3" s="4" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C3" s="5"/>
       <c r="D3" s="48" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E3" s="31"/>
       <c r="F3" s="32"/>
       <c r="G3" s="33"/>
     </row>
     <row r="4" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="52"/>
+      <c r="A4" s="53"/>
       <c r="B4" s="4" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="49" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E4" s="6"/>
       <c r="F4" s="24"/>
       <c r="G4" s="25"/>
     </row>
     <row r="5" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="52"/>
+      <c r="A5" s="53"/>
       <c r="B5" s="4" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C5" s="5"/>
       <c r="D5" s="49" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E5" s="5"/>
       <c r="F5" s="24"/>
       <c r="G5" s="25"/>
     </row>
     <row r="6" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="52"/>
+      <c r="A6" s="53"/>
       <c r="B6" s="4" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="49" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E6" s="6"/>
       <c r="F6" s="24"/>
       <c r="G6" s="25"/>
     </row>
     <row r="7" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A7" s="52"/>
+      <c r="A7" s="53"/>
       <c r="B7" s="4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C7" s="5"/>
       <c r="D7" s="49" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E7" s="6"/>
       <c r="F7" s="24"/>
       <c r="G7" s="25"/>
     </row>
     <row r="8" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A8" s="52"/>
+      <c r="A8" s="53"/>
       <c r="B8" s="4" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C8" s="5"/>
       <c r="D8" s="49" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E8" s="6"/>
       <c r="F8" s="24"/>
       <c r="G8" s="25"/>
     </row>
     <row r="9" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A9" s="52"/>
+      <c r="A9" s="53"/>
       <c r="B9" s="4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C9" s="5"/>
       <c r="D9" s="49" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E9" s="6"/>
       <c r="F9" s="24"/>
       <c r="G9" s="25"/>
     </row>
     <row r="10" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A10" s="52"/>
+      <c r="A10" s="53"/>
       <c r="B10" s="4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C10" s="5"/>
       <c r="D10" s="49" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E10" s="6"/>
       <c r="F10" s="24"/>
       <c r="G10" s="25"/>
     </row>
     <row r="11" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A11" s="52"/>
+      <c r="A11" s="53"/>
       <c r="B11" s="4" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C11" s="5"/>
       <c r="D11" s="49" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E11" s="6"/>
       <c r="F11" s="24"/>
       <c r="G11" s="25"/>
     </row>
     <row r="12" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A12" s="52"/>
+      <c r="A12" s="53"/>
       <c r="B12" s="4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C12" s="5"/>
       <c r="D12" s="49" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E12" s="6"/>
       <c r="F12" s="24"/>
       <c r="G12" s="25"/>
     </row>
     <row r="13" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A13" s="52"/>
+      <c r="A13" s="53"/>
       <c r="B13" s="4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C13" s="5"/>
       <c r="D13" s="49" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E13" s="6"/>
       <c r="F13" s="24"/>
       <c r="G13" s="25"/>
     </row>
     <row r="14" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A14" s="52"/>
+      <c r="A14" s="53"/>
       <c r="B14" s="4" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C14" s="5"/>
       <c r="D14" s="49" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E14" s="6"/>
       <c r="F14" s="24"/>
       <c r="G14" s="25"/>
     </row>
     <row r="15" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A15" s="52"/>
+      <c r="A15" s="53"/>
       <c r="B15" s="4"/>
       <c r="C15" s="5"/>
       <c r="D15" s="49"/>
@@ -9733,7 +10012,7 @@
       <c r="G15" s="25"/>
     </row>
     <row r="16" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A16" s="52"/>
+      <c r="A16" s="53"/>
       <c r="B16" s="4"/>
       <c r="C16" s="5"/>
       <c r="D16" s="49"/>
@@ -9742,7 +10021,7 @@
       <c r="G16" s="25"/>
     </row>
     <row r="17" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A17" s="52"/>
+      <c r="A17" s="53"/>
       <c r="B17" s="4"/>
       <c r="C17" s="5"/>
       <c r="D17" s="5"/>
@@ -9751,7 +10030,7 @@
       <c r="G17" s="25"/>
     </row>
     <row r="18" spans="1:7" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A18" s="55"/>
+      <c r="A18" s="56"/>
       <c r="B18" s="10"/>
       <c r="C18" s="11"/>
       <c r="D18" s="7"/>
@@ -9760,11 +10039,11 @@
       <c r="G18" s="28"/>
     </row>
     <row r="19" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A19" s="53" t="s">
+      <c r="A19" s="54" t="s">
         <v>0</v>
       </c>
       <c r="B19" s="29" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C19" s="30"/>
       <c r="D19" s="30"/>
@@ -9773,7 +10052,7 @@
       <c r="G19" s="33"/>
     </row>
     <row r="20" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A20" s="52"/>
+      <c r="A20" s="53"/>
       <c r="B20" s="4"/>
       <c r="C20" s="5"/>
       <c r="D20" s="5"/>
@@ -9782,7 +10061,7 @@
       <c r="G20" s="25"/>
     </row>
     <row r="21" spans="1:7" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A21" s="52"/>
+      <c r="A21" s="53"/>
       <c r="B21" s="4"/>
       <c r="C21" s="5"/>
       <c r="D21" s="5"/>
@@ -9791,89 +10070,89 @@
       <c r="G21" s="25"/>
     </row>
     <row r="22" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A22" s="51" t="s">
+      <c r="A22" s="52" t="s">
         <v>1</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C22" s="1"/>
       <c r="D22" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E22" s="3"/>
       <c r="F22" s="22"/>
       <c r="G22" s="23"/>
     </row>
     <row r="23" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A23" s="52"/>
+      <c r="A23" s="53"/>
       <c r="B23" s="4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C23" s="5"/>
       <c r="D23" s="5" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E23" s="6"/>
       <c r="F23" s="24"/>
       <c r="G23" s="25"/>
     </row>
     <row r="24" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A24" s="52"/>
+      <c r="A24" s="53"/>
       <c r="B24" s="4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C24" s="5"/>
       <c r="D24" s="5" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E24" s="6"/>
       <c r="F24" s="24"/>
       <c r="G24" s="25"/>
     </row>
     <row r="25" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A25" s="52"/>
+      <c r="A25" s="53"/>
       <c r="B25" s="4" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C25" s="5"/>
       <c r="D25" s="49" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E25" s="6"/>
       <c r="F25" s="24"/>
       <c r="G25" s="25"/>
     </row>
     <row r="26" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A26" s="52"/>
+      <c r="A26" s="53"/>
       <c r="B26" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C26" s="5"/>
       <c r="D26" s="49" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E26" s="6"/>
       <c r="F26" s="24"/>
       <c r="G26" s="25"/>
     </row>
     <row r="27" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A27" s="52"/>
+      <c r="A27" s="53"/>
       <c r="B27" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C27" s="5"/>
       <c r="D27" s="49" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E27" s="6"/>
       <c r="F27" s="24"/>
       <c r="G27" s="25"/>
     </row>
     <row r="28" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A28" s="52"/>
+      <c r="A28" s="53"/>
       <c r="B28" s="4" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C28" s="5"/>
       <c r="D28" s="49"/>
@@ -9882,7 +10161,7 @@
       <c r="G28" s="25"/>
     </row>
     <row r="29" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A29" s="52"/>
+      <c r="A29" s="53"/>
       <c r="B29" s="4"/>
       <c r="C29" s="5"/>
       <c r="D29" s="49"/>
@@ -9891,7 +10170,7 @@
       <c r="G29" s="25"/>
     </row>
     <row r="30" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A30" s="52"/>
+      <c r="A30" s="53"/>
       <c r="B30" s="4"/>
       <c r="C30" s="5"/>
       <c r="D30" s="49"/>
@@ -9900,7 +10179,7 @@
       <c r="G30" s="25"/>
     </row>
     <row r="31" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A31" s="54"/>
+      <c r="A31" s="55"/>
       <c r="B31" s="38"/>
       <c r="C31" s="39"/>
       <c r="D31" s="49"/>
@@ -9909,7 +10188,7 @@
       <c r="G31" s="42"/>
     </row>
     <row r="32" spans="1:7" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A32" s="55"/>
+      <c r="A32" s="56"/>
       <c r="B32" s="10"/>
       <c r="C32" s="11"/>
       <c r="D32" s="50"/>

--- a/Реестр символов (кам.).xlsx
+++ b/Реестр символов (кам.).xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBF4000A-D33E-49E3-A751-D140A25F3EA5}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D739861-5252-4953-BE03-FDFD64A346FC}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-19320" yWindow="-1590" windowWidth="19440" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="230">
   <si>
     <t>Области</t>
   </si>
@@ -527,9 +527,6 @@
     <t>Вход, существовавший в процессе разработки и/или позже</t>
   </si>
   <si>
-    <t>93x56, 63x50</t>
-  </si>
-  <si>
     <t>НЕ ОТОБРАЖАЕТСЯ</t>
   </si>
   <si>
@@ -708,9 +705,6 @@
   </si>
   <si>
     <t>Высокий куполообразный вывал породы вышерасположенных пластов в следствие локального разрушения кровли</t>
-  </si>
-  <si>
-    <t>проверить</t>
   </si>
   <si>
     <t>wall:sand</t>
@@ -5518,13 +5512,13 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
+      <xdr:colOff>3922</xdr:colOff>
       <xdr:row>45</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>2750</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>927236</xdr:colOff>
       <xdr:row>46</xdr:row>
       <xdr:rowOff>3744</xdr:rowOff>
     </xdr:to>
@@ -5549,8 +5543,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7620000" y="23860126"/>
-          <a:ext cx="860000" cy="537143"/>
+          <a:off x="8161804" y="23784487"/>
+          <a:ext cx="923314" cy="536022"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5562,15 +5556,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>19052</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>9527</xdr:rowOff>
+      <xdr:colOff>35860</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>524996</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>863433</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>529146</xdr:rowOff>
+      <xdr:colOff>918622</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>3675</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5582,7 +5576,7 @@
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
+          <a:picLocks/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -5593,8 +5587,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7629527" y="13735052"/>
-          <a:ext cx="844381" cy="519619"/>
+          <a:off x="8193742" y="14728452"/>
+          <a:ext cx="882762" cy="543238"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5885,15 +5879,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
+      <xdr:colOff>2253</xdr:colOff>
       <xdr:row>50</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>857250</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>4940</xdr:colOff>
       <xdr:row>51</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>74</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5905,7 +5899,7 @@
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          <a:picLocks noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -5923,8 +5917,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="7620000" y="25993725"/>
-          <a:ext cx="847725" cy="533400"/>
+          <a:off x="8156155" y="26527125"/>
+          <a:ext cx="932627" cy="533975"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6291,6 +6285,128 @@
         <a:xfrm>
           <a:off x="9078986" y="9969535"/>
           <a:ext cx="889568" cy="543166"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>123482</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>6801</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>775945</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>530676</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="116" name="Рисунок 115">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FBB7C625-2D64-4E4D-B94B-D84934235795}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId107">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="9204889" y="27044194"/>
+          <a:ext cx="652463" cy="523875"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1784</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>531611</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1857</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>4168</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="117" name="Рисунок 116">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D4C4D952-CE28-4950-BC1C-331AC4C1D854}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId108">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8154589" y="27005158"/>
+          <a:ext cx="928761" cy="538166"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8812,10 +8928,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I65"/>
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:H65"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -8829,7 +8948,7 @@
     <col min="7" max="7" width="12.46484375" style="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="21" customFormat="1" ht="28.9" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:7" s="21" customFormat="1" ht="28.9" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A1" s="17"/>
       <c r="B1" s="18" t="s">
         <v>4</v>
@@ -8850,7 +8969,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="42" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="52" t="s">
         <v>13</v>
       </c>
@@ -8867,7 +8986,7 @@
       <c r="F2" s="22"/>
       <c r="G2" s="23"/>
     </row>
-    <row r="3" spans="1:9" ht="42" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="53"/>
       <c r="B3" s="4" t="s">
         <v>5</v>
@@ -8884,7 +9003,7 @@
       <c r="F3" s="24"/>
       <c r="G3" s="34"/>
     </row>
-    <row r="4" spans="1:9" ht="42" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" s="53"/>
       <c r="B4" s="4" t="s">
         <v>31</v>
@@ -8901,7 +9020,7 @@
       <c r="F4" s="24"/>
       <c r="G4" s="25"/>
     </row>
-    <row r="5" spans="1:9" ht="42" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A5" s="53"/>
       <c r="B5" s="4" t="s">
         <v>7</v>
@@ -8918,7 +9037,7 @@
       <c r="F5" s="24"/>
       <c r="G5" s="25"/>
     </row>
-    <row r="6" spans="1:9" ht="42" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A6" s="53"/>
       <c r="B6" s="4" t="s">
         <v>140</v>
@@ -8935,7 +9054,7 @@
       <c r="F6" s="24"/>
       <c r="G6" s="25"/>
     </row>
-    <row r="7" spans="1:9" ht="42" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A7" s="53"/>
       <c r="B7" s="4" t="s">
         <v>8</v>
@@ -8952,27 +9071,24 @@
       <c r="F7" s="24"/>
       <c r="G7" s="25"/>
     </row>
-    <row r="8" spans="1:9" ht="42" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A8" s="53"/>
       <c r="B8" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="C8" s="5" t="s">
         <v>223</v>
       </c>
-      <c r="C8" s="5" t="s">
-        <v>224</v>
-      </c>
       <c r="D8" s="5" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="F8" s="24"/>
       <c r="G8" s="25"/>
-      <c r="I8" t="s">
-        <v>229</v>
-      </c>
     </row>
-    <row r="9" spans="1:9" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:7" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A9" s="53"/>
       <c r="B9" s="4" t="s">
         <v>29</v>
@@ -8989,7 +9105,7 @@
       <c r="F9" s="24"/>
       <c r="G9" s="25"/>
     </row>
-    <row r="10" spans="1:9" ht="42" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A10" s="52" t="s">
         <v>14</v>
       </c>
@@ -9008,7 +9124,7 @@
       <c r="F10" s="22"/>
       <c r="G10" s="33"/>
     </row>
-    <row r="11" spans="1:9" ht="42" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A11" s="53"/>
       <c r="B11" s="4" t="s">
         <v>18</v>
@@ -9025,7 +9141,7 @@
       <c r="F11" s="24"/>
       <c r="G11" s="25"/>
     </row>
-    <row r="12" spans="1:9" ht="42" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A12" s="53"/>
       <c r="B12" s="4" t="s">
         <v>19</v>
@@ -9042,7 +9158,7 @@
       <c r="F12" s="24"/>
       <c r="G12" s="25"/>
     </row>
-    <row r="13" spans="1:9" ht="42" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A13" s="53"/>
       <c r="B13" s="4" t="s">
         <v>22</v>
@@ -9059,7 +9175,7 @@
       <c r="F13" s="24"/>
       <c r="G13" s="25"/>
     </row>
-    <row r="14" spans="1:9" ht="42" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A14" s="53"/>
       <c r="B14" s="4" t="s">
         <v>26</v>
@@ -9076,7 +9192,7 @@
       <c r="F14" s="24"/>
       <c r="G14" s="25"/>
     </row>
-    <row r="15" spans="1:9" ht="42" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A15" s="53"/>
       <c r="B15" s="4" t="s">
         <v>34</v>
@@ -9092,11 +9208,8 @@
       </c>
       <c r="F15" s="24"/>
       <c r="G15" s="25"/>
-      <c r="I15" t="s">
-        <v>229</v>
-      </c>
     </row>
-    <row r="16" spans="1:9" ht="42" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A16" s="53"/>
       <c r="B16" s="4" t="s">
         <v>145</v>
@@ -9167,16 +9280,16 @@
     <row r="20" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A20" s="53"/>
       <c r="B20" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="C20" s="5" t="s">
         <v>221</v>
       </c>
-      <c r="C20" s="5" t="s">
-        <v>222</v>
-      </c>
       <c r="D20" s="12" t="s">
+        <v>218</v>
+      </c>
+      <c r="E20" s="6" t="s">
         <v>219</v>
-      </c>
-      <c r="E20" s="6" t="s">
-        <v>220</v>
       </c>
       <c r="F20" s="24"/>
       <c r="G20" s="25"/>
@@ -9194,7 +9307,7 @@
         <v>128</v>
       </c>
       <c r="F21" s="36" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G21" s="25"/>
     </row>
@@ -9656,7 +9769,7 @@
       <c r="G48" s="25"/>
       <c r="H48" s="8"/>
     </row>
-    <row r="49" spans="1:9" ht="42" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A49" s="53"/>
       <c r="B49" s="4" t="s">
         <v>99</v>
@@ -9674,7 +9787,7 @@
       <c r="G49" s="25"/>
       <c r="H49" s="8"/>
     </row>
-    <row r="50" spans="1:9" ht="42" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A50" s="53"/>
       <c r="B50" s="4" t="s">
         <v>100</v>
@@ -9692,46 +9805,43 @@
       <c r="G50" s="25"/>
       <c r="H50" s="8"/>
     </row>
-    <row r="51" spans="1:9" ht="42" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A51" s="55"/>
       <c r="B51" s="38" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C51" s="39" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D51" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="E51" s="40" t="s">
         <v>176</v>
-      </c>
-      <c r="E51" s="40" t="s">
-        <v>177</v>
       </c>
       <c r="F51" s="41"/>
       <c r="G51" s="42"/>
       <c r="H51" s="8"/>
     </row>
-    <row r="52" spans="1:9" ht="42" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A52" s="55"/>
       <c r="B52" s="38" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C52" s="39" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D52" s="51" t="s">
+        <v>224</v>
+      </c>
+      <c r="E52" s="40" t="s">
         <v>225</v>
-      </c>
-      <c r="E52" s="40" t="s">
-        <v>226</v>
       </c>
       <c r="F52" s="41"/>
       <c r="G52" s="42"/>
       <c r="H52" s="8"/>
-      <c r="I52" t="s">
-        <v>229</v>
-      </c>
     </row>
-    <row r="53" spans="1:9" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="53" spans="1:8" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A53" s="56"/>
       <c r="B53" s="10" t="s">
         <v>104</v>
@@ -9748,30 +9858,27 @@
       <c r="F53" s="37"/>
       <c r="G53" s="28"/>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B55" s="8" t="s">
-        <v>170</v>
-      </c>
-      <c r="G55" s="8" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B56" s="8" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B58"/>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B59" s="8" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="B62" t="s">
         <v>171</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="B62" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="65" spans="2:2" x14ac:dyDescent="0.45">
@@ -9784,8 +9891,8 @@
     <mergeCell ref="A28:A53"/>
     <mergeCell ref="A10:A22"/>
   </mergeCells>
-  <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.78740157480314965" bottom="0.78740157480314965" header="0" footer="0"/>
-  <pageSetup paperSize="9" scale="69" fitToHeight="0" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.31496062992125984" bottom="0.31496062992125984" header="0" footer="0"/>
+  <pageSetup paperSize="9" scale="63" fitToHeight="0" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
@@ -9833,14 +9940,14 @@
     </row>
     <row r="2" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="54" t="s">
+        <v>177</v>
+      </c>
+      <c r="B2" s="29" t="s">
         <v>178</v>
-      </c>
-      <c r="B2" s="29" t="s">
-        <v>179</v>
       </c>
       <c r="C2" s="30"/>
       <c r="D2" s="48" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E2" s="31"/>
       <c r="F2" s="32"/>
@@ -9849,11 +9956,11 @@
     <row r="3" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="54"/>
       <c r="B3" s="4" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C3" s="5"/>
       <c r="D3" s="48" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E3" s="31"/>
       <c r="F3" s="32"/>
@@ -9862,11 +9969,11 @@
     <row r="4" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" s="53"/>
       <c r="B4" s="4" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="49" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E4" s="6"/>
       <c r="F4" s="24"/>
@@ -9875,11 +9982,11 @@
     <row r="5" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A5" s="53"/>
       <c r="B5" s="4" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C5" s="5"/>
       <c r="D5" s="49" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E5" s="5"/>
       <c r="F5" s="24"/>
@@ -9888,11 +9995,11 @@
     <row r="6" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A6" s="53"/>
       <c r="B6" s="4" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="49" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E6" s="6"/>
       <c r="F6" s="24"/>
@@ -9901,11 +10008,11 @@
     <row r="7" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A7" s="53"/>
       <c r="B7" s="4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C7" s="5"/>
       <c r="D7" s="49" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E7" s="6"/>
       <c r="F7" s="24"/>
@@ -9914,11 +10021,11 @@
     <row r="8" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A8" s="53"/>
       <c r="B8" s="4" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C8" s="5"/>
       <c r="D8" s="49" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E8" s="6"/>
       <c r="F8" s="24"/>
@@ -9927,11 +10034,11 @@
     <row r="9" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A9" s="53"/>
       <c r="B9" s="4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C9" s="5"/>
       <c r="D9" s="49" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E9" s="6"/>
       <c r="F9" s="24"/>
@@ -9940,11 +10047,11 @@
     <row r="10" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A10" s="53"/>
       <c r="B10" s="4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C10" s="5"/>
       <c r="D10" s="49" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E10" s="6"/>
       <c r="F10" s="24"/>
@@ -9953,11 +10060,11 @@
     <row r="11" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A11" s="53"/>
       <c r="B11" s="4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C11" s="5"/>
       <c r="D11" s="49" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E11" s="6"/>
       <c r="F11" s="24"/>
@@ -9966,11 +10073,11 @@
     <row r="12" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A12" s="53"/>
       <c r="B12" s="4" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C12" s="5"/>
       <c r="D12" s="49" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E12" s="6"/>
       <c r="F12" s="24"/>
@@ -9979,11 +10086,11 @@
     <row r="13" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A13" s="53"/>
       <c r="B13" s="4" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C13" s="5"/>
       <c r="D13" s="49" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E13" s="6"/>
       <c r="F13" s="24"/>
@@ -9992,11 +10099,11 @@
     <row r="14" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A14" s="53"/>
       <c r="B14" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C14" s="5"/>
       <c r="D14" s="49" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E14" s="6"/>
       <c r="F14" s="24"/>
@@ -10043,7 +10150,7 @@
         <v>0</v>
       </c>
       <c r="B19" s="29" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C19" s="30"/>
       <c r="D19" s="30"/>
@@ -10074,11 +10181,11 @@
         <v>1</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C22" s="1"/>
       <c r="D22" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E22" s="3"/>
       <c r="F22" s="22"/>
@@ -10087,11 +10194,11 @@
     <row r="23" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A23" s="53"/>
       <c r="B23" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C23" s="5"/>
       <c r="D23" s="5" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E23" s="6"/>
       <c r="F23" s="24"/>
@@ -10100,11 +10207,11 @@
     <row r="24" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A24" s="53"/>
       <c r="B24" s="4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C24" s="5"/>
       <c r="D24" s="5" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E24" s="6"/>
       <c r="F24" s="24"/>
@@ -10113,11 +10220,11 @@
     <row r="25" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A25" s="53"/>
       <c r="B25" s="4" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C25" s="5"/>
       <c r="D25" s="49" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E25" s="6"/>
       <c r="F25" s="24"/>
@@ -10126,11 +10233,11 @@
     <row r="26" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A26" s="53"/>
       <c r="B26" s="4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C26" s="5"/>
       <c r="D26" s="49" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E26" s="6"/>
       <c r="F26" s="24"/>
@@ -10139,11 +10246,11 @@
     <row r="27" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A27" s="53"/>
       <c r="B27" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C27" s="5"/>
       <c r="D27" s="49" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E27" s="6"/>
       <c r="F27" s="24"/>
@@ -10152,7 +10259,7 @@
     <row r="28" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A28" s="53"/>
       <c r="B28" s="4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C28" s="5"/>
       <c r="D28" s="49"/>

--- a/Реестр символов (кам.).xlsx
+++ b/Реестр символов (кам.).xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D739861-5252-4953-BE03-FDFD64A346FC}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DAFE6E1-720F-4050-84C1-802C8B4AC56F}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-19320" yWindow="-1590" windowWidth="19440" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="233">
   <si>
     <t>Области</t>
   </si>
@@ -711,6 +711,15 @@
   </si>
   <si>
     <t>wall=sand</t>
+  </si>
+  <si>
+    <t>station-name</t>
+  </si>
+  <si>
+    <t>имя пикета</t>
+  </si>
+  <si>
+    <t>Номер/имя пикета</t>
   </si>
 </sst>
 </file>
@@ -2477,6 +2486,710 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>150018</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>750018</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>504765</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="28" name="Рисунок 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8190987F-8368-4385-98C4-854FC462E5E7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId26"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8712993" y="23888700"/>
+          <a:ext cx="600000" cy="476190"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>150018</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>29243</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>750018</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>504765</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="30" name="Рисунок 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{41D9C97F-4882-40FA-AFFB-CB04726DF930}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId27"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8712993" y="13754768"/>
+          <a:ext cx="600000" cy="475522"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>150018</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>750018</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>504765</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="31" name="Рисунок 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B37582BC-B9B0-4081-8FC2-1F45AB5A3679}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId28"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8712993" y="14287500"/>
+          <a:ext cx="600000" cy="476190"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>150018</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>750018</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>504765</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="32" name="Рисунок 31">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2597A3A6-AFAF-45D8-BF2E-A424DD82A2F1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId29"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8712993" y="14820900"/>
+          <a:ext cx="600000" cy="476190"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>150018</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>750018</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>504765</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="33" name="Рисунок 32">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FF110602-2537-4C3C-B179-E5E2F0CC73E2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId30"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8712993" y="16421100"/>
+          <a:ext cx="600000" cy="476190"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>150018</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>750018</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>504765</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="34" name="Рисунок 33">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{84DCC6AB-1F4D-4574-8592-8637B0E6F667}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId31"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8712993" y="16954500"/>
+          <a:ext cx="600000" cy="476190"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>150018</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>750018</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>504765</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="35" name="Рисунок 34">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4190BA72-5CD6-4B26-9C05-309AAD524439}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId32"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8712993" y="18021300"/>
+          <a:ext cx="600000" cy="476190"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>150018</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>750018</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>504765</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="36" name="Рисунок 35">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9DD4CAE8-E48A-4144-A8BD-A5F6FE86754A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId33"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8712993" y="17487900"/>
+          <a:ext cx="600000" cy="476190"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>150018</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>750018</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>504765</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="37" name="Рисунок 36">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6374271F-1383-44F4-970B-28F292778401}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId34"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8712993" y="18554700"/>
+          <a:ext cx="600000" cy="476190"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>150018</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>750018</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>476190</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="38" name="Рисунок 37">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{55C9C2E9-A73F-4079-9048-867362652C67}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId35"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8712993" y="19088100"/>
+          <a:ext cx="600000" cy="476190"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>150018</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>750018</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>504765</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="39" name="Рисунок 38">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C125E474-AE08-44FC-BFEF-35A93639BA6C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId36"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8712993" y="19621500"/>
+          <a:ext cx="600000" cy="476190"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>150018</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>750018</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>504765</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="40" name="Рисунок 39">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B80A0BB9-4016-45EB-B274-EFD58D6789FC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId37"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8712993" y="20154900"/>
+          <a:ext cx="600000" cy="476190"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>150018</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>750018</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>504765</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="41" name="Рисунок 40">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1C8C01D7-97BD-4C98-8363-B2476537CDEF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId38"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8712993" y="20688300"/>
+          <a:ext cx="600000" cy="476190"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>150018</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>750018</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>476190</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="42" name="Рисунок 41">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5D052D59-33DA-433A-A736-D757EFDB376A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId39"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8712993" y="21221700"/>
+          <a:ext cx="600000" cy="476190"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>150018</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>750018</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>504765</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="43" name="Рисунок 42">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{36A16E81-ED23-4771-8616-EC2465394BD7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId40"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8712993" y="22288500"/>
+          <a:ext cx="600000" cy="476190"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>150018</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>750018</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>504765</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="44" name="Рисунок 43">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6D1C6A1D-4FC8-4068-A597-9B0F34CB8A8B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId41"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8712993" y="21755100"/>
+          <a:ext cx="600000" cy="476190"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>150018</xdr:colOff>
       <xdr:row>45</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
@@ -2488,686 +3201,26 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="28" name="Рисунок 27">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8190987F-8368-4385-98C4-854FC462E5E7}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId26"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8712993" y="23888700"/>
-          <a:ext cx="600000" cy="476190"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>150018</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>29243</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>750018</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>504765</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="30" name="Рисунок 29">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{41D9C97F-4882-40FA-AFFB-CB04726DF930}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId27"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8712993" y="13754768"/>
-          <a:ext cx="600000" cy="475522"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>150018</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>750018</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>504765</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="31" name="Рисунок 30">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B37582BC-B9B0-4081-8FC2-1F45AB5A3679}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId28"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8712993" y="14287500"/>
-          <a:ext cx="600000" cy="476190"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>150018</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>750018</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>504765</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="32" name="Рисунок 31">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2597A3A6-AFAF-45D8-BF2E-A424DD82A2F1}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId29"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8712993" y="14820900"/>
-          <a:ext cx="600000" cy="476190"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>150018</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>750018</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>504765</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="33" name="Рисунок 32">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FF110602-2537-4C3C-B179-E5E2F0CC73E2}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId30"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8712993" y="16421100"/>
-          <a:ext cx="600000" cy="476190"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>150018</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>750018</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>504765</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="34" name="Рисунок 33">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{84DCC6AB-1F4D-4574-8592-8637B0E6F667}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId31"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8712993" y="16954500"/>
-          <a:ext cx="600000" cy="476190"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>150018</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>750018</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>504765</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="35" name="Рисунок 34">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4190BA72-5CD6-4B26-9C05-309AAD524439}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId32"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8712993" y="18021300"/>
-          <a:ext cx="600000" cy="476190"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>150018</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>750018</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>504765</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="36" name="Рисунок 35">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9DD4CAE8-E48A-4144-A8BD-A5F6FE86754A}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId33"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8712993" y="17487900"/>
-          <a:ext cx="600000" cy="476190"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>150018</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>750018</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>504765</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="37" name="Рисунок 36">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6374271F-1383-44F4-970B-28F292778401}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId34"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8712993" y="18554700"/>
-          <a:ext cx="600000" cy="476190"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>150018</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>750018</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>476190</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="38" name="Рисунок 37">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{55C9C2E9-A73F-4079-9048-867362652C67}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId35"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8712993" y="19088100"/>
-          <a:ext cx="600000" cy="476190"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>150018</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>750018</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>504765</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="39" name="Рисунок 38">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C125E474-AE08-44FC-BFEF-35A93639BA6C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId36"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8712993" y="19621500"/>
-          <a:ext cx="600000" cy="476190"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>150018</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>750018</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>504765</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="40" name="Рисунок 39">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B80A0BB9-4016-45EB-B274-EFD58D6789FC}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId37"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8712993" y="20154900"/>
-          <a:ext cx="600000" cy="476190"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>150018</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>750018</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>504765</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="41" name="Рисунок 40">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1C8C01D7-97BD-4C98-8363-B2476537CDEF}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId38"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8712993" y="20688300"/>
-          <a:ext cx="600000" cy="476190"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>150018</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>750018</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>476190</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="42" name="Рисунок 41">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5D052D59-33DA-433A-A736-D757EFDB376A}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId39"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8712993" y="21221700"/>
-          <a:ext cx="600000" cy="476190"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>150018</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>750018</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>504765</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="43" name="Рисунок 42">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{36A16E81-ED23-4771-8616-EC2465394BD7}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId40"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8712993" y="22288500"/>
-          <a:ext cx="600000" cy="476190"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>150018</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>750018</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>504765</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="44" name="Рисунок 43">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6D1C6A1D-4FC8-4068-A597-9B0F34CB8A8B}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId41"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8712993" y="21755100"/>
+        <xdr:cNvPr id="45" name="Рисунок 44">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F3B4F071-0563-4DB6-BEAE-76DA0047C6DB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId42"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8712993" y="23355300"/>
           <a:ext cx="600000" cy="476190"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3192,50 +3245,6 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="45" name="Рисунок 44">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F3B4F071-0563-4DB6-BEAE-76DA0047C6DB}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId42"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8712993" y="23355300"/>
-          <a:ext cx="600000" cy="476190"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>150018</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>750018</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>504765</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
         <xdr:cNvPr id="46" name="Рисунок 45">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
@@ -3357,6 +3366,94 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>150018</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>750018</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>504765</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="49" name="Рисунок 48">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DD3F4614-389C-4129-9565-42BB71A15685}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId46"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8712993" y="26555700"/>
+          <a:ext cx="600000" cy="476190"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>150018</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>750018</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>504765</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="50" name="Рисунок 49">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{29259297-00CD-4F8C-A0E1-588E7203AE30}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId47"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8712993" y="27089100"/>
+          <a:ext cx="600000" cy="476190"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>150018</xdr:colOff>
       <xdr:row>49</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
@@ -3368,70 +3465,26 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="49" name="Рисунок 48">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DD3F4614-389C-4129-9565-42BB71A15685}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId46"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8712993" y="26555700"/>
-          <a:ext cx="600000" cy="476190"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>150018</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>750018</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>504765</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="50" name="Рисунок 49">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{29259297-00CD-4F8C-A0E1-588E7203AE30}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId47"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8712993" y="27089100"/>
+        <xdr:cNvPr id="51" name="Рисунок 50">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{29540A5F-F630-4883-BE31-C9B4790ABDBC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId48"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8712993" y="26022300"/>
           <a:ext cx="600000" cy="476190"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3456,26 +3509,26 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="51" name="Рисунок 50">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{29540A5F-F630-4883-BE31-C9B4790ABDBC}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId48"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8712993" y="26022300"/>
+        <xdr:cNvPr id="52" name="Рисунок 51">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E869119E-ECFC-48BA-B2C2-C4BA050C274F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId49"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8712993" y="25488900"/>
           <a:ext cx="600000" cy="476190"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3496,50 +3549,6 @@
       <xdr:col>6</xdr:col>
       <xdr:colOff>750018</xdr:colOff>
       <xdr:row>47</xdr:row>
-      <xdr:rowOff>504765</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="52" name="Рисунок 51">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E869119E-ECFC-48BA-B2C2-C4BA050C274F}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId49"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8712993" y="25488900"/>
-          <a:ext cx="600000" cy="476190"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>150018</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>750018</xdr:colOff>
-      <xdr:row>46</xdr:row>
       <xdr:rowOff>504765</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3797,6 +3806,50 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1012</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>1054</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="58" name="Рисунок 57">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CBDD8F61-8C93-46D8-A17D-73A9B7797A37}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId56"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7610475" y="22793325"/>
+          <a:ext cx="866667" cy="533334"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>43</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
@@ -3808,26 +3861,290 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="58" name="Рисунок 57">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CBDD8F61-8C93-46D8-A17D-73A9B7797A37}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId56"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7610475" y="22793325"/>
+        <xdr:cNvPr id="59" name="Рисунок 58">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E36A36D9-141A-434C-A1D1-821F34A1F614}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId57"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7610475" y="22259925"/>
+          <a:ext cx="866667" cy="533334"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1012</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>1054</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="60" name="Рисунок 59">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{744D33C5-9C8E-4274-97A4-53AF65436497}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId58"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7610475" y="15859125"/>
+          <a:ext cx="866667" cy="533334"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1012</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>1055</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="61" name="Рисунок 60">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E589FF-AAD5-4B7C-ACAA-14DD338762D9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId59"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7610475" y="16392525"/>
+          <a:ext cx="866667" cy="533334"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1012</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>1055</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="62" name="Рисунок 61">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{366CDAA3-51E7-401D-9022-10CCA2FD2C0C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId60"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7610475" y="8391525"/>
+          <a:ext cx="866667" cy="533334"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1012</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>1055</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="63" name="Рисунок 62">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{567492E8-710C-4037-B75E-E9A3EFE58880}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId61"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7610475" y="9991725"/>
+          <a:ext cx="866667" cy="533334"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1012</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>1054</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="64" name="Рисунок 63">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C6AE6A8E-E8C7-47CD-9385-E8F42730F24D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId62"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7610475" y="5191125"/>
+          <a:ext cx="866667" cy="533334"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1012</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>1055</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="65" name="Рисунок 64">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BEBA3959-25A9-4EE9-89B8-D51A969D6563}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId63"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7610475" y="5724525"/>
           <a:ext cx="866667" cy="533334"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3852,26 +4169,26 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="59" name="Рисунок 58">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E36A36D9-141A-434C-A1D1-821F34A1F614}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId57"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7610475" y="22259925"/>
+        <xdr:cNvPr id="67" name="Рисунок 66">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DC2EC41-A4FA-4DEB-B0A3-F74A1FA5D616}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId64"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7610475" y="21726525"/>
           <a:ext cx="866667" cy="533334"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3885,37 +4202,37 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>1012</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>1054</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="60" name="Рисунок 59">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{744D33C5-9C8E-4274-97A4-53AF65436497}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId58"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7610475" y="15859125"/>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>1055</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="68" name="Рисунок 67">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BEA9B29B-D621-4885-BF54-ED9525217A04}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId65"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7610475" y="24926925"/>
           <a:ext cx="866667" cy="533334"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3929,37 +4246,37 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>1012</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>1055</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="61" name="Рисунок 60">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E589FF-AAD5-4B7C-ACAA-14DD338762D9}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId59"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7610475" y="16392525"/>
+        <xdr:cNvPr id="69" name="Рисунок 68">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A7760FBE-4F84-48EC-9FFB-6D2718251796}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId66"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7610475" y="12658725"/>
           <a:ext cx="866667" cy="533334"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3973,37 +4290,37 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>1012</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>1055</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="62" name="Рисунок 61">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{366CDAA3-51E7-401D-9022-10CCA2FD2C0C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId60"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7610475" y="8391525"/>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>1054</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="70" name="Рисунок 69">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{49A60E25-53E2-4B2A-B2D1-A862502C545E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId67"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7610475" y="12125325"/>
           <a:ext cx="866667" cy="533334"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4017,37 +4334,37 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>1012</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>1055</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="63" name="Рисунок 62">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{567492E8-710C-4037-B75E-E9A3EFE58880}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId61"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7610475" y="9991725"/>
+        <xdr:cNvPr id="71" name="Рисунок 70">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D0D6C87E-E378-4054-9FF4-916464707F27}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId68"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7610475" y="11591925"/>
           <a:ext cx="866667" cy="533334"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4061,37 +4378,37 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>1012</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>1054</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="64" name="Рисунок 63">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C6AE6A8E-E8C7-47CD-9385-E8F42730F24D}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId62"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7610475" y="5191125"/>
+        <xdr:cNvPr id="72" name="Рисунок 71">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9E5F2176-4D85-4FE4-B675-C4DC6FB3CDF2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId69"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7610475" y="10525125"/>
           <a:ext cx="866667" cy="533334"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4105,38 +4422,170 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>1012</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>1055</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="65" name="Рисунок 64">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BEBA3959-25A9-4EE9-89B8-D51A969D6563}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId63"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7610475" y="5724525"/>
+        <xdr:cNvPr id="73" name="Рисунок 72">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7ABCF559-C940-49C4-8054-8CCF5319B138}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId70"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7610475" y="11058525"/>
           <a:ext cx="866667" cy="533334"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1012</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>1055</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="74" name="Рисунок 73">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AB762A54-54BA-47C4-914B-88B9E671D78D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId71"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7610475" y="4657725"/>
+          <a:ext cx="866667" cy="533334"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1012</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>1054</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="75" name="Рисунок 74">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7D032C07-48FD-43FA-A3DE-707DC05F4882}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId72"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7610475" y="20126325"/>
+          <a:ext cx="866667" cy="533334"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>4654</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>1052</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="77" name="Рисунок 76">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{45CE99BA-7F86-40C4-83AC-BB579E2AE568}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId73"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7610475" y="18526125"/>
+          <a:ext cx="871429" cy="533334"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4154,33 +4603,33 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>1012</xdr:colOff>
+      <xdr:colOff>4654</xdr:colOff>
       <xdr:row>42</xdr:row>
-      <xdr:rowOff>1055</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="67" name="Рисунок 66">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DC2EC41-A4FA-4DEB-B0A3-F74A1FA5D616}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId64"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7610475" y="21726525"/>
-          <a:ext cx="866667" cy="533334"/>
+      <xdr:rowOff>1056</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="79" name="Рисунок 78">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E67635B6-B17A-4737-B718-8A0B2CB46E58}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId74"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7610475" y="20659725"/>
+          <a:ext cx="871429" cy="533334"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4193,38 +4642,38 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>1012</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>1054</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="68" name="Рисунок 67">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BEA9B29B-D621-4885-BF54-ED9525217A04}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId65"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7610475" y="24926925"/>
-          <a:ext cx="866667" cy="533334"/>
+      <xdr:colOff>4654</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>1055</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="80" name="Рисунок 79">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8B75CD18-77C3-4286-975D-2F64BDBC86FA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId75"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7610475" y="16925925"/>
+          <a:ext cx="871429" cy="533334"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4237,38 +4686,38 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>49</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>1012</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>1055</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="69" name="Рисунок 68">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A7760FBE-4F84-48EC-9FFB-6D2718251796}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId66"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7610475" y="12658725"/>
-          <a:ext cx="866667" cy="533334"/>
+      <xdr:colOff>4654</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>1056</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="81" name="Рисунок 80">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D87D5154-9CA5-42B0-9D3A-7AC760EC3BCF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId76"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7610475" y="25993725"/>
+          <a:ext cx="871429" cy="533334"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4281,38 +4730,38 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>50</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>1012</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>1054</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="70" name="Рисунок 69">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{49A60E25-53E2-4B2A-B2D1-A862502C545E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId67"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7610475" y="12125325"/>
-          <a:ext cx="866667" cy="533334"/>
+      <xdr:colOff>4654</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>1053</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="82" name="Рисунок 81">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B3BF5118-EB53-4CB8-9345-CB9195E0B895}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId77"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7610475" y="26527125"/>
+          <a:ext cx="871429" cy="533334"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4325,38 +4774,38 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>1012</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>1055</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="71" name="Рисунок 70">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D0D6C87E-E378-4054-9FF4-916464707F27}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId68"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7610475" y="11591925"/>
-          <a:ext cx="866667" cy="533334"/>
+      <xdr:colOff>4654</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>1054</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="83" name="Рисунок 82">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CA286329-C253-4F55-8734-A31F09DC6DF9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId78"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7610475" y="13192125"/>
+          <a:ext cx="871429" cy="533334"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4369,37 +4818,37 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>1012</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>1054</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="72" name="Рисунок 71">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9E5F2176-4D85-4FE4-B675-C4DC6FB3CDF2}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId69"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7610475" y="10525125"/>
+        <xdr:cNvPr id="84" name="Рисунок 83">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6A287B0D-82B4-4DA1-9772-5B8A3EE16F15}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId79"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7610475" y="17459325"/>
           <a:ext cx="866667" cy="533334"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4413,37 +4862,37 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>1012</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>1055</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="73" name="Рисунок 72">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7ABCF559-C940-49C4-8054-8CCF5319B138}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId70"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7610475" y="11058525"/>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>1057</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="85" name="Рисунок 84">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9F5D8727-26F4-4116-A811-074113C1A44F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId80"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7610475" y="17992725"/>
           <a:ext cx="866667" cy="533334"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4457,37 +4906,345 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1012</xdr:colOff>
       <xdr:row>10</xdr:row>
+      <xdr:rowOff>1054</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="86" name="Рисунок 85">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0E2DCB06-3646-40E1-8E63-A4907EEF891C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId81"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7610475" y="4124325"/>
+          <a:ext cx="866667" cy="533334"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>1012</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>6</xdr:row>
       <xdr:rowOff>1055</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="74" name="Рисунок 73">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AB762A54-54BA-47C4-914B-88B9E671D78D}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId71"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7610475" y="4657725"/>
+        <xdr:cNvPr id="87" name="Рисунок 86">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{28F93629-2B47-4CB7-B0B7-D652F50DCF63}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId82"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7610475" y="2524125"/>
+          <a:ext cx="866667" cy="533334"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1012</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>1055</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="88" name="Рисунок 87">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EDBDD714-52B1-4902-8E9E-667439A19CF8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId83"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7610475" y="1990725"/>
+          <a:ext cx="866667" cy="533334"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1012</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>1055</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="89" name="Рисунок 88">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1F6C8C7F-E473-4C4D-B6A3-D757A7949B1E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId84"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7610475" y="923925"/>
+          <a:ext cx="866667" cy="533334"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1012</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>1055</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="90" name="Рисунок 89">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CEE57CD3-742E-4CB8-9F6A-CD86C3E3B93B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId85"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7610475" y="7324725"/>
+          <a:ext cx="866667" cy="533334"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1012</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>1055</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="91" name="Рисунок 90">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B8C9C55E-66B6-473F-B4EC-16805F2F684D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId86"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7610475" y="8924925"/>
+          <a:ext cx="866667" cy="533334"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1012</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>1055</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="92" name="Рисунок 91">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0F3EFFAD-EDE8-43DB-A2F5-1F2BF606380B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId87"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7610475" y="23326725"/>
+          <a:ext cx="866667" cy="533334"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1012</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>1055</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="93" name="Рисунок 92">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C26FAC73-3E8F-4FE5-A3B3-E9D86C2850DF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId88"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7610475" y="14792325"/>
           <a:ext cx="866667" cy="533334"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4512,159 +5269,27 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="75" name="Рисунок 74">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7D032C07-48FD-43FA-A3DE-707DC05F4882}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId72"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7610475" y="20126325"/>
+        <xdr:cNvPr id="94" name="Рисунок 93">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BFB17113-BF63-45EE-8FFD-5B8E99DC3A01}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId89"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7610475" y="19592925"/>
           <a:ext cx="866667" cy="533334"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>4654</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>1054</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="77" name="Рисунок 76">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{45CE99BA-7F86-40C4-83AC-BB579E2AE568}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId73"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7610475" y="18526125"/>
-          <a:ext cx="871429" cy="533334"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>4654</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>1055</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="79" name="Рисунок 78">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E67635B6-B17A-4737-B718-8A0B2CB46E58}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId74"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7610475" y="20659725"/>
-          <a:ext cx="871429" cy="533334"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>4654</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>1054</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="80" name="Рисунок 79">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8B75CD18-77C3-4286-975D-2F64BDBC86FA}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId75"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7610475" y="16925925"/>
-          <a:ext cx="871429" cy="533334"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4682,625 +5307,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>4654</xdr:colOff>
+      <xdr:colOff>1012</xdr:colOff>
       <xdr:row>49</xdr:row>
       <xdr:rowOff>1054</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="81" name="Рисунок 80">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D87D5154-9CA5-42B0-9D3A-7AC760EC3BCF}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId76"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7610475" y="25993725"/>
-          <a:ext cx="871429" cy="533334"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>4654</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>1055</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="82" name="Рисунок 81">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B3BF5118-EB53-4CB8-9345-CB9195E0B895}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId77"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7610475" y="26527125"/>
-          <a:ext cx="871429" cy="533334"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>4654</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>1054</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="83" name="Рисунок 82">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CA286329-C253-4F55-8734-A31F09DC6DF9}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId78"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7610475" y="13192125"/>
-          <a:ext cx="871429" cy="533334"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>1012</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>1055</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="84" name="Рисунок 83">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6A287B0D-82B4-4DA1-9772-5B8A3EE16F15}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId79"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7610475" y="17459325"/>
-          <a:ext cx="866667" cy="533334"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>1012</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>1055</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="85" name="Рисунок 84">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9F5D8727-26F4-4116-A811-074113C1A44F}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId80"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7610475" y="17992725"/>
-          <a:ext cx="866667" cy="533334"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>1012</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>1054</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="86" name="Рисунок 85">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0E2DCB06-3646-40E1-8E63-A4907EEF891C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId81"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7610475" y="4124325"/>
-          <a:ext cx="866667" cy="533334"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>1012</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>1055</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="87" name="Рисунок 86">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{28F93629-2B47-4CB7-B0B7-D652F50DCF63}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId82"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7610475" y="2524125"/>
-          <a:ext cx="866667" cy="533334"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>1012</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>1055</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="88" name="Рисунок 87">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EDBDD714-52B1-4902-8E9E-667439A19CF8}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId83"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7610475" y="1990725"/>
-          <a:ext cx="866667" cy="533334"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>1012</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>1055</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="89" name="Рисунок 88">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1F6C8C7F-E473-4C4D-B6A3-D757A7949B1E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId84"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7610475" y="923925"/>
-          <a:ext cx="866667" cy="533334"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>1012</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>1055</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="90" name="Рисунок 89">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CEE57CD3-742E-4CB8-9F6A-CD86C3E3B93B}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId85"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7610475" y="7324725"/>
-          <a:ext cx="866667" cy="533334"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>1012</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>1055</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="91" name="Рисунок 90">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B8C9C55E-66B6-473F-B4EC-16805F2F684D}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId86"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7610475" y="8924925"/>
-          <a:ext cx="866667" cy="533334"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>1012</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>1054</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="92" name="Рисунок 91">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0F3EFFAD-EDE8-43DB-A2F5-1F2BF606380B}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId87"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7610475" y="23326725"/>
-          <a:ext cx="866667" cy="533334"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>1012</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>1055</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="93" name="Рисунок 92">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C26FAC73-3E8F-4FE5-A3B3-E9D86C2850DF}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId88"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7610475" y="14792325"/>
-          <a:ext cx="866667" cy="533334"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>1012</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>1054</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="94" name="Рисунок 93">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BFB17113-BF63-45EE-8FFD-5B8E99DC3A01}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId89"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7610475" y="19592925"/>
-          <a:ext cx="866667" cy="533334"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>1012</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>1055</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5381,14 +5390,14 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>52</xdr:row>
+      <xdr:row>53</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>6516</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>3246</xdr:rowOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>3247</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5513,14 +5522,14 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>3922</xdr:colOff>
-      <xdr:row>45</xdr:row>
+      <xdr:row>46</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>927236</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>3744</xdr:rowOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>3743</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5556,13 +5565,13 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>35860</xdr:colOff>
+      <xdr:colOff>2519</xdr:colOff>
       <xdr:row>27</xdr:row>
       <xdr:rowOff>524996</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>918622</xdr:colOff>
+      <xdr:colOff>923662</xdr:colOff>
       <xdr:row>29</xdr:row>
       <xdr:rowOff>3675</xdr:rowOff>
     </xdr:to>
@@ -5587,8 +5596,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8193742" y="14728452"/>
-          <a:ext cx="882762" cy="543238"/>
+          <a:off x="8155919" y="14760109"/>
+          <a:ext cx="921143" cy="545479"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5601,14 +5610,14 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>57</xdr:row>
+      <xdr:row>58</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>58</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>114299</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -5649,14 +5658,14 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>57</xdr:row>
+      <xdr:row>58</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>58</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>114299</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -5697,14 +5706,14 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>57</xdr:row>
+      <xdr:row>58</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>59</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>47624</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5758,13 +5767,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>61</xdr:row>
+      <xdr:row>62</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>523875</xdr:colOff>
-      <xdr:row>62</xdr:row>
+      <xdr:row>63</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -5819,13 +5828,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:row>49</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:row>49</xdr:row>
       <xdr:rowOff>438150</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -5880,14 +5889,14 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>2253</xdr:colOff>
-      <xdr:row>50</xdr:row>
+      <xdr:row>51</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>4940</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>74</xdr:rowOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>75</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5941,13 +5950,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>50</xdr:row>
+      <xdr:row>51</xdr:row>
       <xdr:rowOff>19051</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>783045</xdr:colOff>
-      <xdr:row>50</xdr:row>
+      <xdr:row>51</xdr:row>
       <xdr:rowOff>521908</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -6307,13 +6316,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>123482</xdr:colOff>
-      <xdr:row>51</xdr:row>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>6801</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>775945</xdr:colOff>
-      <xdr:row>51</xdr:row>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>530676</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -6368,13 +6377,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>1784</xdr:colOff>
-      <xdr:row>50</xdr:row>
+      <xdr:row>51</xdr:row>
       <xdr:rowOff>531611</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>1857</xdr:colOff>
-      <xdr:row>52</xdr:row>
+      <xdr:row>53</xdr:row>
       <xdr:rowOff>4168</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -6407,6 +6416,67 @@
         <a:xfrm>
           <a:off x="8154589" y="27005158"/>
           <a:ext cx="928761" cy="538166"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1286</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>530840</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>4013</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>802</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="118" name="Рисунок 117">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E9EB00BD-A874-4DB6-9A61-8F46390F56DF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId109">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8154686" y="17967033"/>
+          <a:ext cx="930734" cy="536762"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8931,10 +9001,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H65"/>
+  <dimension ref="A1:H66"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -9496,7 +9566,7 @@
       <c r="F32" s="24"/>
       <c r="G32" s="25"/>
     </row>
-    <row r="33" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A33" s="53"/>
       <c r="B33" s="4" t="s">
         <v>63</v>
@@ -9513,7 +9583,7 @@
       <c r="F33" s="24"/>
       <c r="G33" s="25"/>
     </row>
-    <row r="34" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A34" s="53"/>
       <c r="B34" s="4" t="s">
         <v>64</v>
@@ -9530,258 +9600,257 @@
       <c r="F34" s="24"/>
       <c r="G34" s="25"/>
     </row>
-    <row r="35" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A35" s="53"/>
       <c r="B35" s="4" t="s">
-        <v>67</v>
+        <v>232</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>66</v>
+        <v>231</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>65</v>
+        <v>230</v>
       </c>
       <c r="E35" s="6" t="s">
-        <v>65</v>
+        <v>230</v>
       </c>
       <c r="F35" s="24"/>
       <c r="G35" s="25"/>
     </row>
-    <row r="36" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A36" s="53"/>
       <c r="B36" s="4" t="s">
-        <v>160</v>
+        <v>67</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>161</v>
-      </c>
-      <c r="D36" s="12" t="s">
-        <v>162</v>
+        <v>66</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>65</v>
       </c>
       <c r="E36" s="6" t="s">
-        <v>163</v>
+        <v>65</v>
       </c>
       <c r="F36" s="24"/>
       <c r="G36" s="25"/>
     </row>
-    <row r="37" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A37" s="53"/>
       <c r="B37" s="4" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>151</v>
+        <v>161</v>
       </c>
       <c r="D37" s="12" t="s">
-        <v>150</v>
+        <v>162</v>
       </c>
       <c r="E37" s="6" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F37" s="24"/>
       <c r="G37" s="25"/>
     </row>
-    <row r="38" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A38" s="53"/>
       <c r="B38" s="4" t="s">
-        <v>70</v>
+        <v>154</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="D38" s="6" t="s">
-        <v>68</v>
+        <v>151</v>
+      </c>
+      <c r="D38" s="12" t="s">
+        <v>150</v>
       </c>
       <c r="E38" s="6" t="s">
-        <v>68</v>
+        <v>164</v>
       </c>
       <c r="F38" s="24"/>
       <c r="G38" s="25"/>
     </row>
-    <row r="39" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A39" s="53"/>
       <c r="B39" s="4" t="s">
-        <v>9</v>
+        <v>70</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="D39" s="13" t="s">
-        <v>71</v>
+        <v>69</v>
+      </c>
+      <c r="D39" s="6" t="s">
+        <v>68</v>
       </c>
       <c r="E39" s="6" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F39" s="24"/>
       <c r="G39" s="25"/>
     </row>
-    <row r="40" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A40" s="53"/>
       <c r="B40" s="4" t="s">
-        <v>75</v>
+        <v>9</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="D40" s="6" t="s">
-        <v>77</v>
+        <v>73</v>
+      </c>
+      <c r="D40" s="13" t="s">
+        <v>71</v>
       </c>
       <c r="E40" s="6" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="F40" s="24"/>
       <c r="G40" s="25"/>
     </row>
-    <row r="41" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A41" s="53"/>
       <c r="B41" s="4" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D41" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E41" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F41" s="24"/>
       <c r="G41" s="25"/>
     </row>
-    <row r="42" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A42" s="53"/>
       <c r="B42" s="4" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D42" s="6" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="E42" s="6" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="F42" s="24"/>
       <c r="G42" s="25"/>
     </row>
-    <row r="43" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A43" s="53"/>
       <c r="B43" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D43" s="6" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="E43" s="6" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="F43" s="24"/>
       <c r="G43" s="25"/>
     </row>
-    <row r="44" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A44" s="53"/>
       <c r="B44" s="4" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>165</v>
-      </c>
-      <c r="D44" s="5" t="s">
-        <v>87</v>
+        <v>85</v>
+      </c>
+      <c r="D44" s="6" t="s">
+        <v>86</v>
       </c>
       <c r="E44" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F44" s="24"/>
       <c r="G44" s="25"/>
     </row>
-    <row r="45" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A45" s="53"/>
       <c r="B45" s="4" t="s">
-        <v>108</v>
+        <v>88</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="D45" s="14" t="s">
-        <v>105</v>
-      </c>
-      <c r="E45" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="F45" s="26"/>
+        <v>165</v>
+      </c>
+      <c r="D45" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="E45" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="F45" s="24"/>
       <c r="G45" s="25"/>
     </row>
-    <row r="46" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A46" s="53"/>
       <c r="B46" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="D46" s="12" t="s">
-        <v>110</v>
-      </c>
-      <c r="E46" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="F46" s="35"/>
+        <v>106</v>
+      </c>
+      <c r="D46" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="E46" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="F46" s="26"/>
       <c r="G46" s="25"/>
     </row>
-    <row r="47" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A47" s="53"/>
       <c r="B47" s="4" t="s">
-        <v>92</v>
+        <v>109</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="D47" s="5" t="s">
-        <v>112</v>
+        <v>107</v>
+      </c>
+      <c r="D47" s="12" t="s">
+        <v>110</v>
       </c>
       <c r="E47" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="F47" s="24"/>
+        <v>111</v>
+      </c>
+      <c r="F47" s="35"/>
       <c r="G47" s="25"/>
     </row>
-    <row r="48" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A48" s="53"/>
       <c r="B48" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="D48" s="12" t="s">
-        <v>95</v>
+        <v>113</v>
+      </c>
+      <c r="D48" s="5" t="s">
+        <v>112</v>
       </c>
       <c r="E48" s="6" t="s">
-        <v>96</v>
+        <v>112</v>
       </c>
       <c r="F48" s="24"/>
       <c r="G48" s="25"/>
-      <c r="H48" s="8"/>
     </row>
     <row r="49" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A49" s="53"/>
       <c r="B49" s="4" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="D49" s="5" t="s">
-        <v>97</v>
+        <v>94</v>
+      </c>
+      <c r="D49" s="12" t="s">
+        <v>95</v>
       </c>
       <c r="E49" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F49" s="24"/>
       <c r="G49" s="25"/>
@@ -9790,105 +9859,123 @@
     <row r="50" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A50" s="53"/>
       <c r="B50" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>166</v>
+        <v>98</v>
       </c>
       <c r="D50" s="5" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="E50" s="6" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="F50" s="24"/>
       <c r="G50" s="25"/>
       <c r="H50" s="8"/>
     </row>
     <row r="51" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A51" s="55"/>
-      <c r="B51" s="38" t="s">
-        <v>173</v>
-      </c>
-      <c r="C51" s="39" t="s">
-        <v>172</v>
-      </c>
-      <c r="D51" s="12" t="s">
-        <v>175</v>
-      </c>
-      <c r="E51" s="40" t="s">
-        <v>176</v>
-      </c>
-      <c r="F51" s="41"/>
-      <c r="G51" s="42"/>
+      <c r="A51" s="53"/>
+      <c r="B51" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="C51" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="D51" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="E51" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="F51" s="24"/>
+      <c r="G51" s="25"/>
       <c r="H51" s="8"/>
     </row>
     <row r="52" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A52" s="55"/>
       <c r="B52" s="38" t="s">
-        <v>227</v>
+        <v>173</v>
       </c>
       <c r="C52" s="39" t="s">
-        <v>226</v>
-      </c>
-      <c r="D52" s="51" t="s">
-        <v>224</v>
+        <v>172</v>
+      </c>
+      <c r="D52" s="12" t="s">
+        <v>175</v>
       </c>
       <c r="E52" s="40" t="s">
-        <v>225</v>
+        <v>176</v>
       </c>
       <c r="F52" s="41"/>
       <c r="G52" s="42"/>
       <c r="H52" s="8"/>
     </row>
-    <row r="53" spans="1:8" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A53" s="56"/>
-      <c r="B53" s="10" t="s">
+    <row r="53" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A53" s="55"/>
+      <c r="B53" s="38" t="s">
+        <v>227</v>
+      </c>
+      <c r="C53" s="39" t="s">
+        <v>226</v>
+      </c>
+      <c r="D53" s="51" t="s">
+        <v>224</v>
+      </c>
+      <c r="E53" s="40" t="s">
+        <v>225</v>
+      </c>
+      <c r="F53" s="41"/>
+      <c r="G53" s="42"/>
+      <c r="H53" s="8"/>
+    </row>
+    <row r="54" spans="1:8" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A54" s="56"/>
+      <c r="B54" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="C53" s="11" t="s">
+      <c r="C54" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="D53" s="15" t="s">
+      <c r="D54" s="15" t="s">
         <v>115</v>
       </c>
-      <c r="E53" s="7" t="s">
+      <c r="E54" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="F53" s="37"/>
-      <c r="G53" s="28"/>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="B55" s="8" t="s">
-        <v>169</v>
-      </c>
+      <c r="F54" s="37"/>
+      <c r="G54" s="28"/>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B56" s="8" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="B57" s="8" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="B58"/>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="B59" s="8" t="s">
+      <c r="B59"/>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="B60" s="8" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="B62" t="s">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="B63" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="65" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B65"/>
+    <row r="66" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B66"/>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A2:A9"/>
     <mergeCell ref="A23:A27"/>
-    <mergeCell ref="A28:A53"/>
+    <mergeCell ref="A28:A54"/>
     <mergeCell ref="A10:A22"/>
   </mergeCells>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.31496062992125984" bottom="0.31496062992125984" header="0" footer="0"/>
